--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A2E2EB-6DF9-40AD-85FE-DBBBB5D6554C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D98BFD0-2C08-45C3-8A86-D0E1D9AD0B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{C4F54488-0657-4C69-A377-CC4A3E2BE5EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="1" xr2:uid="{C4F54488-0657-4C69-A377-CC4A3E2BE5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="NAV Aug12" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="111">
   <si>
     <t>negligible</t>
   </si>
@@ -226,9 +235,6 @@
     <t>24k gift2kids included</t>
   </si>
   <si>
-    <t>grandpa's</t>
-  </si>
-  <si>
     <t>mom</t>
   </si>
   <si>
@@ -286,16 +292,10 @@
     <t>displayed</t>
   </si>
   <si>
-    <t>momFSM</t>
-  </si>
-  <si>
     <t>DBS mufu ex SRS</t>
   </si>
   <si>
     <t>20k write-off</t>
-  </si>
-  <si>
-    <t>Jill</t>
   </si>
   <si>
     <t>FLI2</t>
@@ -344,9 +344,6 @@
     <t>TRBCX</t>
   </si>
   <si>
-    <t>mufu]OC</t>
-  </si>
-  <si>
     <t>bank: BOC</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>bank: citi.SG sav</t>
   </si>
   <si>
-    <t>Citi.sg+BOC</t>
-  </si>
-  <si>
     <t>bank: citi.SG TD</t>
   </si>
   <si>
@@ -411,6 +405,24 @@
   </si>
   <si>
     <t>px</t>
+  </si>
+  <si>
+    <t>grey text means copied from previous snapshot, without validation</t>
+  </si>
+  <si>
+    <t>Jill:</t>
+  </si>
+  <si>
+    <t>mufu]OC:</t>
+  </si>
+  <si>
+    <t>grandpa's:</t>
+  </si>
+  <si>
+    <t>Citi.sg+BOC:</t>
+  </si>
+  <si>
+    <t>momFSM:</t>
   </si>
 </sst>
 </file>
@@ -424,7 +436,7 @@
     <numFmt numFmtId="166" formatCode="[$SGD]\ #,##0"/>
     <numFmt numFmtId="167" formatCode="[$USD]\ #,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -492,6 +504,11 @@
       <sz val="8"/>
       <name val="Tahoma"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -615,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -634,15 +651,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -672,15 +683,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -689,23 +691,11 @@
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -714,12 +704,44 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1304,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86409F8-76AB-42EC-A25B-5C40629219B7}">
-  <dimension ref="B1:S50"/>
+  <dimension ref="B1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1335,1364 +1357,1364 @@
   <sheetData>
     <row r="1" spans="2:19" ht="6" customHeight="1"/>
     <row r="2" spans="2:19">
-      <c r="B2" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="53"/>
+        <v>102</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="53"/>
+        <v>101</v>
+      </c>
+      <c r="K2" s="53"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="53"/>
+        <v>100</v>
+      </c>
+      <c r="N2" s="53"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q2" s="51"/>
+        <v>99</v>
+      </c>
+      <c r="Q2" s="53"/>
       <c r="R2" s="52">
         <v>42401</v>
       </c>
-      <c r="S2" s="51"/>
+      <c r="S2" s="53"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="49" t="s">
+      <c r="B3" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="41">
+      <c r="G4" s="20"/>
+      <c r="H4" s="34">
         <f>K4</f>
         <v>20000</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="44">
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="36">
         <f>N4</f>
         <v>20000</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="43">
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="35">
         <f>Q4</f>
         <v>20000</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21">
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="19">
         <v>20000</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="21">
+      <c r="R4" s="21"/>
+      <c r="S4" s="19">
         <v>20000</v>
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="41">
+      <c r="G5" s="20"/>
+      <c r="H5" s="34">
         <f>K5</f>
         <v>1800</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="21">
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="19">
         <f>300*6</f>
         <v>1800</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="43">
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="35">
         <f>Q5</f>
         <v>1200</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="21">
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="19">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="21">
+      <c r="R5" s="21"/>
+      <c r="S5" s="19">
         <v>1020</v>
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="23" t="s">
+      <c r="B6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="G6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="19">
         <f>1000*(4+2+5+3+7+10+3+5+2+3+1)</f>
         <v>45000</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="21">
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="19">
         <v>32000</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21">
+      <c r="L6" s="19"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="19">
         <v>0</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="21">
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="19">
         <v>0</v>
       </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="21">
+      <c r="G7" s="20"/>
+      <c r="H7" s="19">
         <v>238</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="21">
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="19">
         <v>564</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="21">
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="19">
         <v>6100</v>
       </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="D8" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="21">
+      <c r="G8" s="20"/>
+      <c r="H8" s="19">
         <v>1500</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="21">
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="19">
         <v>1500</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21">
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="19">
         <v>1642</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="21">
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="19">
         <v>1300</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="23" t="s">
+      <c r="B9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="D9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21">
+      <c r="G9" s="20"/>
+      <c r="H9" s="19">
         <v>1500</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="21">
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="19">
         <v>1500</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="21">
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="19">
         <v>2031</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="21">
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="19">
         <v>107000</v>
       </c>
-      <c r="R9" s="23"/>
-      <c r="S9" s="21">
+      <c r="R9" s="21"/>
+      <c r="S9" s="19">
         <v>120000</v>
       </c>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="D10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="21">
+      <c r="G10" s="20"/>
+      <c r="H10" s="19">
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="19">
+      <c r="I10" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17">
         <f>14300+2000</f>
         <v>16300</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19">
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="17">
         <v>57781</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="19">
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="17">
         <v>0</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
     </row>
     <row r="11" spans="2:19" ht="11.25" customHeight="1">
-      <c r="B11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="23" t="s">
+      <c r="B11" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="21">
+      <c r="G11" s="20"/>
+      <c r="H11" s="19">
         <v>45</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19">
+      <c r="I11" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17">
         <v>-46000</v>
       </c>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="19">
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="17">
         <v>-36000</v>
       </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
     </row>
     <row r="12" spans="2:19" ht="14.25" customHeight="1">
-      <c r="B12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="B12" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21">
+      <c r="G12" s="20"/>
+      <c r="H12" s="19">
         <v>34004</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="47">
+      <c r="I12" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="38">
         <v>5000</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="46">
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="37">
         <f>Q12</f>
         <v>5000</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="19">
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="17">
         <v>5000</v>
       </c>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="41">
+      <c r="G13" s="20"/>
+      <c r="H13" s="34">
         <f>K13</f>
         <v>2500</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="44">
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="36">
         <f>N13</f>
         <v>2500</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="43">
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="35">
         <f>Q13</f>
         <v>2500</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="21">
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="19">
         <v>2500</v>
       </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="C14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="41">
+      <c r="G14" s="20"/>
+      <c r="H14" s="34">
         <f>K14</f>
         <v>5000</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="44">
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="36">
         <f>N14</f>
         <v>5000</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="43">
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="35">
         <f>Q14</f>
         <v>5000</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="21">
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="19">
         <v>5000</v>
       </c>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="C15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21">
+      <c r="G15" s="20"/>
+      <c r="H15" s="19">
         <v>9800</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="21">
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="19">
         <v>13400</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="21">
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="19">
         <v>1300</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="21">
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="19">
         <v>900</v>
       </c>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" spans="2:19" ht="13.15" customHeight="1">
-      <c r="B16" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>65</v>
+      <c r="B16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="41">
+      <c r="G16" s="20"/>
+      <c r="H16" s="34">
         <f>K16</f>
         <v>90000</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="44">
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="36">
         <f>Q16</f>
         <v>90000</v>
       </c>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="43">
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="35">
         <f>Q16</f>
         <v>90000</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="21">
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="19">
         <v>90000</v>
       </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="21">
+      <c r="R16" s="21"/>
+      <c r="S16" s="19">
         <v>90000</v>
       </c>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="B17" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="41">
+      <c r="G17" s="20"/>
+      <c r="H17" s="34">
         <f>K17</f>
         <v>439000</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="21">
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="19">
         <f>Q17+169000</f>
         <v>439000</v>
       </c>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="21">
+      <c r="L17" s="19"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="19">
         <f>Q17+169000*40%</f>
         <v>337600</v>
       </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="21">
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="19">
         <v>270000</v>
       </c>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="40"/>
-      <c r="C18" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="33">
         <f>J18</f>
         <v>200000</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="32">
+      <c r="H18" s="27"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="27">
         <f>M18</f>
         <v>200000</v>
       </c>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="32">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="27">
         <f>P18</f>
         <v>200000</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="22">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20">
         <v>200000</v>
       </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19">
         <v>105000</v>
       </c>
-      <c r="S18" s="23"/>
+      <c r="S18" s="21"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="B19" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="20">
         <v>750000</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22">
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20">
         <f>750000-415000</f>
         <v>335000</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="32">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="27">
         <f>P19</f>
         <v>600000</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="22">
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20">
         <v>600000</v>
       </c>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="22">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="20">
         <f>600000-154000</f>
         <v>446000</v>
       </c>
-      <c r="S19" s="23"/>
+      <c r="S19" s="21"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="B20" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="22">
+      <c r="B20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="20">
         <f>0+27000+15000</f>
         <v>42000</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22">
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20">
         <f>1000+18000+15000</f>
         <v>34000</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22">
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20">
         <f>37303+14272+15932</f>
         <v>67507</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22">
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20">
         <f>(35+13+14)*1000</f>
         <v>62000</v>
       </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="27">
+      <c r="Q20" s="19"/>
+      <c r="R20" s="25">
         <v>5000</v>
       </c>
-      <c r="S20" s="23"/>
+      <c r="S20" s="21"/>
     </row>
     <row r="21" spans="2:19">
-      <c r="B21" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="23" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="20">
         <f>221400+71000</f>
         <v>292400</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22">
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20">
         <f>205000+68000</f>
         <v>273000</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="22">
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20">
         <f>57247+54415</f>
         <v>111662</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="22">
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20">
         <f>51797+50452</f>
         <v>102249</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="22">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20">
         <v>78000</v>
       </c>
-      <c r="S21" s="23"/>
+      <c r="S21" s="21"/>
     </row>
     <row r="22" spans="2:19">
-      <c r="B22" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="B22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="20">
         <v>24600</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22">
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20">
         <f>(113000+20000)+8000</f>
         <v>141000</v>
       </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22">
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20">
         <v>24201</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="22">
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20">
         <v>17000</v>
       </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="27">
+      <c r="Q22" s="19"/>
+      <c r="R22" s="25">
         <v>142000</v>
       </c>
-      <c r="S22" s="23"/>
+      <c r="S22" s="21"/>
     </row>
     <row r="23" spans="2:19">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="38">
+      <c r="D23" s="46"/>
+      <c r="E23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="32">
         <f>J23</f>
         <v>5000</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="38">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="32">
         <v>5000</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="32">
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="27">
         <v>5000</v>
       </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="22">
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20">
         <v>5000</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
     </row>
     <row r="24" spans="2:19">
-      <c r="B24" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="23" t="s">
+      <c r="B24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="20">
         <v>50065</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="35">
+      <c r="H24" s="19"/>
+      <c r="I24" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="30">
         <f>P24</f>
         <v>20000</v>
       </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20">
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18">
         <v>20000</v>
       </c>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20">
+      <c r="Q24" s="17"/>
+      <c r="R24" s="18">
         <v>30000</v>
       </c>
-      <c r="S24" s="18"/>
+      <c r="S24" s="16"/>
     </row>
     <row r="25" spans="2:19">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="F25" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1234</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18">
+        <v>92574</v>
+      </c>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="18">
+        <v>102000</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="29">
+        <v>55000</v>
+      </c>
+      <c r="S25" s="16"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="23" t="s">
+      <c r="E26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="22">
-        <v>1234</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="20">
+      <c r="G26" s="20">
+        <v>36140</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20">
+        <v>40000</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20">
+        <v>27907</v>
+      </c>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20">
+        <v>6000</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="25">
+        <v>155000</v>
+      </c>
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="20">
         <v>1000</v>
       </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20">
-        <v>92574</v>
-      </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20">
-        <v>102000</v>
-      </c>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="34">
-        <v>55000</v>
-      </c>
-      <c r="S25" s="18"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="23" t="s">
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20">
+        <v>2000</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20">
+        <v>28176</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20">
+        <v>20000</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="22">
-        <v>36140</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22">
-        <v>40000</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22">
-        <v>27907</v>
-      </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="22">
-        <v>6000</v>
-      </c>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="27">
-        <v>155000</v>
-      </c>
-      <c r="S26" s="23"/>
-    </row>
-    <row r="27" spans="2:19">
-      <c r="B27" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="22">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22">
-        <v>2000</v>
-      </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22">
-        <v>28176</v>
-      </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22">
-        <v>20000</v>
-      </c>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-    </row>
-    <row r="28" spans="2:19">
-      <c r="B28" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="20">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22">
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20">
         <f>15000*3</f>
         <v>45000</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="32">
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="27">
         <v>0</v>
       </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="22">
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20">
         <v>0</v>
       </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="23" t="s">
+      <c r="B29" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="E29" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="20">
         <v>285000</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22">
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20">
         <f>176000</f>
         <v>176000</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="20">
+        <v>10017</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20">
+        <v>9000</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20">
+        <v>20000</v>
+      </c>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="21"/>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="22">
-        <v>10017</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22">
-        <v>9000</v>
-      </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22">
-        <v>20000</v>
-      </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="23"/>
-    </row>
-    <row r="31" spans="2:19">
-      <c r="B31" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="22">
+      <c r="G31" s="20">
         <v>385000</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
         <v>598000</v>
       </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="22">
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="20">
         <f>27564</f>
         <v>27564</v>
       </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22">
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20">
         <v>20000</v>
       </c>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="27">
+      <c r="Q31" s="19"/>
+      <c r="R31" s="25">
         <v>20000</v>
       </c>
-      <c r="S31" s="23"/>
+      <c r="S31" s="21"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="20">
         <v>-200970</v>
       </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22">
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20">
         <f>-140000</f>
         <v>-140000</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="24" t="s">
+      <c r="D33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="E33" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="20">
         <v>-600</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22">
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20">
         <v>0</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="22">
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20">
         <v>0</v>
       </c>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="22">
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20">
         <v>0</v>
       </c>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
     </row>
     <row r="34" spans="2:19">
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="23" t="s">
+      <c r="E34" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="22">
+      <c r="F34" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="20">
         <v>1600</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="20" t="s">
+      <c r="H34" s="19"/>
+      <c r="I34" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="20">
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="18">
         <v>-30000</v>
       </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20">
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="18">
         <v>-40000</v>
       </c>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20">
+      <c r="Q34" s="17"/>
+      <c r="R34" s="18">
         <v>-30000</v>
       </c>
-      <c r="S34" s="18"/>
+      <c r="S34" s="16"/>
     </row>
     <row r="35" spans="2:19">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="20">
         <v>20000</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="22">
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20">
         <v>16000</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M35" s="20"/>
-      <c r="N35" s="19">
+      <c r="M35" s="18"/>
+      <c r="N35" s="17">
         <f>Q35</f>
         <v>20000</v>
       </c>
-      <c r="O35" s="18"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="19">
+      <c r="O35" s="16"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="17">
         <v>20000</v>
       </c>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
     </row>
     <row r="36" spans="2:19">
       <c r="D36" s="7"/>
@@ -2703,7 +2725,7 @@
         <f>SUM(G4:G35)</f>
         <v>1962486</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="13">
         <f>SUM(H4:H35)</f>
         <v>683087</v>
       </c>
@@ -2748,7 +2770,7 @@
       <c r="G37" s="1">
         <v>1962486</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="13">
         <v>683087</v>
       </c>
       <c r="J37" s="1">
@@ -2777,10 +2799,10 @@
       </c>
     </row>
     <row r="38" spans="2:19">
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="14">
         <v>1.34</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -2789,63 +2811,63 @@
       <c r="K38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N38" s="15"/>
+      <c r="N38" s="13"/>
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="2:19" s="9" customFormat="1" ht="8.25">
-      <c r="D39" s="14"/>
-      <c r="E39" s="13" t="s">
+    <row r="39" spans="2:19" s="8" customFormat="1" ht="8.25">
+      <c r="D39" s="12"/>
+      <c r="E39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="50">
         <f>G40/$F$38</f>
         <v>2147628.7910447759</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="12">
+      <c r="H39" s="50"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="50">
         <f>J40/$F$38</f>
         <v>1922776.1194029849</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="10"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="2:19">
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="51">
         <f>H36*$F$38+G36</f>
         <v>2877822.58</v>
       </c>
-      <c r="H40" s="8"/>
-      <c r="J40" s="8">
+      <c r="H40" s="51"/>
+      <c r="J40" s="51">
         <f>K36*$F$38+J36</f>
         <v>2576520</v>
       </c>
-      <c r="K40" s="8"/>
-      <c r="M40" s="8">
+      <c r="K40" s="51"/>
+      <c r="M40" s="51">
         <f>N36*1.37+M36</f>
         <v>1877697.6600000001</v>
       </c>
-      <c r="N40" s="8"/>
-      <c r="P40" s="8">
+      <c r="N40" s="51"/>
+      <c r="P40" s="51">
         <f>Q36*1.37+P36</f>
         <v>1789659</v>
       </c>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8">
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51">
         <f>S36*1.36+R36</f>
         <v>1320187.2</v>
       </c>
-      <c r="S40" s="8"/>
+      <c r="S40" s="51"/>
     </row>
     <row r="41" spans="2:19">
       <c r="B41" t="s">
@@ -2979,7 +3001,9 @@
       <c r="Q49" s="4"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="3"/>
+      <c r="B50" s="55" t="s">
+        <v>105</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2995,23 +3019,38 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="54"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="54"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="54"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="54"/>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="54"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D16:D24"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="J39:K39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D98BFD0-2C08-45C3-8A86-D0E1D9AD0B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D1B6AF-AD31-41AF-B0B4-B126D9DB7B87}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="1" xr2:uid="{C4F54488-0657-4C69-A377-CC4A3E2BE5EB}"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="1" xr2:uid="{C4F54488-0657-4C69-A377-CC4A3E2BE5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="NAV Aug12" sheetId="1" r:id="rId1"/>
-    <sheet name="NAV23" sheetId="2" r:id="rId2"/>
+    <sheet name="NAV24" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -704,6 +704,20 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -728,20 +742,6 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86409F8-76AB-42EC-A25B-5C40629219B7}">
   <dimension ref="B1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1366,29 +1366,29 @@
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="53"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="42"/>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="42"/>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="53"/>
+      <c r="N2" s="47"/>
       <c r="O2" s="42"/>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="52">
+      <c r="Q2" s="47"/>
+      <c r="R2" s="46">
         <v>42401</v>
       </c>
-      <c r="S2" s="53"/>
+      <c r="S2" s="47"/>
     </row>
     <row r="3" spans="2:19">
       <c r="B3" s="41" t="s">
@@ -1703,7 +1703,7 @@
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="45" t="s">
         <v>109</v>
       </c>
       <c r="J10" s="18"/>
@@ -1744,7 +1744,7 @@
       <c r="H11" s="19">
         <v>45</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="45" t="s">
         <v>108</v>
       </c>
       <c r="J11" s="18"/>
@@ -1784,7 +1784,7 @@
       <c r="H12" s="19">
         <v>34004</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="45" t="s">
         <v>107</v>
       </c>
       <c r="J12" s="18"/>
@@ -1932,7 +1932,7 @@
       <c r="C16" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="51" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="21" t="s">
@@ -1969,13 +1969,13 @@
       </c>
     </row>
     <row r="17" spans="2:19">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="46"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="21" t="s">
         <v>77</v>
       </c>
@@ -2008,11 +2008,11 @@
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="44"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="21" t="s">
         <v>76</v>
       </c>
@@ -2053,7 +2053,7 @@
       <c r="C19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="21" t="s">
         <v>75</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="C20" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="46"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="21" t="s">
         <v>74</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="C21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="21" t="s">
         <v>73</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="C22" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="21" t="s">
         <v>71</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="C23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="46"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="21" t="s">
         <v>70</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="C24" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="31" t="s">
         <v>69</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>50065</v>
       </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="45" t="s">
         <v>106</v>
       </c>
       <c r="J24" s="18" t="s">
@@ -2308,7 +2308,7 @@
         <v>1234</v>
       </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="45" t="s">
         <v>110</v>
       </c>
       <c r="J25" s="18">
@@ -2525,11 +2525,11 @@
       <c r="B31" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="23" t="s">
         <v>55</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>1600</v>
       </c>
       <c r="H34" s="19"/>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="45" t="s">
         <v>108</v>
       </c>
       <c r="J34" s="18" t="s">
@@ -2820,17 +2820,17 @@
       <c r="E39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="50">
+      <c r="G39" s="56">
         <f>G40/$F$38</f>
         <v>2147628.7910447759</v>
       </c>
-      <c r="H39" s="50"/>
+      <c r="H39" s="56"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="50">
+      <c r="J39" s="56">
         <f>J40/$F$38</f>
         <v>1922776.1194029849</v>
       </c>
-      <c r="K39" s="50"/>
+      <c r="K39" s="56"/>
       <c r="L39" s="9"/>
       <c r="M39" s="10"/>
       <c r="N39" s="9"/>
@@ -2843,31 +2843,31 @@
       <c r="E40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="51">
+      <c r="G40" s="48">
         <f>H36*$F$38+G36</f>
         <v>2877822.58</v>
       </c>
-      <c r="H40" s="51"/>
-      <c r="J40" s="51">
+      <c r="H40" s="48"/>
+      <c r="J40" s="48">
         <f>K36*$F$38+J36</f>
         <v>2576520</v>
       </c>
-      <c r="K40" s="51"/>
-      <c r="M40" s="51">
+      <c r="K40" s="48"/>
+      <c r="M40" s="48">
         <f>N36*1.37+M36</f>
         <v>1877697.6600000001</v>
       </c>
-      <c r="N40" s="51"/>
-      <c r="P40" s="51">
+      <c r="N40" s="48"/>
+      <c r="P40" s="48">
         <f>Q36*1.37+P36</f>
         <v>1789659</v>
       </c>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51">
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48">
         <f>S36*1.36+R36</f>
         <v>1320187.2</v>
       </c>
-      <c r="S40" s="51"/>
+      <c r="S40" s="48"/>
     </row>
     <row r="41" spans="2:19">
       <c r="B41" t="s">
@@ -3001,7 +3001,7 @@
       <c r="Q49" s="4"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="44" t="s">
         <v>105</v>
       </c>
       <c r="C50" s="3"/>
@@ -3020,37 +3020,37 @@
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="54"/>
+      <c r="B51" s="43"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="54"/>
+      <c r="B52" s="43"/>
     </row>
     <row r="53" spans="2:17">
-      <c r="B53" s="54"/>
+      <c r="B53" s="43"/>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="54"/>
+      <c r="B54" s="43"/>
     </row>
     <row r="55" spans="2:17">
-      <c r="B55" s="54"/>
+      <c r="B55" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="R40:S40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="J39:K39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repsc\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A9A93-08FE-4F9E-8E86-2B4488CA2D4A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E5EB8-0638-426E-A52C-CCDB5E6ED2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="0" windowWidth="22230" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="21600" xr2:uid="{93C6AF2F-2484-4B65-9D53-5CEE9E8B980F}"/>
   </bookViews>
   <sheets>
-    <sheet name="NAV Aug12" sheetId="1" r:id="rId1"/>
-    <sheet name="NAV24" sheetId="2" r:id="rId2"/>
-    <sheet name="scratchpad" sheetId="3" r:id="rId3"/>
+    <sheet name="NAV24" sheetId="2" r:id="rId1"/>
+    <sheet name="scratchpad" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Tan, Victor</author>
     <author>Bin TAN</author>
   </authors>
   <commentList>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{E40BE15F-8CB0-48AA-9174-CB56718D4371}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{F2625DB0-0CC7-4486-9AD1-928D29FE4A43}">
       <text>
         <r>
           <rPr>
@@ -36,7 +47,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>from exp recon</t>
+          <t>first in-depth stock-taking</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="1" shapeId="0" xr:uid="{E40BE15F-8CB0-48AA-9174-CB56718D4371}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>from recon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{99B87F5B-3040-483D-9F36-8A43200E74F6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>P640k</t>
         </r>
       </text>
     </comment>
@@ -45,89 +82,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="120">
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>stability</t>
-  </si>
-  <si>
-    <t>liquidity</t>
-  </si>
-  <si>
-    <t>in SGD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>in USD</t>
   </si>
   <si>
-    <t>tanbin</t>
-  </si>
-  <si>
-    <t>GS 401k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floating </t>
-  </si>
-  <si>
     <t>illiquid</t>
   </si>
   <si>
-    <t>GS shares</t>
-  </si>
-  <si>
-    <t>:)</t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
-    <t>USD cash (almost)</t>
-  </si>
-  <si>
-    <t>Bj  house</t>
-  </si>
-  <si>
-    <t>book value</t>
-  </si>
-  <si>
-    <t>Sg house</t>
-  </si>
-  <si>
-    <t>CPF OA</t>
-  </si>
-  <si>
-    <t>zofia</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
     <t>negligible</t>
   </si>
   <si>
-    <t>FSM (guestimate</t>
-  </si>
-  <si>
-    <t>mixed</t>
-  </si>
-  <si>
-    <t>SGD bank accounts (est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SGD bank accounts </t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>CNY savings</t>
-  </si>
-  <si>
-    <t>AIA plan zofia</t>
-  </si>
-  <si>
     <t>val</t>
   </si>
   <si>
@@ -182,39 +150,21 @@
     <t>bank: khm TD</t>
   </si>
   <si>
-    <t>fuxi*3:</t>
-  </si>
-  <si>
     <t>exact</t>
   </si>
   <si>
     <t>bank: khm sav</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>bank: citi.SG TD</t>
   </si>
   <si>
-    <t>Citi.sg+BOC:</t>
-  </si>
-  <si>
     <t>bank: citi.SG sav</t>
   </si>
   <si>
-    <t>grandpa's:</t>
-  </si>
-  <si>
     <t>46k givens2kids</t>
   </si>
   <si>
-    <t>bank: BOC</t>
-  </si>
-  <si>
-    <t>mufu]OC:</t>
-  </si>
-  <si>
     <t>TRBCX</t>
   </si>
   <si>
@@ -224,9 +174,6 @@
     <t>Robinhood</t>
   </si>
   <si>
-    <t xml:space="preserve">rEstate: Bj </t>
-  </si>
-  <si>
     <t>不稳</t>
   </si>
   <si>
@@ -251,15 +198,9 @@
     <t>CPF OA incl cpfIA</t>
   </si>
   <si>
-    <t>Jill:</t>
-  </si>
-  <si>
     <t>20k write-off</t>
   </si>
   <si>
-    <t>momFSM:</t>
-  </si>
-  <si>
     <t>Poems mufu</t>
   </si>
   <si>
@@ -272,12 +213,6 @@
     <t>.. ccard debt</t>
   </si>
   <si>
-    <t>24k gift2kids included</t>
-  </si>
-  <si>
-    <t>JayHu warehouse</t>
-  </si>
-  <si>
     <t>subtotal by ccy:</t>
   </si>
   <si>
@@ -294,9 +229,6 @@
   </si>
   <si>
     <t>excluded: wife's other bank accounts beside #153</t>
-  </si>
-  <si>
-    <t>Warning: runaway tcost… addictive like gambling</t>
   </si>
   <si>
     <t>See other pointers at https://tanbinvest.dreamhosters.com/25802/netasset-annual-snap/</t>
@@ -320,9 +252,6 @@
     </r>
   </si>
   <si>
-    <t>grey text means copied from previous snapshot, without validation</t>
-  </si>
-  <si>
     <t>quick n dirty Jan</t>
   </si>
   <si>
@@ -341,12 +270,6 @@
     <t>girl</t>
   </si>
   <si>
-    <t>RBBT</t>
-  </si>
-  <si>
-    <t>exAUM</t>
-  </si>
-  <si>
     <t>DBS mufu ex-SRS</t>
   </si>
   <si>
@@ -354,9 +277,6 @@
   </si>
   <si>
     <t>PHP 940k</t>
-  </si>
-  <si>
-    <t>:P640k</t>
   </si>
   <si>
     <t>total converted to USD #snapshotFX:</t>
@@ -384,18 +304,9 @@
     <t>excluded: assets in China banks</t>
   </si>
   <si>
-    <t>TJJ's:</t>
-  </si>
-  <si>
-    <t>SRS #mufu,,</t>
-  </si>
-  <si>
     <t>bookVal#ex div</t>
   </si>
   <si>
-    <t>CDP:</t>
-  </si>
-  <si>
     <t>cashVal FFS</t>
   </si>
   <si>
@@ -417,27 +328,89 @@
     <t>存款: OC</t>
   </si>
   <si>
-    <t>存款 ex Poems</t>
-  </si>
-  <si>
-    <t>moneyLock</t>
-  </si>
-  <si>
     <t>BookVal</t>
+  </si>
+  <si>
+    <t>Aug12}q3sg</t>
+  </si>
+  <si>
+    <t>immutable (FX and) snap:</t>
+  </si>
+  <si>
+    <t>↓snap↓error↓check</t>
+  </si>
+  <si>
+    <t>grey text means, for floating assets only, copied from previous snapshot, without validation.</t>
+  </si>
+  <si>
+    <t>存款 ex-Poems</t>
+  </si>
+  <si>
+    <t>SRS #mufu,,,</t>
+  </si>
+  <si>
+    <t>rEstate: PEK</t>
+  </si>
+  <si>
+    <t>24k剩余given&gt;&gt;kids</t>
+  </si>
+  <si>
+    <t>&lt;保守</t>
+  </si>
+  <si>
+    <t>Jill&gt;</t>
+  </si>
+  <si>
+    <t>momFSM&gt;</t>
+  </si>
+  <si>
+    <t>FSM&gt;</t>
+  </si>
+  <si>
+    <t>RBBT&gt;</t>
+  </si>
+  <si>
+    <t>CDP&gt;</t>
+  </si>
+  <si>
+    <t>TJJ's AUM&gt;</t>
+  </si>
+  <si>
+    <t>Citi.sg+BOC&gt;</t>
+  </si>
+  <si>
+    <t>TJJ's AUM#USD&gt;</t>
+  </si>
+  <si>
+    <t>USD mufu]OC&gt;</t>
+  </si>
+  <si>
+    <t>ex-AUM   &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Jay warehouse &gt;</t>
+  </si>
+  <si>
+    <t>bank: BOC #</t>
+  </si>
+  <si>
+    <t>&lt;GUUI</t>
+  </si>
+  <si>
+    <t>mLock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$USD]\ #,##0"/>
     <numFmt numFmtId="166" formatCode="[$SGD]\ #,##0"/>
     <numFmt numFmtId="167" formatCode="[$SGD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -502,16 +475,21 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FFC00000"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -529,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -615,11 +593,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -632,7 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -662,18 +712,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -720,15 +764,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -739,6 +776,78 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -772,10 +881,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1052,281 +1164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:Y56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="9" customHeight="1"/>
-    <row r="2" spans="2:8">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
-        <f>$H$2*G3</f>
-        <v>28000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <f>$H$2*G4</f>
-        <v>1428</v>
-      </c>
-      <c r="G4" s="2">
-        <f>170*6</f>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
-        <f>$H$2*G5</f>
-        <v>378000</v>
-      </c>
-      <c r="G5">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <f>$H$2*G6</f>
-        <v>125999.99999999999</v>
-      </c>
-      <c r="G6">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1">
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <f>22400-1050*4-500</f>
-        <v>17700</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="F15" s="1">
-        <f>SUM(F3:F14)</f>
-        <v>981128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:X56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1334,199 +1176,213 @@
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="0.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="0.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="0.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="6" customHeight="1"/>
-    <row r="2" spans="2:24">
+    <row r="1" spans="2:25" ht="6" customHeight="1"/>
+    <row r="2" spans="2:25">
       <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="51"/>
+        <v>4</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="46"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="68"/>
+      <c r="G2" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="109"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="68"/>
+      <c r="K2" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="109"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="68"/>
+      <c r="O2" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="109"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="68"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" s="68"/>
-      <c r="W2" s="67">
+      <c r="R2" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="109"/>
+      <c r="T2" s="118" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="119"/>
+      <c r="V2" s="108">
         <v>42401</v>
       </c>
-      <c r="X2" s="68"/>
-    </row>
-    <row r="3" spans="2:24">
+      <c r="W2" s="109"/>
+      <c r="X2" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="109"/>
+    </row>
+    <row r="3" spans="2:25">
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f>$W$3</f>
+        <f>$V$3</f>
         <v>in S$</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="5" t="str">
-        <f>$W$3</f>
+        <f>$V$3</f>
         <v>in S$</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="5" t="str">
-        <f>$W$3</f>
+        <f>$V$3</f>
         <v>in S$</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="5" t="str">
-        <f>$W$3</f>
+        <f>$V$3</f>
         <v>in S$</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="5" t="str">
-        <f>$W$3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5" t="str">
+        <f>$V$3</f>
         <v>in S$</v>
       </c>
-      <c r="V3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
+      <c r="U3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25">
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="8">
+      <c r="H4" s="54">
         <f t="shared" ref="H4" si="0">L4</f>
         <v>20000</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="8">
         <f>P4</f>
         <v>20000</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="25">
+      <c r="O4" s="10"/>
+      <c r="P4" s="23">
         <f>S4</f>
         <v>20000</v>
       </c>
       <c r="Q4" s="9"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="28">
-        <f>V4</f>
+      <c r="R4" s="10"/>
+      <c r="S4" s="54">
+        <f>W4</f>
         <v>20000</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="9">
+      <c r="T4" s="10"/>
+      <c r="U4" s="54">
+        <f>W4</f>
         <v>20000</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="9">
+      <c r="V4" s="7"/>
+      <c r="W4" s="54">
+        <f>Y4</f>
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="2:24">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25">
       <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7">
@@ -1535,50 +1391,54 @@
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="8">
         <f>P5</f>
         <v>1800</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="11"/>
+      <c r="O5" s="10"/>
       <c r="P5" s="9">
         <f>300*6</f>
         <v>1800</v>
       </c>
       <c r="Q5" s="9"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="28">
-        <f>V5</f>
-        <v>1200</v>
-      </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="9">
+      <c r="R5" s="10"/>
+      <c r="S5" s="9">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="9">
+      <c r="T5" s="10"/>
+      <c r="U5" s="9">
+        <f>200*6</f>
+        <v>1200</v>
+      </c>
+      <c r="V5" s="7"/>
+      <c r="W5" s="54">
+        <f>Y5</f>
         <v>1020</v>
       </c>
-    </row>
-    <row r="6" spans="2:24">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="9">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25">
       <c r="B6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
@@ -1586,45 +1446,44 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="K6" s="10"/>
       <c r="L6" s="9">
         <f>1000*(4+2+5+3+7+10+3+5+2+3+1)</f>
         <v>45000</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="11"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="9">
         <v>32000</v>
       </c>
       <c r="Q6" s="9"/>
-      <c r="R6" s="11"/>
+      <c r="R6" s="10"/>
       <c r="S6" s="9">
         <v>0</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="9">
+      <c r="T6" s="10"/>
+      <c r="U6" s="9">
         <v>0</v>
       </c>
+      <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
-    </row>
-    <row r="7" spans="2:24">
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="2:25">
       <c r="B7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="32" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="115"/>
+      <c r="D7" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7">
@@ -1632,42 +1491,43 @@
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="9">
         <v>238</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="9" t="s">
-        <v>48</v>
+      <c r="O7" s="10"/>
+      <c r="P7" s="39" t="s">
+        <v>3</v>
       </c>
       <c r="Q7" s="9"/>
-      <c r="R7" s="11"/>
+      <c r="R7" s="10"/>
       <c r="S7" s="9">
         <v>564</v>
       </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="9">
+      <c r="T7" s="10"/>
+      <c r="U7" s="9">
         <v>6100</v>
       </c>
+      <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
-    </row>
-    <row r="8" spans="2:24">
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="2:25">
       <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="32" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="115"/>
+      <c r="D8" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7">
@@ -1675,42 +1535,43 @@
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="9">
         <v>1500</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="11"/>
+      <c r="O8" s="10"/>
       <c r="P8" s="9">
         <v>1500</v>
       </c>
       <c r="Q8" s="9"/>
-      <c r="R8" s="11"/>
+      <c r="R8" s="10"/>
       <c r="S8" s="9">
         <v>1642</v>
       </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="9">
+      <c r="T8" s="10"/>
+      <c r="U8" s="9">
         <v>1300</v>
       </c>
+      <c r="V8" s="7"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
-    </row>
-    <row r="9" spans="2:24">
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="2:25">
       <c r="B9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>113</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="115"/>
+      <c r="D9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7">
@@ -1718,44 +1579,47 @@
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="9">
         <v>1500</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="9">
+      <c r="N9" s="80"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="80">
         <v>1500</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="9">
+      <c r="Q9" s="80"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="80">
         <v>2031</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="9">
+      <c r="T9" s="10"/>
+      <c r="U9" s="9">
         <v>107000</v>
       </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="9">
+      <c r="V9" s="7"/>
+      <c r="W9" s="9">
         <v>120000</v>
       </c>
-    </row>
-    <row r="10" spans="2:24">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="9">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
       <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="74"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="115"/>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7">
@@ -1764,44 +1628,45 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="9">
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="34">
+      <c r="M10" s="86"/>
+      <c r="N10" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="79"/>
+      <c r="P10" s="63">
         <f>14300+2000</f>
         <v>16300</v>
       </c>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="34">
+      <c r="Q10" s="63"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="59">
         <v>57781</v>
       </c>
-      <c r="T10" s="34"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-    </row>
-    <row r="11" spans="2:24" ht="11.25" customHeight="1">
+      <c r="T10" s="88"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+    </row>
+    <row r="11" spans="2:25" ht="11.25" customHeight="1">
       <c r="B11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="75"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="115"/>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7">
@@ -1809,218 +1674,214 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="9">
         <v>45</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="54"/>
-      <c r="P11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="34">
+      <c r="M11" s="86"/>
+      <c r="N11" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="91">
         <v>-46000</v>
       </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="34">
+      <c r="T11" s="79"/>
+      <c r="U11" s="59">
         <v>-36000</v>
       </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-    </row>
-    <row r="12" spans="2:24" ht="14.25" customHeight="1">
+      <c r="V11" s="87"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+    </row>
+    <row r="12" spans="2:25" ht="14.25" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>103</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C12" s="116"/>
       <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
         <v>180000</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="9">
         <v>34004</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="59">
+      <c r="M12" s="86"/>
+      <c r="N12" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="90"/>
+      <c r="P12" s="92">
         <v>5000</v>
       </c>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="60">
-        <f>V12</f>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="92">
         <v>5000</v>
       </c>
-      <c r="T12" s="34"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="34">
+      <c r="T12" s="90"/>
+      <c r="U12" s="92">
         <v>5000</v>
       </c>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-    </row>
-    <row r="13" spans="2:24" ht="3" customHeight="1">
+      <c r="V12" s="87"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+    </row>
+    <row r="13" spans="2:25" ht="3" customHeight="1">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-    </row>
-    <row r="14" spans="2:24">
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+    </row>
+    <row r="14" spans="2:25">
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8">
-        <f t="shared" ref="H14:H18" si="1">L14</f>
+      <c r="H14" s="9">
         <v>2500</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="8">
-        <f>P14</f>
+      <c r="K14" s="10"/>
+      <c r="L14" s="9">
         <v>2500</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="25">
-        <f>S14</f>
+      <c r="O14" s="10"/>
+      <c r="P14" s="9">
         <v>2500</v>
       </c>
       <c r="Q14" s="9"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="28">
-        <f>V14</f>
+      <c r="R14" s="10"/>
+      <c r="S14" s="9">
         <v>2500</v>
       </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="9">
+      <c r="T14" s="10"/>
+      <c r="U14" s="9">
         <v>2500</v>
       </c>
+      <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
-    </row>
-    <row r="15" spans="2:24">
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="2:25">
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="8">
-        <f t="shared" si="1"/>
+      <c r="H15" s="9">
         <v>5000</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="8">
-        <f>P15</f>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9">
         <v>5000</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="25">
-        <f>S15</f>
+      <c r="O15" s="10"/>
+      <c r="P15" s="9">
         <v>5000</v>
       </c>
       <c r="Q15" s="9"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="28">
-        <f>V15</f>
+      <c r="R15" s="10"/>
+      <c r="S15" s="9">
         <v>5000</v>
       </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="9">
+      <c r="T15" s="10"/>
+      <c r="U15" s="9">
         <v>5000</v>
       </c>
+      <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-    </row>
-    <row r="16" spans="2:24">
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="2:25">
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C16" s="7" t="str">
         <f>C26</f>
         <v>bookVal#ex div</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="9">
@@ -2028,234 +1889,238 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="9">
         <v>9800</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="11"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="9">
         <v>13400</v>
       </c>
       <c r="Q16" s="9"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="10"/>
       <c r="S16" s="9">
         <v>1300</v>
       </c>
-      <c r="T16" s="9"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="9">
+      <c r="T16" s="10"/>
+      <c r="U16" s="9">
         <v>900</v>
       </c>
+      <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
-    </row>
-    <row r="17" spans="2:24" ht="13.15" customHeight="1">
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="2:25" ht="13.15" customHeight="1">
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>104</v>
+        <v>75</v>
+      </c>
+      <c r="D17" s="111" t="s">
+        <v>65</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="44">
+      <c r="H17" s="39">
         <f>L17*40%</f>
         <v>36000</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="9">
         <v>90000</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="11"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="9">
         <v>90000</v>
       </c>
       <c r="Q17" s="9"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="28">
-        <f>V17</f>
+      <c r="R17" s="10"/>
+      <c r="S17" s="9">
         <v>90000</v>
       </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="9">
+      <c r="T17" s="10"/>
+      <c r="U17" s="9">
         <v>90000</v>
       </c>
-      <c r="W17" s="7"/>
-      <c r="X17" s="9">
+      <c r="V17" s="7"/>
+      <c r="W17" s="9">
         <v>90000</v>
       </c>
-    </row>
-    <row r="18" spans="2:24">
-      <c r="B18" s="65" t="s">
-        <v>60</v>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25">
+      <c r="B18" s="106" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="71"/>
+        <v>75</v>
+      </c>
+      <c r="D18" s="112"/>
       <c r="E18" s="7" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H18" si="1">L18</f>
         <v>439000</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="8">
         <f>P18</f>
         <v>439000</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="11"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="9">
-        <f>V18+169000</f>
+        <f>U18+169000</f>
         <v>439000</v>
       </c>
       <c r="Q18" s="9"/>
-      <c r="R18" s="11"/>
+      <c r="R18" s="10"/>
       <c r="S18" s="9">
-        <f>V18+169000*40%</f>
+        <f>U18+169000*40%</f>
         <v>337600</v>
       </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="9">
+      <c r="T18" s="10"/>
+      <c r="U18" s="9">
         <v>270000</v>
       </c>
+      <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
-    </row>
-    <row r="19" spans="2:24">
-      <c r="B19" s="66"/>
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="2:25">
+      <c r="B19" s="107"/>
       <c r="C19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="71"/>
+        <v>75</v>
+      </c>
+      <c r="D19" s="112"/>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="8">
-        <f>K19</f>
+        <v>17</v>
+      </c>
+      <c r="G19" s="9">
         <v>200000</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="10">
-        <f>O19</f>
+      <c r="K19" s="9">
         <v>200000</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="26">
-        <f>R19</f>
+      <c r="O19" s="9">
         <v>200000</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="26">
-        <f>U19</f>
+      <c r="R19" s="9">
         <v>200000</v>
       </c>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="11">
+      <c r="T19" s="9">
         <v>200000</v>
       </c>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9">
+      <c r="U19" s="9"/>
+      <c r="V19" s="9">
         <v>105000</v>
       </c>
-      <c r="X19" s="7"/>
-    </row>
-    <row r="20" spans="2:24">
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="7"/>
+    </row>
+    <row r="20" spans="2:25">
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="71"/>
+        <v>75</v>
+      </c>
+      <c r="D20" s="112"/>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="8">
-        <f>K20</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
         <v>750000</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="11">
+      <c r="K20" s="9">
         <v>750000</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="11">
+      <c r="O20" s="9">
         <f>750000-415000</f>
         <v>335000</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="26">
-        <f>U20</f>
+      <c r="R20" s="9">
         <v>600000</v>
       </c>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="11">
+      <c r="T20" s="9">
         <v>600000</v>
       </c>
-      <c r="V20" s="9"/>
-      <c r="W20" s="11">
+      <c r="U20" s="9"/>
+      <c r="V20" s="9">
         <f>600000-154000</f>
         <v>446000</v>
       </c>
-      <c r="X20" s="7"/>
-    </row>
-    <row r="21" spans="2:24">
+      <c r="W20" s="9"/>
+      <c r="X20" s="9">
+        <v>420000</v>
+      </c>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="2:25">
       <c r="B21" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="71"/>
+        <v>22</v>
+      </c>
+      <c r="D21" s="112"/>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G21" s="9">
         <f>2700+75000+15800</f>
@@ -2264,48 +2129,49 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="11">
+      <c r="K21" s="9">
         <f>0+27000+15000</f>
         <v>42000</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="11">
+      <c r="O21" s="9">
         <f>1000+18000+15000</f>
         <v>34000</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="11">
+      <c r="R21" s="9">
         <f>37303+14272+15932</f>
         <v>67507</v>
       </c>
       <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="11">
+      <c r="T21" s="9">
         <f>(35+13+14)*1000</f>
         <v>62000</v>
       </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="29">
+      <c r="U21" s="9"/>
+      <c r="V21" s="9">
         <v>5000</v>
       </c>
-      <c r="X21" s="7"/>
-    </row>
-    <row r="22" spans="2:24">
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="7"/>
+    </row>
+    <row r="22" spans="2:25">
       <c r="B22" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="71"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="112"/>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G22" s="9">
         <f>240000+71000</f>
@@ -2314,48 +2180,49 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="11">
+      <c r="K22" s="9">
         <f>221400+71000</f>
         <v>292400</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="11">
+      <c r="O22" s="9">
         <f>205000+68000</f>
         <v>273000</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="11">
+      <c r="R22" s="9">
         <f>57247+54415</f>
         <v>111662</v>
       </c>
       <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="11">
+      <c r="T22" s="9">
         <f>51797+50452</f>
         <v>102249</v>
       </c>
-      <c r="V22" s="9"/>
-      <c r="W22" s="11">
+      <c r="U22" s="9"/>
+      <c r="V22" s="9">
         <v>78000</v>
       </c>
-      <c r="X22" s="7"/>
-    </row>
-    <row r="23" spans="2:24">
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="7"/>
+    </row>
+    <row r="23" spans="2:25">
       <c r="B23" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="71"/>
+        <v>22</v>
+      </c>
+      <c r="D23" s="112"/>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G23" s="9">
         <v>44000</v>
@@ -2363,45 +2230,48 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="11">
+      <c r="K23" s="9">
         <v>24600</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="11">
+      <c r="O23" s="9">
         <f>(113000+20000)+8000</f>
         <v>141000</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="11">
+      <c r="R23" s="9">
         <v>24201</v>
       </c>
       <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="11">
+      <c r="T23" s="9">
         <v>17000</v>
       </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="29">
+      <c r="U23" s="9"/>
+      <c r="V23" s="9">
         <v>142000</v>
       </c>
-      <c r="X23" s="7"/>
-    </row>
-    <row r="24" spans="2:24">
+      <c r="W23" s="9"/>
+      <c r="X23" s="9">
+        <v>17700</v>
+      </c>
+      <c r="Y23" s="7"/>
+    </row>
+    <row r="24" spans="2:25">
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="32" t="s">
-        <v>110</v>
+        <v>15</v>
+      </c>
+      <c r="D24" s="112"/>
+      <c r="E24" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G24" s="9">
         <v>14000</v>
@@ -2409,43 +2279,46 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="27">
+      <c r="K24" s="54">
         <f>O24</f>
         <v>5000</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="27">
+      <c r="N24" s="80"/>
+      <c r="O24" s="81">
+        <f>R24</f>
         <v>5000</v>
       </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="26">
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="81">
+        <f>T24</f>
         <v>5000</v>
       </c>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="11">
+      <c r="S24" s="80"/>
+      <c r="T24" s="80">
         <v>5000</v>
       </c>
-      <c r="V24" s="9"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-    </row>
-    <row r="25" spans="2:24">
+      <c r="U24" s="80"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="7"/>
+    </row>
+    <row r="25" spans="2:25">
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="61" t="s">
-        <v>111</v>
+        <v>75</v>
+      </c>
+      <c r="D25" s="112"/>
+      <c r="E25" s="49" t="s">
+        <v>69</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G25" s="9">
         <f>(300000-228000)+(50065*2)+(250774-190000)</f>
@@ -2453,48 +2326,48 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="54">
+      <c r="J25" s="40"/>
+      <c r="K25" s="29">
         <v>50065</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="O25" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="56">
-        <f>U25</f>
+      <c r="L25" s="29"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63">
         <v>20000</v>
       </c>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="54">
+      <c r="S25" s="63"/>
+      <c r="T25" s="63">
         <v>20000</v>
       </c>
-      <c r="V25" s="34"/>
-      <c r="W25" s="54">
+      <c r="U25" s="63"/>
+      <c r="V25" s="59">
         <v>30000</v>
       </c>
-      <c r="X25" s="45"/>
-    </row>
-    <row r="26" spans="2:24">
+      <c r="W25" s="59"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="40"/>
+    </row>
+    <row r="26" spans="2:25">
       <c r="B26" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="72"/>
+        <v>67</v>
+      </c>
+      <c r="D26" s="113"/>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G26" s="9">
         <f>15000*5</f>
@@ -2502,557 +2375,565 @@
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="54">
+      <c r="J26" s="40"/>
+      <c r="K26" s="29">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="54">
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84">
         <f>15000*3</f>
         <v>45000</v>
       </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="56">
-        <v>0</v>
-      </c>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="54">
-        <v>0</v>
-      </c>
-      <c r="V26" s="34"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-    </row>
-    <row r="27" spans="2:24">
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="85"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="84"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="40"/>
+    </row>
+    <row r="27" spans="2:25">
       <c r="B27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="8">
+        <v>17</v>
+      </c>
+      <c r="G27" s="54">
         <f>K27</f>
         <v>1234</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="54">
+      <c r="J27" s="40"/>
+      <c r="K27" s="67">
         <v>1234</v>
       </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" s="54">
+      <c r="L27" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="M27" s="63"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="63">
         <v>1000</v>
       </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="54">
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63">
         <v>92574</v>
       </c>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="54">
+      <c r="S27" s="63"/>
+      <c r="T27" s="63">
         <v>102000</v>
       </c>
-      <c r="V27" s="34"/>
-      <c r="W27" s="57">
+      <c r="U27" s="63"/>
+      <c r="V27" s="63">
         <v>55000</v>
       </c>
-      <c r="X27" s="45"/>
-    </row>
-    <row r="28" spans="2:24">
+      <c r="W27" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="X27" s="59">
+        <v>5000</v>
+      </c>
+      <c r="Y27" s="87"/>
+    </row>
+    <row r="28" spans="2:25">
       <c r="B28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G28" s="9">
         <v>22000</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="54">
+      <c r="J28" s="40"/>
+      <c r="K28" s="29">
         <v>36140</v>
       </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="54">
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62">
         <v>40000</v>
       </c>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="54">
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62">
         <v>27907</v>
       </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="54">
+      <c r="S28" s="62"/>
+      <c r="T28" s="62">
         <v>6000</v>
       </c>
-      <c r="V28" s="34"/>
-      <c r="W28" s="57">
+      <c r="U28" s="62"/>
+      <c r="V28" s="62">
         <v>155000</v>
       </c>
-      <c r="X28" s="45"/>
-    </row>
-    <row r="29" spans="2:24">
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="40"/>
+    </row>
+    <row r="29" spans="2:25">
       <c r="B29" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G29" s="9">
         <v>2000</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="54">
+      <c r="J29" s="40"/>
+      <c r="K29" s="29">
         <v>1000</v>
       </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="54">
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29">
         <v>2000</v>
       </c>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="54">
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29">
         <v>28176</v>
       </c>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="54">
+      <c r="S29" s="29"/>
+      <c r="T29" s="29">
         <v>20000</v>
       </c>
-      <c r="V29" s="34"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-    </row>
-    <row r="30" spans="2:24" ht="3" customHeight="1">
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="40"/>
+    </row>
+    <row r="30" spans="2:25" ht="3" customHeight="1">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-    </row>
-    <row r="31" spans="2:24">
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="40"/>
+    </row>
+    <row r="31" spans="2:25">
       <c r="B31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="31">
+        <v>18</v>
+      </c>
+      <c r="C31" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="26">
         <v>2300</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31" s="54">
+      <c r="H31" s="12"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="65">
         <v>-200970</v>
       </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="54">
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="66">
         <f>-140000</f>
         <v>-140000</v>
       </c>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="54"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-    </row>
-    <row r="32" spans="2:24">
+      <c r="P31" s="59"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="40"/>
+    </row>
+    <row r="32" spans="2:25">
       <c r="B32" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="31">
+        <v>18</v>
+      </c>
+      <c r="C32" s="115"/>
+      <c r="D32" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="26">
         <f>745+1065+4000</f>
         <v>5810</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="K32" s="54">
+      <c r="H32" s="94"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="65">
         <v>285000</v>
       </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="54">
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="66">
         <f>176000</f>
         <v>176000</v>
       </c>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-    </row>
-    <row r="33" spans="2:24">
+      <c r="P32" s="66"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="40"/>
+    </row>
+    <row r="33" spans="2:25">
       <c r="B33" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="9">
+        <v>18</v>
+      </c>
+      <c r="C33" s="115"/>
+      <c r="D33" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="86">
         <f>6000+100000</f>
         <v>106000</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="58" t="s">
+      <c r="H33" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="K33" s="54">
+      <c r="I33" s="100"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="63">
         <v>10017</v>
       </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="54">
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63">
         <v>9000</v>
       </c>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="54">
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="59">
         <v>20000</v>
       </c>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="54"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-    </row>
-    <row r="34" spans="2:24" ht="12.75" customHeight="1">
+      <c r="S33" s="59"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="40"/>
+    </row>
+    <row r="34" spans="2:25" ht="12.75" customHeight="1">
       <c r="B34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="14">
+        <v>18</v>
+      </c>
+      <c r="C34" s="116"/>
+      <c r="D34" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="13">
         <v>304000</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="54">
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="62">
         <v>385000</v>
       </c>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="54">
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62">
         <v>598000</v>
       </c>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="54">
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62">
         <f>27564</f>
         <v>27564</v>
       </c>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="54">
+      <c r="S34" s="29"/>
+      <c r="T34" s="29">
         <v>20000</v>
       </c>
-      <c r="V34" s="34"/>
-      <c r="W34" s="57">
+      <c r="U34" s="29"/>
+      <c r="V34" s="29">
         <v>20000</v>
       </c>
-      <c r="X34" s="45"/>
-    </row>
-    <row r="35" spans="2:24">
+      <c r="W34" s="29"/>
+      <c r="X34" s="29">
+        <v>5000</v>
+      </c>
+      <c r="Y34" s="40"/>
+    </row>
+    <row r="35" spans="2:25">
       <c r="B35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="14">
+      <c r="E35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="13">
         <v>-7000</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="54">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="29">
         <v>-600</v>
       </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="54">
-        <v>0</v>
-      </c>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="54">
-        <v>0</v>
-      </c>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="54">
-        <v>0</v>
-      </c>
-      <c r="V35" s="34"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-    </row>
-    <row r="36" spans="2:24" ht="3" customHeight="1">
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="40"/>
+    </row>
+    <row r="36" spans="2:25" ht="3" customHeight="1">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-    </row>
-    <row r="37" spans="2:24">
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="40"/>
+    </row>
+    <row r="37" spans="2:25">
       <c r="B37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>103</v>
+        <v>14</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G37" s="9">
         <v>13000</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="54">
+      <c r="J37" s="40"/>
+      <c r="K37" s="67">
         <v>1600</v>
       </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="O37" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="54">
+      <c r="L37" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" s="63"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
+      <c r="R37" s="65">
         <v>-30000</v>
       </c>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="54">
+      <c r="S37" s="65"/>
+      <c r="T37" s="65">
         <v>-40000</v>
       </c>
-      <c r="V37" s="34"/>
-      <c r="W37" s="54">
+      <c r="U37" s="65"/>
+      <c r="V37" s="59">
         <v>-30000</v>
       </c>
-      <c r="X37" s="45"/>
-    </row>
-    <row r="38" spans="2:24">
+      <c r="W37" s="59"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="40"/>
+    </row>
+    <row r="38" spans="2:25">
       <c r="B38" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G38" s="9">
         <v>22000</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="54">
+      <c r="J38" s="40"/>
+      <c r="K38" s="29">
         <v>20000</v>
       </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="54">
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="73">
         <v>16000</v>
       </c>
-      <c r="P38" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q38" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" s="54"/>
-      <c r="S38" s="34">
-        <f>V38</f>
+      <c r="P38" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38" s="77"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="59">
         <v>20000</v>
       </c>
-      <c r="T38" s="45"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="34">
+      <c r="T38" s="79"/>
+      <c r="U38" s="59">
         <v>20000</v>
       </c>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-    </row>
-    <row r="39" spans="2:24">
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="46"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+    </row>
+    <row r="39" spans="2:25">
+      <c r="B39" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="5" t="str">
         <f>G3</f>
         <v>in S$</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" ref="H39:X39" si="2">H3</f>
+        <f t="shared" ref="H39:W39" si="2">H3</f>
         <v>in USD</v>
       </c>
       <c r="I39" s="5">
@@ -3077,47 +2958,55 @@
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="P39" s="5" t="str">
+      <c r="P39" s="75" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39" s="75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R39" s="5" t="str">
+      <c r="R39" s="75" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="S39" s="5" t="str">
+      <c r="S39" s="75" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="T39" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="5" t="str">
+      <c r="T39" s="75" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="V39" s="5" t="str">
+      <c r="U39" s="75" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
+      <c r="V39" s="5" t="str">
+        <f>V3</f>
+        <v>in S$</v>
+      </c>
       <c r="W39" s="5" t="str">
-        <f>W3</f>
-        <v>in S$</v>
-      </c>
-      <c r="X39" s="5" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-    </row>
-    <row r="40" spans="2:24">
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
-        <v>77</v>
+      <c r="X39" s="5" t="str">
+        <f>X3</f>
+        <v>in S$</v>
+      </c>
+      <c r="Y39" s="5" t="str">
+        <f t="shared" ref="Y39" si="3">Y3</f>
+        <v>in USD</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25">
+      <c r="C40" s="18">
+        <f>(G40-G41)+(H40-H41)+(K40-K41)+(L40-L41)+(K44-K45)+(O40-O41)+(P40-P41)+(O44-O45)+(R40-R41)+(S40-S41)+(R44-R45)+(T40-T41)+(U40-U41)+(T44-T45)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="G40" s="2">
         <f>SUM(G4:G38)</f>
@@ -3135,8 +3024,8 @@
         <f>SUM(L4:L38)</f>
         <v>683087</v>
       </c>
-      <c r="M40" s="16"/>
-      <c r="O40" s="1">
+      <c r="M40" s="15"/>
+      <c r="O40" s="2">
         <f>SUM(O4:O38)</f>
         <v>1735000</v>
       </c>
@@ -3144,35 +3033,43 @@
         <f>SUM(P4:P38)</f>
         <v>628000</v>
       </c>
-      <c r="R40" s="1">
-        <f>SUM(R4:R38)</f>
+      <c r="R40" s="2">
+        <f t="shared" ref="R40:Y40" si="4">SUM(R4:R38)</f>
         <v>1194591</v>
       </c>
       <c r="S40" s="2">
-        <f>SUM(S4:S38)</f>
+        <f t="shared" si="4"/>
         <v>498618</v>
       </c>
-      <c r="U40" s="1">
-        <f>SUM(U4:U38)</f>
+      <c r="T40" s="2">
+        <f t="shared" si="4"/>
         <v>1114249</v>
       </c>
+      <c r="U40" s="2">
+        <f t="shared" si="4"/>
+        <v>493000</v>
+      </c>
       <c r="V40" s="2">
-        <f>SUM(V4:V38)</f>
-        <v>493000</v>
-      </c>
-      <c r="W40" s="1">
-        <f>SUM(W4:W38)</f>
+        <f t="shared" si="4"/>
         <v>1006000</v>
       </c>
+      <c r="W40" s="2">
+        <f t="shared" si="4"/>
+        <v>231020</v>
+      </c>
       <c r="X40" s="2">
-        <f>SUM(X4:X38)</f>
-        <v>231020</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24">
-      <c r="D41" s="15"/>
-      <c r="E41" s="17" t="s">
-        <v>78</v>
+        <f t="shared" si="4"/>
+        <v>447700</v>
+      </c>
+      <c r="Y40" s="2">
+        <f t="shared" si="4"/>
+        <v>381020</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25">
+      <c r="D41" s="14"/>
+      <c r="E41" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="G41" s="2">
         <v>2191748</v>
@@ -3186,290 +3083,326 @@
       <c r="L41" s="2">
         <v>683087</v>
       </c>
-      <c r="M41" s="16"/>
-      <c r="O41" s="1">
+      <c r="M41" s="15"/>
+      <c r="O41" s="2">
         <v>1735000</v>
       </c>
       <c r="P41" s="2">
         <v>628000</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R41" s="2">
         <v>1194591</v>
       </c>
       <c r="S41" s="2">
         <v>498618</v>
       </c>
-      <c r="U41" s="1">
+      <c r="T41" s="2">
         <v>1114249</v>
       </c>
+      <c r="U41" s="2">
+        <v>493000</v>
+      </c>
       <c r="V41" s="2">
-        <v>493000</v>
-      </c>
-      <c r="W41" s="1">
         <v>1006000</v>
       </c>
+      <c r="W41" s="2">
+        <v>231020</v>
+      </c>
       <c r="X41" s="2">
-        <v>231020</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24">
-      <c r="E42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="19">
+        <v>447700</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>381020</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25">
+      <c r="E42" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="18">
         <v>1.35</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
       <c r="L42" s="1" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="M42" s="1"/>
       <c r="P42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S42" s="16"/>
+        <v>46</v>
+      </c>
+      <c r="S42" s="15"/>
+      <c r="T42" s="2"/>
       <c r="U42"/>
-      <c r="V42"/>
-    </row>
-    <row r="43" spans="2:24" s="37" customFormat="1">
-      <c r="D43" s="38"/>
-      <c r="E43" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" s="69">
+    </row>
+    <row r="43" spans="2:25" s="32" customFormat="1">
+      <c r="D43" s="33"/>
+      <c r="E43" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="110">
         <f>G44/$F$42</f>
         <v>2387262.0370370368</v>
       </c>
-      <c r="H43" s="69"/>
+      <c r="H43" s="110"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="69">
+      <c r="K43" s="110">
         <f>K44/1.3439</f>
-        <v>2143378.68836967</v>
-      </c>
-      <c r="L43" s="69"/>
-      <c r="M43" s="40"/>
+        <v>2143378.9716496761</v>
+      </c>
+      <c r="L43" s="110"/>
+      <c r="M43" s="35"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="69">
+      <c r="O43" s="110">
         <f>O44/1.3465</f>
         <v>1916525.8076494616</v>
       </c>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="41"/>
-    </row>
-    <row r="44" spans="2:24">
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G44" s="76">
+      <c r="P43" s="110"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="36"/>
+    </row>
+    <row r="44" spans="2:25">
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="105">
         <f>H40*$F$42+G40</f>
         <v>3222803.75</v>
       </c>
-      <c r="H44" s="76"/>
-      <c r="K44" s="76">
-        <f>L40*1.3439+K40</f>
-        <v>2880486.6192999999</v>
-      </c>
-      <c r="L44" s="76"/>
-      <c r="M44" s="20"/>
-      <c r="O44" s="76">
-        <f>P40*1.3465+O40</f>
+      <c r="H44" s="105"/>
+      <c r="K44" s="105">
+        <f>ROUND(L40*1.3439+K40,0)</f>
+        <v>2880487</v>
+      </c>
+      <c r="L44" s="105"/>
+      <c r="M44" s="19"/>
+      <c r="O44" s="105">
+        <f>ROUND(P40*1.3465+O40,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P44" s="76"/>
-      <c r="R44" s="76">
-        <f>S40*1.37+R40</f>
-        <v>1877697.6600000001</v>
-      </c>
-      <c r="S44" s="76"/>
-      <c r="U44" s="76">
-        <f>V40*1.37+U40</f>
+      <c r="P44" s="105"/>
+      <c r="R44" s="105">
+        <f>ROUND(S40*1.37+R40,0)</f>
+        <v>1877698</v>
+      </c>
+      <c r="S44" s="105"/>
+      <c r="T44" s="105">
+        <f>U40*1.37+T40</f>
         <v>1789659</v>
       </c>
-      <c r="V44" s="76"/>
-      <c r="W44" s="76">
-        <f>X40*1.36+W40</f>
+      <c r="U44" s="105"/>
+      <c r="V44" s="105">
+        <f>W40*1.36+V40</f>
         <v>1320187.2</v>
       </c>
-      <c r="X44" s="76"/>
-    </row>
-    <row r="45" spans="2:24">
-      <c r="D45" s="15"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="20"/>
-    </row>
-    <row r="46" spans="2:24">
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="K46" s="2">
+      <c r="W44" s="105"/>
+      <c r="X44" s="105">
+        <f>Y40*1.4+X40</f>
+        <v>981128</v>
+      </c>
+      <c r="Y44" s="105"/>
+    </row>
+    <row r="45" spans="2:25">
+      <c r="D45" s="14"/>
+      <c r="E45" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="K45" s="105">
+        <v>2880487</v>
+      </c>
+      <c r="L45" s="105"/>
+      <c r="M45" s="53"/>
+      <c r="O45" s="105">
+        <v>2580602</v>
+      </c>
+      <c r="P45" s="105"/>
+      <c r="R45" s="105">
+        <v>1877698</v>
+      </c>
+      <c r="S45" s="105"/>
+      <c r="T45" s="105">
+        <v>1789659</v>
+      </c>
+      <c r="U45" s="105"/>
+      <c r="V45" s="105">
+        <v>1320187</v>
+      </c>
+      <c r="W45" s="105"/>
+      <c r="X45" s="105">
+        <v>981128</v>
+      </c>
+      <c r="Y45" s="105"/>
+    </row>
+    <row r="46" spans="2:25">
+      <c r="D46" s="14"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="53"/>
+      <c r="Y46" s="53"/>
+    </row>
+    <row r="47" spans="2:25">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="K47" s="2">
         <f>G44-K44</f>
-        <v>342317.1307000001</v>
-      </c>
-      <c r="L46" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="M46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="20"/>
-    </row>
-    <row r="47" spans="2:24">
-      <c r="B47" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="2:24" ht="23.25">
-      <c r="B48" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-    </row>
-    <row r="49" spans="2:22">
-      <c r="B49" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-    </row>
-    <row r="50" spans="2:22">
-      <c r="B50" t="s">
-        <v>83</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-    </row>
-    <row r="51" spans="2:22" ht="12.75" customHeight="1">
-      <c r="B51" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-    </row>
-    <row r="52" spans="2:22">
-      <c r="B52" s="24"/>
-    </row>
-    <row r="53" spans="2:22">
-      <c r="B53" s="24"/>
-    </row>
-    <row r="54" spans="2:22">
-      <c r="B54" s="24"/>
-    </row>
-    <row r="55" spans="2:22">
-      <c r="B55" s="24"/>
-    </row>
-    <row r="56" spans="2:22">
-      <c r="B56" s="24"/>
+        <v>342316.75</v>
+      </c>
+      <c r="L47" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="M47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+    </row>
+    <row r="48" spans="2:25">
+      <c r="B48" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="2:21" ht="23.25">
+      <c r="B49" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+    </row>
+    <row r="51" spans="2:21" ht="12.75" customHeight="1">
+      <c r="B51" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="22"/>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="22"/>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="22"/>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" s="22"/>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
+  <mergeCells count="28">
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="C6:C12"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="K44:L44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="D17:D26"/>
     <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="O45:P45"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3477,19 +3410,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE4FE5-E2F8-4F66-86D7-49D84AB3CCE5}">
   <dimension ref="C2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="3:3">
@@ -3559,5 +3490,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E5EB8-0638-426E-A52C-CCDB5E6ED2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAEF099-5728-4A55-9450-73158F1A3E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="21600" xr2:uid="{93C6AF2F-2484-4B65-9D53-5CEE9E8B980F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>Bin TAN</author>
   </authors>
   <commentList>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{F2625DB0-0CC7-4486-9AD1-928D29FE4A43}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{F2625DB0-0CC7-4486-9AD1-928D29FE4A43}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="1" shapeId="0" xr:uid="{E40BE15F-8CB0-48AA-9174-CB56718D4371}">
+    <comment ref="E33" authorId="1" shapeId="0" xr:uid="{E40BE15F-8CB0-48AA-9174-CB56718D4371}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O38" authorId="0" shapeId="0" xr:uid="{99B87F5B-3040-483D-9F36-8A43200E74F6}">
+    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{99B87F5B-3040-483D-9F36-8A43200E74F6}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
   <si>
     <t>in USD</t>
   </si>
@@ -132,9 +132,6 @@
     <t>保守</t>
   </si>
   <si>
-    <t>locked</t>
-  </si>
-  <si>
     <t>dad</t>
   </si>
   <si>
@@ -177,36 +174,15 @@
     <t>不稳</t>
   </si>
   <si>
-    <t>rEstate: khm4</t>
-  </si>
-  <si>
-    <t>rEstate: BGC</t>
-  </si>
-  <si>
-    <t>rEstate: HDB</t>
-  </si>
-  <si>
-    <t>CPF OA/SA/MA</t>
-  </si>
-  <si>
     <t>mom</t>
   </si>
   <si>
-    <t>CPF SA/MA</t>
-  </si>
-  <si>
-    <t>CPF OA incl cpfIA</t>
-  </si>
-  <si>
     <t>20k write-off</t>
   </si>
   <si>
     <t>Poems mufu</t>
   </si>
   <si>
-    <t>Pomes dry powder</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -234,24 +210,6 @@
     <t>See other pointers at https://tanbinvest.dreamhosters.com/25802/netasset-annual-snap/</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> means fluctuating, floating, unstable value</t>
-    </r>
-  </si>
-  <si>
     <t>quick n dirty Jan</t>
   </si>
   <si>
@@ -268,9 +226,6 @@
   </si>
   <si>
     <t>girl</t>
-  </si>
-  <si>
-    <t>DBS mufu ex-SRS</t>
   </si>
   <si>
     <t>BOC CNY 69k</t>
@@ -301,12 +256,6 @@
 !! Sitt duck</t>
   </si>
   <si>
-    <t>excluded: assets in China banks</t>
-  </si>
-  <si>
-    <t>bookVal#ex div</t>
-  </si>
-  <si>
     <t>cashVal FFS</t>
   </si>
   <si>
@@ -319,27 +268,15 @@
     <t>bank: citi.NA</t>
   </si>
   <si>
-    <t>存款:153/AUM100k</t>
-  </si>
-  <si>
-    <t>存款: Citi/AUM4k//</t>
-  </si>
-  <si>
     <t>存款: OC</t>
   </si>
   <si>
-    <t>BookVal</t>
-  </si>
-  <si>
     <t>Aug12}q3sg</t>
   </si>
   <si>
     <t>immutable (FX and) snap:</t>
   </si>
   <si>
-    <t>↓snap↓error↓check</t>
-  </si>
-  <si>
     <t>grey text means, for floating assets only, copied from previous snapshot, without validation.</t>
   </si>
   <si>
@@ -349,9 +286,6 @@
     <t>SRS #mufu,,,</t>
   </si>
   <si>
-    <t>rEstate: PEK</t>
-  </si>
-  <si>
     <t>24k剩余given&gt;&gt;kids</t>
   </si>
   <si>
@@ -391,13 +325,70 @@
     <t>Jay warehouse &gt;</t>
   </si>
   <si>
-    <t>bank: BOC #</t>
-  </si>
-  <si>
     <t>&lt;GUUI</t>
   </si>
   <si>
     <t>mLock</t>
+  </si>
+  <si>
+    <t>存款:153/AUM</t>
+  </si>
+  <si>
+    <t>存款: Citi/AUM</t>
+  </si>
+  <si>
+    <t>DBS mufu exSRS</t>
+  </si>
+  <si>
+    <t>bank: BOC</t>
+  </si>
+  <si>
+    <t>snaps↓error↓check</t>
+  </si>
+  <si>
+    <t>BOC TD</t>
+  </si>
+  <si>
+    <t>rEstt: HDB</t>
+  </si>
+  <si>
+    <t>rEstt: BGC</t>
+  </si>
+  <si>
+    <t>rEstt: khm4</t>
+  </si>
+  <si>
+    <t>rEstt:40%@PEK</t>
+  </si>
+  <si>
+    <t>CpfOA/SA/MA</t>
+  </si>
+  <si>
+    <t>CpfSA/MA</t>
+  </si>
+  <si>
+    <t>CpfOA incl cpfIA</t>
+  </si>
+  <si>
+    <t>Poem dryPowder</t>
+  </si>
+  <si>
+    <t>BVxD means Book value assuming $0 dividend</t>
+  </si>
+  <si>
+    <t>BVxD</t>
+  </si>
+  <si>
+    <t>~ means fluctuating, floating, unstable value</t>
+  </si>
+  <si>
+    <t>----- notations:</t>
+  </si>
+  <si>
+    <t>----- excluded assets:</t>
+  </si>
+  <si>
+    <t>excluded: onshore China bank accounts</t>
   </si>
 </sst>
 </file>
@@ -437,11 +428,6 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.14993743705557422"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -490,6 +476,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -670,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -721,70 +713,69 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -795,21 +786,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
@@ -817,15 +806,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -841,18 +830,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,28 +868,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,6 +886,7 @@
     <xf numFmtId="17" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,25 +1162,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Y56"/>
+  <dimension ref="B1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="0.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="4.140625" style="2" customWidth="1"/>
@@ -1192,60 +1189,66 @@
     <col min="17" max="17" width="0.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="0.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="0.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.5703125" customWidth="1"/>
+    <col min="26" max="26" width="0.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="6" customHeight="1"/>
-    <row r="2" spans="2:25">
+    <row r="1" spans="2:28" ht="6" customHeight="1"/>
+    <row r="2" spans="2:28">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="100" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="109"/>
+        <v>42</v>
+      </c>
+      <c r="H2" s="113"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="109"/>
+      <c r="L2" s="113"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="108" t="s">
+      <c r="O2" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="109"/>
+      <c r="P2" s="113"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="108" t="s">
+      <c r="R2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="118" t="s">
+      <c r="S2" s="113"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="108">
+      <c r="V2" s="119"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="112">
         <v>42401</v>
       </c>
-      <c r="W2" s="109"/>
-      <c r="X2" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y2" s="109"/>
-    </row>
-    <row r="3" spans="2:25">
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="113"/>
+    </row>
+    <row r="3" spans="2:28">
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f>$V$3</f>
+        <f>$X$3</f>
         <v>in S$</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1269,7 +1272,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="5" t="str">
-        <f>$V$3</f>
+        <f>$X$3</f>
         <v>in S$</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -1278,7 +1281,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="5" t="str">
-        <f>$V$3</f>
+        <f>$X$3</f>
         <v>in S$</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1286,159 +1289,148 @@
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="5" t="str">
-        <f>$V$3</f>
+        <f>$X$3</f>
         <v>in S$</v>
       </c>
       <c r="S3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="5" t="str">
-        <f>$V$3</f>
+      <c r="T3" s="6"/>
+      <c r="U3" s="5" t="str">
+        <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="V3" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="W3" s="6"/>
       <c r="X3" s="43" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="Y3" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:25">
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28">
       <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="54">
-        <f t="shared" ref="H4" si="0">L4</f>
-        <v>20000</v>
+      <c r="H4" s="9">
+        <v>2500</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="8">
-        <f>P4</f>
-        <v>20000</v>
+      <c r="L4" s="9">
+        <v>2500</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="9"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="23">
-        <f>S4</f>
-        <v>20000</v>
+      <c r="P4" s="9">
+        <v>2500</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="54">
-        <f>W4</f>
-        <v>20000</v>
-      </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="54">
-        <f>W4</f>
-        <v>20000</v>
-      </c>
-      <c r="V4" s="7"/>
-      <c r="W4" s="54">
-        <f>Y4</f>
-        <v>20000</v>
-      </c>
+      <c r="S4" s="9">
+        <v>2500</v>
+      </c>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="9">
+        <v>2500</v>
+      </c>
+      <c r="W4" s="9"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="9">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="2:28">
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <f>600*6</f>
-        <v>3600</v>
+      <c r="H5" s="9">
+        <v>8100</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="8">
-        <f>P5</f>
-        <v>1800</v>
-      </c>
-      <c r="M5" s="8"/>
+      <c r="L5" s="9">
+        <v>9800</v>
+      </c>
+      <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="10"/>
       <c r="P5" s="9">
-        <f>300*6</f>
-        <v>1800</v>
+        <v>13400</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="10"/>
       <c r="S5" s="9">
-        <f>200*6</f>
-        <v>1200</v>
-      </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="9">
-        <f>200*6</f>
-        <v>1200</v>
-      </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="54">
-        <f>Y5</f>
-        <v>1020</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="9">
+        <v>900</v>
+      </c>
+      <c r="W5" s="9"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="9">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25">
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+    </row>
+    <row r="6" spans="2:28">
       <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="114" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="9">
@@ -1462,28 +1454,31 @@
       <c r="S6" s="9">
         <v>0</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="9">
+      <c r="T6" s="9"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="9">
         <v>0</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
+      <c r="W6" s="9"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-    </row>
-    <row r="7" spans="2:25">
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+    </row>
+    <row r="7" spans="2:28">
       <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="115"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="107"/>
       <c r="D7" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7">
@@ -1506,28 +1501,31 @@
       <c r="S7" s="9">
         <v>564</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="9">
+      <c r="T7" s="9"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="9">
         <v>6100</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="9"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-    </row>
-    <row r="8" spans="2:25">
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="2:28">
       <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="115"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="107"/>
       <c r="D8" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7">
@@ -1550,28 +1548,31 @@
       <c r="S8" s="9">
         <v>1642</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="9">
+      <c r="T8" s="9"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="9">
         <v>1300</v>
       </c>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="9"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-    </row>
-    <row r="9" spans="2:25">
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="2:28">
       <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="115"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="107"/>
       <c r="D9" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7">
@@ -1584,42 +1585,45 @@
         <v>1500</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="80">
+      <c r="N9" s="77"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="77">
         <v>1500</v>
       </c>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="80">
+      <c r="Q9" s="77"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="77">
         <v>2031</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="9">
+      <c r="T9" s="77"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="9">
         <v>107000</v>
       </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="9">
-        <v>120000</v>
-      </c>
+      <c r="W9" s="77"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="9">
+        <v>120000</v>
+      </c>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="9">
         <v>270000</v>
       </c>
     </row>
-    <row r="10" spans="2:25">
+    <row r="10" spans="2:28">
       <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="115"/>
+        <v>17</v>
+      </c>
+      <c r="C10" s="107"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7">
@@ -1633,40 +1637,43 @@
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="M10" s="86"/>
-      <c r="N10" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="O10" s="79"/>
-      <c r="P10" s="63">
+      <c r="M10" s="83"/>
+      <c r="N10" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="76"/>
+      <c r="P10" s="62">
         <f>14300+2000</f>
         <v>16300</v>
       </c>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="59">
+      <c r="Q10" s="62"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="58">
         <v>57781</v>
       </c>
-      <c r="T10" s="88"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="62"/>
       <c r="X10" s="40"/>
       <c r="Y10" s="40"/>
-    </row>
-    <row r="11" spans="2:25" ht="11.25" customHeight="1">
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+    </row>
+    <row r="11" spans="2:28" ht="11.25" customHeight="1">
       <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="115"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="107"/>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7">
@@ -1678,163 +1685,211 @@
       <c r="L11" s="9">
         <v>45</v>
       </c>
-      <c r="M11" s="86"/>
-      <c r="N11" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="90"/>
-      <c r="P11" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="91">
+      <c r="M11" s="83"/>
+      <c r="N11" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="87"/>
+      <c r="P11" s="88" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="88">
         <v>-46000</v>
       </c>
-      <c r="T11" s="79"/>
-      <c r="U11" s="59">
+      <c r="T11" s="88"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="58">
         <v>-36000</v>
       </c>
-      <c r="V11" s="87"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="84"/>
       <c r="Y11" s="40"/>
-    </row>
-    <row r="12" spans="2:25" ht="14.25" customHeight="1">
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+    </row>
+    <row r="12" spans="2:28" ht="14.25" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="116"/>
+        <v>17</v>
+      </c>
+      <c r="C12" s="108"/>
       <c r="D12" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="9">
         <v>180000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="10"/>
       <c r="L12" s="9">
         <v>34004</v>
       </c>
-      <c r="M12" s="86"/>
-      <c r="N12" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="O12" s="90"/>
-      <c r="P12" s="92">
+      <c r="M12" s="83"/>
+      <c r="N12" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="87"/>
+      <c r="P12" s="89">
         <v>5000</v>
       </c>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="92">
+      <c r="Q12" s="88"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="89">
         <v>5000</v>
       </c>
-      <c r="T12" s="90"/>
-      <c r="U12" s="92">
+      <c r="T12" s="88"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="89">
         <v>5000</v>
       </c>
-      <c r="V12" s="87"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="84"/>
       <c r="Y12" s="40"/>
-    </row>
-    <row r="13" spans="2:25" ht="3" customHeight="1">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-    </row>
-    <row r="14" spans="2:25">
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="40"/>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="53">
+        <f t="shared" ref="H13" si="0">L13</f>
+        <v>20000</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="8">
+        <f>P13</f>
+        <v>20000</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="23">
+        <f>S13</f>
+        <v>20000</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="53">
+        <f>Y13</f>
+        <v>20000</v>
+      </c>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="53">
+        <f>Y13</f>
+        <v>20000</v>
+      </c>
+      <c r="W13" s="9"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="53">
+        <f>AB13</f>
+        <v>20000</v>
+      </c>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
+      <c r="C14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="110"/>
+      <c r="E14" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="9">
-        <v>2500</v>
+      <c r="H14" s="7">
+        <f>600*6</f>
+        <v>3600</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="9">
-        <v>2500</v>
+      <c r="L14" s="8">
+        <f>P14</f>
+        <v>1800</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
       <c r="P14" s="9">
-        <v>2500</v>
+        <f>300*6</f>
+        <v>1800</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="10"/>
       <c r="S14" s="9">
-        <v>2500</v>
-      </c>
-      <c r="T14" s="10"/>
-      <c r="U14" s="9">
-        <v>2500</v>
-      </c>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
+        <f>200*6</f>
+        <v>1200</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="9">
+        <f>200*6</f>
+        <v>1200</v>
+      </c>
+      <c r="W14" s="9"/>
       <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-    </row>
-    <row r="15" spans="2:25">
+      <c r="Y14" s="53">
+        <f>AB14</f>
+        <v>1020</v>
+      </c>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="9">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="12.75" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="9">
@@ -1857,712 +1912,753 @@
       <c r="S15" s="9">
         <v>5000</v>
       </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="9">
+      <c r="T15" s="9"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="9">
         <v>5000</v>
       </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
+      <c r="W15" s="9"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
-    </row>
-    <row r="16" spans="2:25">
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="2:28" ht="13.15" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="str">
-        <f>C26</f>
-        <v>bookVal#ex div</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="110"/>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="9">
-        <v>8100</v>
-      </c>
-      <c r="I16" s="7"/>
+      <c r="H16" s="39">
+        <f>L16*40%</f>
+        <v>36000</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="10"/>
       <c r="L16" s="9">
-        <v>9800</v>
-      </c>
-      <c r="M16" s="9"/>
+        <v>90000</v>
+      </c>
+      <c r="M16" s="8"/>
       <c r="N16" s="9"/>
       <c r="O16" s="10"/>
       <c r="P16" s="9">
-        <v>13400</v>
+        <v>90000</v>
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
       <c r="S16" s="9">
-        <v>1300</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="9">
-        <v>900</v>
-      </c>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
+        <v>90000</v>
+      </c>
+      <c r="T16" s="9"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="9">
+        <v>90000</v>
+      </c>
+      <c r="W16" s="9"/>
       <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-    </row>
-    <row r="17" spans="2:25" ht="13.15" customHeight="1">
-      <c r="B17" s="7" t="s">
-        <v>18</v>
+      <c r="Y16" s="9">
+        <v>90000</v>
+      </c>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="9">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" s="114" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="111" t="s">
-        <v>65</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D17" s="110"/>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="39">
-        <f>L17*40%</f>
-        <v>36000</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="H17" s="8">
+        <f t="shared" ref="H17" si="1">L17</f>
+        <v>439000</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="9">
-        <v>90000</v>
+      <c r="L17" s="8">
+        <f>P17</f>
+        <v>439000</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
       <c r="P17" s="9">
-        <v>90000</v>
+        <f>V17+169000</f>
+        <v>439000</v>
       </c>
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
       <c r="S17" s="9">
-        <v>90000</v>
-      </c>
-      <c r="T17" s="10"/>
-      <c r="U17" s="9">
-        <v>90000</v>
-      </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="9">
-        <v>90000</v>
-      </c>
+        <f>V17+169000*40%</f>
+        <v>337600</v>
+      </c>
+      <c r="T17" s="9"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="9">
+        <v>270000</v>
+      </c>
+      <c r="W17" s="9"/>
       <c r="X17" s="7"/>
-      <c r="Y17" s="9">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25">
-      <c r="B18" s="106" t="s">
-        <v>30</v>
-      </c>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="2:28">
+      <c r="B18" s="115"/>
       <c r="C18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="112"/>
+        <v>96</v>
+      </c>
+      <c r="D18" s="110"/>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18" si="1">L18</f>
-        <v>439000</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" s="9">
+        <v>200000</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="8">
-        <f>P18</f>
-        <v>439000</v>
-      </c>
-      <c r="M18" s="8"/>
+      <c r="K18" s="9">
+        <v>200000</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="9">
-        <f>U18+169000</f>
-        <v>439000</v>
-      </c>
+      <c r="O18" s="9">
+        <v>200000</v>
+      </c>
+      <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="9">
-        <f>U18+169000*40%</f>
-        <v>337600</v>
-      </c>
-      <c r="T18" s="10"/>
+      <c r="R18" s="9">
+        <v>200000</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
       <c r="U18" s="9">
-        <v>270000</v>
-      </c>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="2:25">
-      <c r="B19" s="107"/>
+        <v>200000</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9">
+        <v>105000</v>
+      </c>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="112"/>
+        <v>96</v>
+      </c>
+      <c r="D19" s="110"/>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G19" s="9">
-        <v>200000</v>
+        <v>750000</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="9">
-        <v>200000</v>
-      </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+        <v>750000</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9">
-        <v>200000</v>
+        <f>750000-415000</f>
+        <v>335000</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9">
-        <v>200000</v>
+        <v>600000</v>
       </c>
       <c r="S19" s="9"/>
-      <c r="T19" s="9">
-        <v>200000</v>
-      </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9">
-        <v>105000</v>
-      </c>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9">
+        <v>600000</v>
+      </c>
+      <c r="V19" s="9"/>
       <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="7"/>
-    </row>
-    <row r="20" spans="2:25">
+      <c r="X19" s="9">
+        <f>600000-154000</f>
+        <v>446000</v>
+      </c>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9">
+        <v>420000</v>
+      </c>
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="2:28">
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="112"/>
+        <v>21</v>
+      </c>
+      <c r="D20" s="110"/>
       <c r="E20" s="7" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G20" s="9">
-        <v>750000</v>
+        <f>2700+75000+15800</f>
+        <v>93500</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="9">
-        <v>750000</v>
+        <f>0+27000+15000</f>
+        <v>42000</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9">
-        <f>750000-415000</f>
-        <v>335000</v>
+        <f>1000+18000+15000</f>
+        <v>34000</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9">
-        <v>600000</v>
+        <f>37303+14272+15932</f>
+        <v>67507</v>
       </c>
       <c r="S20" s="9"/>
-      <c r="T20" s="9">
-        <v>600000</v>
-      </c>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9">
-        <f>600000-154000</f>
-        <v>446000</v>
-      </c>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9">
+        <f>(35+13+14)*1000</f>
+        <v>62000</v>
+      </c>
+      <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9">
-        <v>420000</v>
-      </c>
-      <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="2:25">
+        <v>5000</v>
+      </c>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="2:28">
       <c r="B21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="112"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="110"/>
       <c r="E21" s="7" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G21" s="9">
-        <f>2700+75000+15800</f>
-        <v>93500</v>
+        <f>240000+71000</f>
+        <v>311000</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="9">
-        <f>0+27000+15000</f>
-        <v>42000</v>
+        <f>221400+71000</f>
+        <v>292400</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9">
-        <f>1000+18000+15000</f>
-        <v>34000</v>
+        <f>205000+68000</f>
+        <v>273000</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9">
-        <f>37303+14272+15932</f>
-        <v>67507</v>
+        <f>57247+54415</f>
+        <v>111662</v>
       </c>
       <c r="S21" s="9"/>
-      <c r="T21" s="9">
-        <f>(35+13+14)*1000</f>
-        <v>62000</v>
-      </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9">
-        <v>5000</v>
-      </c>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9">
+        <f>51797+50452</f>
+        <v>102249</v>
+      </c>
+      <c r="V21" s="9"/>
       <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="2:25">
+      <c r="X21" s="9">
+        <v>78000</v>
+      </c>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="2:28">
       <c r="B22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="112"/>
+        <v>21</v>
+      </c>
+      <c r="D22" s="110"/>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="9">
-        <f>240000+71000</f>
-        <v>311000</v>
+        <v>44000</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="9">
-        <f>221400+71000</f>
-        <v>292400</v>
+        <v>24600</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9">
-        <f>205000+68000</f>
-        <v>273000</v>
+        <f>(113000+20000)+8000</f>
+        <v>141000</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9">
-        <f>57247+54415</f>
-        <v>111662</v>
+        <v>24201</v>
       </c>
       <c r="S22" s="9"/>
-      <c r="T22" s="9">
-        <f>51797+50452</f>
-        <v>102249</v>
-      </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9">
-        <v>78000</v>
-      </c>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9">
+        <v>17000</v>
+      </c>
+      <c r="V22" s="9"/>
       <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="2:25">
+      <c r="X22" s="9">
+        <v>142000</v>
+      </c>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9">
+        <v>17700</v>
+      </c>
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="2:28">
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="D23" s="110"/>
+      <c r="E23" s="27" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G23" s="9">
-        <v>44000</v>
+        <v>14000</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="9">
-        <v>24600</v>
+      <c r="K23" s="53">
+        <f>O23</f>
+        <v>5000</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9">
-        <f>(113000+20000)+8000</f>
-        <v>141000</v>
-      </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9">
-        <v>24201</v>
-      </c>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9">
-        <v>17000</v>
-      </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9">
-        <v>142000</v>
-      </c>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9">
-        <v>17700</v>
-      </c>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="2:25">
+      <c r="N23" s="77"/>
+      <c r="O23" s="78">
+        <f>R23</f>
+        <v>5000</v>
+      </c>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="78">
+        <f>U23</f>
+        <v>5000</v>
+      </c>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77">
+        <v>5000</v>
+      </c>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="2:28">
       <c r="B24" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="112"/>
-      <c r="E24" s="27" t="s">
-        <v>68</v>
+        <v>96</v>
+      </c>
+      <c r="D24" s="110"/>
+      <c r="E24" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G24" s="9">
-        <v>14000</v>
+        <f>(300000-228000)+(50065*2)+(250774-190000)</f>
+        <v>232904</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="54">
-        <f>O24</f>
-        <v>5000</v>
-      </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="81">
-        <f>R24</f>
-        <v>5000</v>
-      </c>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="81">
-        <f>T24</f>
-        <v>5000</v>
-      </c>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80">
-        <v>5000</v>
-      </c>
-      <c r="U24" s="80"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="25" spans="2:25">
+      <c r="J24" s="40"/>
+      <c r="K24" s="29">
+        <v>50065</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62">
+        <v>20000</v>
+      </c>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62">
+        <v>20000</v>
+      </c>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="58">
+        <v>30000</v>
+      </c>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="40"/>
+    </row>
+    <row r="25" spans="2:28">
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="49" t="s">
-        <v>69</v>
+        <v>96</v>
+      </c>
+      <c r="D25" s="111"/>
+      <c r="E25" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G25" s="9">
-        <f>(300000-228000)+(50065*2)+(250774-190000)</f>
-        <v>232904</v>
+        <f>15000*5</f>
+        <v>75000</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="40"/>
       <c r="K25" s="29">
-        <v>50065</v>
-      </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="O25" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63">
-        <v>20000</v>
-      </c>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63">
-        <v>20000</v>
-      </c>
-      <c r="U25" s="63"/>
-      <c r="V25" s="59">
-        <v>30000</v>
-      </c>
-      <c r="W25" s="59"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="40"/>
-    </row>
-    <row r="26" spans="2:25">
+        <f>15000*4</f>
+        <v>60000</v>
+      </c>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81">
+        <f>15000*3</f>
+        <v>45000</v>
+      </c>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="40"/>
+    </row>
+    <row r="26" spans="2:28">
       <c r="B26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="7" t="s">
-        <v>81</v>
+      <c r="C26" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="9">
-        <f>15000*5</f>
-        <v>75000</v>
+        <v>16</v>
+      </c>
+      <c r="G26" s="53">
+        <f>K26</f>
+        <v>1234</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="29">
-        <f>15000*4</f>
-        <v>60000</v>
-      </c>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84">
-        <f>15000*3</f>
-        <v>45000</v>
-      </c>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="40"/>
-    </row>
-    <row r="27" spans="2:25">
+      <c r="K26" s="66">
+        <v>1234</v>
+      </c>
+      <c r="L26" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="M26" s="62"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="62">
+        <v>1000</v>
+      </c>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62">
+        <v>92574</v>
+      </c>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62">
+        <v>102000</v>
+      </c>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62">
+        <v>55000</v>
+      </c>
+      <c r="Y26" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="58">
+        <v>5000</v>
+      </c>
+      <c r="AB26" s="84"/>
+    </row>
+    <row r="27" spans="2:28">
       <c r="B27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>57</v>
+      <c r="E27" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="54">
-        <f>K27</f>
-        <v>1234</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="9">
+        <v>22000</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="67">
-        <v>1234</v>
-      </c>
-      <c r="L27" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="M27" s="63"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="63">
-        <v>1000</v>
-      </c>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63">
-        <v>92574</v>
-      </c>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63">
-        <v>102000</v>
-      </c>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63">
-        <v>55000</v>
-      </c>
-      <c r="W27" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="X27" s="59">
-        <v>5000</v>
-      </c>
-      <c r="Y27" s="87"/>
-    </row>
-    <row r="28" spans="2:25">
+      <c r="K27" s="29">
+        <v>36140</v>
+      </c>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61">
+        <v>40000</v>
+      </c>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61">
+        <v>27907</v>
+      </c>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61">
+        <v>6000</v>
+      </c>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61">
+        <v>155000</v>
+      </c>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="40"/>
+    </row>
+    <row r="28" spans="2:28">
       <c r="B28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="9">
-        <v>22000</v>
+        <v>2000</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="40"/>
       <c r="K28" s="29">
-        <v>36140</v>
-      </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62">
-        <v>40000</v>
-      </c>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62">
-        <v>27907</v>
-      </c>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62">
-        <v>6000</v>
-      </c>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62">
-        <v>155000</v>
-      </c>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="40"/>
-    </row>
-    <row r="29" spans="2:25">
-      <c r="B29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29">
         <v>2000</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="29">
-        <v>1000</v>
-      </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29">
-        <v>2000</v>
-      </c>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29">
+        <v>28176</v>
+      </c>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29">
+        <v>20000</v>
+      </c>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="40"/>
+    </row>
+    <row r="29" spans="2:28" ht="3" customHeight="1">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
-      <c r="R29" s="29">
-        <v>28176</v>
-      </c>
+      <c r="R29" s="29"/>
       <c r="S29" s="29"/>
-      <c r="T29" s="29">
-        <v>20000</v>
-      </c>
+      <c r="T29" s="29"/>
       <c r="U29" s="29"/>
       <c r="V29" s="29"/>
       <c r="W29" s="29"/>
       <c r="X29" s="29"/>
-      <c r="Y29" s="40"/>
-    </row>
-    <row r="30" spans="2:25" ht="3" customHeight="1">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="40"/>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="26">
+        <v>2300</v>
+      </c>
       <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="29"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="64">
+        <v>-200970</v>
+      </c>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="65">
+        <f>-140000</f>
+        <v>-140000</v>
+      </c>
+      <c r="P30" s="58"/>
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
@@ -2571,749 +2667,790 @@
       <c r="V30" s="29"/>
       <c r="W30" s="29"/>
       <c r="X30" s="29"/>
-      <c r="Y30" s="40"/>
-    </row>
-    <row r="31" spans="2:25">
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="40"/>
+    </row>
+    <row r="31" spans="2:28">
       <c r="B31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>74</v>
+        <v>17</v>
+      </c>
+      <c r="C31" s="107"/>
+      <c r="D31" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G31" s="26">
-        <v>2300</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="K31" s="65">
-        <v>-200970</v>
-      </c>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="66">
-        <f>-140000</f>
-        <v>-140000</v>
-      </c>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
+        <f>745+1065+4000</f>
+        <v>5810</v>
+      </c>
+      <c r="H31" s="91"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="64">
+        <v>285000</v>
+      </c>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="65">
+        <f>176000</f>
+        <v>176000</v>
+      </c>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="94"/>
       <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
+      <c r="T31" s="60"/>
       <c r="U31" s="29"/>
       <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
+      <c r="W31" s="60"/>
       <c r="X31" s="29"/>
-      <c r="Y31" s="40"/>
-    </row>
-    <row r="32" spans="2:25">
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="40"/>
+    </row>
+    <row r="32" spans="2:28">
       <c r="B32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="26">
-        <f>745+1065+4000</f>
-        <v>5810</v>
-      </c>
-      <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="65">
-        <v>285000</v>
-      </c>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="66">
-        <f>176000</f>
-        <v>176000</v>
-      </c>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
+        <v>17</v>
+      </c>
+      <c r="C32" s="107"/>
+      <c r="D32" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="83">
+        <f>6000+100000</f>
+        <v>106000</v>
+      </c>
+      <c r="H32" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="97"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="62">
+        <v>10017</v>
+      </c>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62">
+        <v>9000</v>
+      </c>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="58">
+        <v>20000</v>
+      </c>
+      <c r="S32" s="58"/>
+      <c r="T32" s="62"/>
       <c r="U32" s="29"/>
       <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
+      <c r="W32" s="62"/>
       <c r="X32" s="29"/>
-      <c r="Y32" s="40"/>
-    </row>
-    <row r="33" spans="2:25">
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="40"/>
+    </row>
+    <row r="33" spans="2:28" ht="12.75" customHeight="1">
       <c r="B33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="115"/>
+        <v>17</v>
+      </c>
+      <c r="C33" s="108"/>
       <c r="D33" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="86">
-        <f>6000+100000</f>
-        <v>106000</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="100"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="63">
-        <v>10017</v>
-      </c>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63">
-        <v>9000</v>
-      </c>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="59">
-        <v>20000</v>
-      </c>
-      <c r="S33" s="59"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="40"/>
-    </row>
-    <row r="34" spans="2:25" ht="12.75" customHeight="1">
-      <c r="B34" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="116"/>
-      <c r="D34" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="E33" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="13">
         <v>304000</v>
       </c>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="62">
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="61">
         <v>385000</v>
       </c>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62">
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61">
         <v>598000</v>
       </c>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62">
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61">
         <f>27564</f>
         <v>27564</v>
       </c>
+      <c r="S33" s="29"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="29">
+        <v>20000</v>
+      </c>
+      <c r="V33" s="29"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="29">
+        <v>20000</v>
+      </c>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="29">
+        <v>5000</v>
+      </c>
+      <c r="AB33" s="40"/>
+    </row>
+    <row r="34" spans="2:28">
+      <c r="B34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="13">
+        <v>-7000</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29">
+        <v>-600</v>
+      </c>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
       <c r="S34" s="29"/>
-      <c r="T34" s="29">
-        <v>20000</v>
-      </c>
+      <c r="T34" s="29"/>
       <c r="U34" s="29"/>
-      <c r="V34" s="29">
-        <v>20000</v>
-      </c>
+      <c r="V34" s="29"/>
       <c r="W34" s="29"/>
-      <c r="X34" s="29">
-        <v>5000</v>
-      </c>
-      <c r="Y34" s="40"/>
-    </row>
-    <row r="35" spans="2:25">
-      <c r="B35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="13">
-        <v>-7000</v>
-      </c>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="40"/>
+    </row>
+    <row r="35" spans="2:28" ht="3" customHeight="1">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
       <c r="J35" s="28"/>
-      <c r="K35" s="29">
-        <v>-600</v>
-      </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="40"/>
-    </row>
-    <row r="36" spans="2:25" ht="3" customHeight="1">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="61"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="40"/>
-    </row>
-    <row r="37" spans="2:25">
+      <c r="K35" s="29"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="40"/>
+    </row>
+    <row r="36" spans="2:28">
+      <c r="B36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="9">
+        <v>13000</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="66">
+        <v>1600</v>
+      </c>
+      <c r="L36" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="62"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64">
+        <v>-30000</v>
+      </c>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64">
+        <v>-40000</v>
+      </c>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="58">
+        <v>-30000</v>
+      </c>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="40"/>
+    </row>
+    <row r="37" spans="2:28">
       <c r="B37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="27" t="s">
-        <v>64</v>
+      <c r="C37" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>58</v>
+      <c r="E37" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G37" s="9">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="67">
-        <v>1600</v>
-      </c>
-      <c r="L37" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="M37" s="63"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="65">
-        <v>-30000</v>
-      </c>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65">
-        <v>-40000</v>
-      </c>
-      <c r="U37" s="65"/>
-      <c r="V37" s="59">
-        <v>-30000</v>
-      </c>
-      <c r="W37" s="59"/>
-      <c r="X37" s="29"/>
+      <c r="K37" s="29">
+        <v>20000</v>
+      </c>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="70">
+        <v>16000</v>
+      </c>
+      <c r="P37" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="58">
+        <v>20000</v>
+      </c>
+      <c r="T37" s="74"/>
+      <c r="U37" s="76"/>
+      <c r="V37" s="58">
+        <v>20000</v>
+      </c>
+      <c r="W37" s="74"/>
+      <c r="X37" s="71"/>
       <c r="Y37" s="40"/>
-    </row>
-    <row r="38" spans="2:25">
-      <c r="B38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="9">
-        <v>22000</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="29">
-        <v>20000</v>
-      </c>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="73">
-        <v>16000</v>
-      </c>
-      <c r="P38" s="76" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="59">
-        <v>20000</v>
-      </c>
-      <c r="T38" s="79"/>
-      <c r="U38" s="59">
-        <v>20000</v>
-      </c>
-      <c r="V38" s="74"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-    </row>
-    <row r="39" spans="2:25">
-      <c r="B39" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="5" t="str">
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+    </row>
+    <row r="38" spans="2:28">
+      <c r="B38" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="5" t="str">
         <f>G3</f>
         <v>in S$</v>
       </c>
-      <c r="H39" s="5" t="str">
-        <f t="shared" ref="H39:W39" si="2">H3</f>
+      <c r="H38" s="5" t="str">
+        <f>H3</f>
         <v>in USD</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I38" s="5">
+        <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="str">
+        <f>K3</f>
+        <v>in S$</v>
+      </c>
+      <c r="L38" s="5" t="str">
+        <f>L3</f>
+        <v>in USD</v>
+      </c>
+      <c r="M38" s="5">
+        <f>M3</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5" t="str">
+        <f t="shared" ref="O38:AB38" si="2">O3</f>
+        <v>in S$</v>
+      </c>
+      <c r="P38" s="72" t="str">
+        <f t="shared" si="2"/>
+        <v>in USD</v>
+      </c>
+      <c r="Q38" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5" t="str">
+      <c r="R38" s="72" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="L39" s="5" t="str">
+      <c r="S38" s="72" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="M39" s="5">
+      <c r="T38" s="72">
+        <f t="shared" ref="T38" si="3">T3</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="72" t="str">
+        <f t="shared" si="2"/>
+        <v>in S$</v>
+      </c>
+      <c r="V38" s="72" t="str">
+        <f t="shared" si="2"/>
+        <v>in USD</v>
+      </c>
+      <c r="W38" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5" t="str">
+      <c r="X38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="P39" s="75" t="str">
+      <c r="Y38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Q39" s="75">
-        <f t="shared" si="2"/>
+      <c r="Z38" s="72">
+        <f t="shared" ref="Z38" si="4">Z3</f>
         <v>0</v>
       </c>
-      <c r="R39" s="75" t="str">
+      <c r="AA38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="S39" s="75" t="str">
+      <c r="AB38" s="5" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="T39" s="75" t="str">
-        <f t="shared" si="2"/>
-        <v>in S$</v>
-      </c>
-      <c r="U39" s="75" t="str">
-        <f t="shared" si="2"/>
-        <v>in USD</v>
-      </c>
-      <c r="V39" s="5" t="str">
-        <f>V3</f>
-        <v>in S$</v>
-      </c>
-      <c r="W39" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>in USD</v>
-      </c>
-      <c r="X39" s="5" t="str">
-        <f>X3</f>
-        <v>in S$</v>
-      </c>
-      <c r="Y39" s="5" t="str">
-        <f t="shared" ref="Y39" si="3">Y3</f>
-        <v>in USD</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25">
-      <c r="C40" s="18">
-        <f>(G40-G41)+(H40-H41)+(K40-K41)+(L40-L41)+(K44-K45)+(O40-O41)+(P40-P41)+(O44-O45)+(R40-R41)+(S40-S41)+(R44-R45)+(T40-T41)+(U40-U41)+(T44-T45)</f>
+    </row>
+    <row r="39" spans="2:28">
+      <c r="C39" s="18">
+        <f>(G39-G40)+(H39-H40)+(K39-K40)+(L39-L40)+(K43-K44)+(O39-O40)+(P39-P40)+(O43-O44)+(R39-R40)+(S39-S40)+(R43-R44)+(U39-U40)+(V39-V40)+(U43-U44)</f>
         <v>0</v>
       </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="2">
+        <f>SUM(G4:G37)</f>
+        <v>2191748</v>
+      </c>
+      <c r="H39" s="2">
+        <f>SUM(H4:H37)</f>
+        <v>763745</v>
+      </c>
+      <c r="K39" s="2">
+        <f>SUM(K4:K37)</f>
+        <v>1962486</v>
+      </c>
+      <c r="L39" s="2">
+        <f>SUM(L4:L37)</f>
+        <v>683087</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="O39" s="2">
+        <f>SUM(O4:O37)</f>
+        <v>1735000</v>
+      </c>
+      <c r="P39" s="2">
+        <f>SUM(P4:P37)</f>
+        <v>628000</v>
+      </c>
+      <c r="R39" s="2">
+        <f>SUM(R4:R37)</f>
+        <v>1194591</v>
+      </c>
+      <c r="S39" s="2">
+        <f>SUM(S4:S37)</f>
+        <v>498618</v>
+      </c>
+      <c r="U39" s="2">
+        <f>SUM(U4:U37)</f>
+        <v>1114249</v>
+      </c>
+      <c r="V39" s="2">
+        <f>SUM(V4:V37)</f>
+        <v>493000</v>
+      </c>
+      <c r="X39" s="2">
+        <f>SUM(X4:X37)</f>
+        <v>1006000</v>
+      </c>
+      <c r="Y39" s="2">
+        <f>SUM(Y4:Y37)</f>
+        <v>231020</v>
+      </c>
+      <c r="AA39" s="2">
+        <f>SUM(AA4:AA37)</f>
+        <v>447700</v>
+      </c>
+      <c r="AB39" s="2">
+        <f>SUM(AB4:AB37)</f>
+        <v>381020</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28">
       <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
-        <v>43</v>
+      <c r="E40" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="G40" s="2">
-        <f>SUM(G4:G38)</f>
         <v>2191748</v>
       </c>
       <c r="H40" s="2">
-        <f>SUM(H4:H38)</f>
         <v>763745</v>
       </c>
       <c r="K40" s="2">
-        <f>SUM(K4:K38)</f>
         <v>1962486</v>
       </c>
       <c r="L40" s="2">
-        <f>SUM(L4:L38)</f>
         <v>683087</v>
       </c>
       <c r="M40" s="15"/>
       <c r="O40" s="2">
-        <f>SUM(O4:O38)</f>
         <v>1735000</v>
       </c>
       <c r="P40" s="2">
-        <f>SUM(P4:P38)</f>
         <v>628000</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" ref="R40:Y40" si="4">SUM(R4:R38)</f>
         <v>1194591</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="4"/>
         <v>498618</v>
       </c>
-      <c r="T40" s="2">
-        <f t="shared" si="4"/>
+      <c r="U40" s="2">
         <v>1114249</v>
       </c>
-      <c r="U40" s="2">
-        <f t="shared" si="4"/>
+      <c r="V40" s="2">
         <v>493000</v>
       </c>
-      <c r="V40" s="2">
-        <f t="shared" si="4"/>
+      <c r="X40" s="2">
         <v>1006000</v>
       </c>
-      <c r="W40" s="2">
-        <f t="shared" si="4"/>
+      <c r="Y40" s="2">
         <v>231020</v>
       </c>
-      <c r="X40" s="2">
-        <f t="shared" si="4"/>
+      <c r="AA40" s="2">
         <v>447700</v>
       </c>
-      <c r="Y40" s="2">
-        <f t="shared" si="4"/>
+      <c r="AB40" s="2">
         <v>381020</v>
       </c>
     </row>
-    <row r="41" spans="2:25">
-      <c r="D41" s="14"/>
-      <c r="E41" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="2">
-        <v>2191748</v>
-      </c>
-      <c r="H41" s="2">
-        <v>763745</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1962486</v>
-      </c>
-      <c r="L41" s="2">
-        <v>683087</v>
-      </c>
-      <c r="M41" s="15"/>
-      <c r="O41" s="2">
-        <v>1735000</v>
-      </c>
-      <c r="P41" s="2">
-        <v>628000</v>
-      </c>
-      <c r="R41" s="2">
-        <v>1194591</v>
-      </c>
-      <c r="S41" s="2">
-        <v>498618</v>
-      </c>
-      <c r="T41" s="2">
-        <v>1114249</v>
-      </c>
-      <c r="U41" s="2">
-        <v>493000</v>
-      </c>
-      <c r="V41" s="2">
-        <v>1006000</v>
-      </c>
-      <c r="W41" s="2">
-        <v>231020</v>
-      </c>
-      <c r="X41" s="2">
-        <v>447700</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>381020</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25">
-      <c r="E42" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="18">
+    <row r="41" spans="2:28">
+      <c r="E41" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="18">
         <v>1.35</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="L42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="P42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S42" s="15"/>
-      <c r="T42" s="2"/>
-      <c r="U42"/>
-    </row>
-    <row r="43" spans="2:25" s="32" customFormat="1">
-      <c r="D43" s="33"/>
-      <c r="E43" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="110">
-        <f>G44/$F$42</f>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="L41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="P41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S41" s="15"/>
+      <c r="U41" s="2"/>
+      <c r="V41"/>
+    </row>
+    <row r="42" spans="2:28" s="32" customFormat="1">
+      <c r="D42" s="33"/>
+      <c r="E42" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="116">
+        <f>G43/$F$41</f>
         <v>2387262.0370370368</v>
       </c>
-      <c r="H43" s="110"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="110">
-        <f>K44/1.3439</f>
+      <c r="H42" s="116"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="116">
+        <f>K43/1.3439</f>
         <v>2143378.9716496761</v>
       </c>
-      <c r="L43" s="110"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="110">
-        <f>O44/1.3465</f>
+      <c r="L42" s="116"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="116">
+        <f>O43/1.3465</f>
         <v>1916525.8076494616</v>
       </c>
-      <c r="P43" s="110"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="36"/>
-    </row>
-    <row r="44" spans="2:25">
+      <c r="P42" s="116"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="36"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="36"/>
+      <c r="W42" s="36"/>
+      <c r="Z42" s="36"/>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="105">
+        <f>H39*$F$41+G39</f>
+        <v>3222803.75</v>
+      </c>
+      <c r="H43" s="105"/>
+      <c r="K43" s="105">
+        <f>ROUND(L39*1.3439+K39,0)</f>
+        <v>2880487</v>
+      </c>
+      <c r="L43" s="105"/>
+      <c r="M43" s="19"/>
+      <c r="O43" s="105">
+        <f>ROUND(P39*1.3465+O39,0)</f>
+        <v>2580602</v>
+      </c>
+      <c r="P43" s="105"/>
+      <c r="R43" s="105">
+        <f>ROUND(S39*1.37+R39,0)</f>
+        <v>1877698</v>
+      </c>
+      <c r="S43" s="105"/>
+      <c r="U43" s="105">
+        <f>V39*1.37+U39</f>
+        <v>1789659</v>
+      </c>
+      <c r="V43" s="105"/>
+      <c r="X43" s="105">
+        <f>Y39*1.36+X39</f>
+        <v>1320187.2</v>
+      </c>
+      <c r="Y43" s="105"/>
+      <c r="AA43" s="105">
+        <f>AB39*1.4+AA39</f>
+        <v>981128</v>
+      </c>
+      <c r="AB43" s="105"/>
+    </row>
+    <row r="44" spans="2:28">
       <c r="D44" s="14"/>
-      <c r="E44" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="105">
-        <f>H40*$F$42+G40</f>
-        <v>3222803.75</v>
-      </c>
+      <c r="E44" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="105"/>
       <c r="H44" s="105"/>
       <c r="K44" s="105">
-        <f>ROUND(L40*1.3439+K40,0)</f>
         <v>2880487</v>
       </c>
       <c r="L44" s="105"/>
-      <c r="M44" s="19"/>
+      <c r="M44" s="52"/>
       <c r="O44" s="105">
-        <f>ROUND(P40*1.3465+O40,0)</f>
         <v>2580602</v>
       </c>
       <c r="P44" s="105"/>
       <c r="R44" s="105">
-        <f>ROUND(S40*1.37+R40,0)</f>
         <v>1877698</v>
       </c>
       <c r="S44" s="105"/>
-      <c r="T44" s="105">
-        <f>U40*1.37+T40</f>
+      <c r="U44" s="105">
         <v>1789659</v>
       </c>
-      <c r="U44" s="105"/>
-      <c r="V44" s="105">
-        <f>W40*1.36+V40</f>
-        <v>1320187.2</v>
-      </c>
-      <c r="W44" s="105"/>
+      <c r="V44" s="105"/>
       <c r="X44" s="105">
-        <f>Y40*1.4+X40</f>
+        <v>1320187</v>
+      </c>
+      <c r="Y44" s="105"/>
+      <c r="AA44" s="105">
         <v>981128</v>
       </c>
-      <c r="Y44" s="105"/>
-    </row>
-    <row r="45" spans="2:25">
+      <c r="AB44" s="105"/>
+    </row>
+    <row r="45" spans="2:28">
       <c r="D45" s="14"/>
-      <c r="E45" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="K45" s="105">
-        <v>2880487</v>
-      </c>
-      <c r="L45" s="105"/>
-      <c r="M45" s="53"/>
-      <c r="O45" s="105">
-        <v>2580602</v>
-      </c>
-      <c r="P45" s="105"/>
-      <c r="R45" s="105">
-        <v>1877698</v>
-      </c>
-      <c r="S45" s="105"/>
-      <c r="T45" s="105">
-        <v>1789659</v>
-      </c>
-      <c r="U45" s="105"/>
-      <c r="V45" s="105">
-        <v>1320187</v>
-      </c>
-      <c r="W45" s="105"/>
-      <c r="X45" s="105">
-        <v>981128</v>
-      </c>
-      <c r="Y45" s="105"/>
-    </row>
-    <row r="46" spans="2:25">
-      <c r="D46" s="14"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="19"/>
+      <c r="E45" s="54"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="104"/>
+      <c r="U45" s="104"/>
+      <c r="V45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+    </row>
+    <row r="46" spans="2:28">
+      <c r="B46" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
       <c r="M46" s="19"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="19"/>
-      <c r="R46" s="19"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="2">
+        <f>G43-K43</f>
+        <v>342316.75</v>
+      </c>
+      <c r="R46" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
       <c r="U46" s="19"/>
       <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-    </row>
-    <row r="47" spans="2:25">
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="K47" s="2">
-        <f>G44-K44</f>
-        <v>342316.75</v>
-      </c>
-      <c r="L47" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="M47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-    </row>
-    <row r="48" spans="2:25">
-      <c r="B48" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="U48" s="1"/>
-    </row>
-    <row r="49" spans="2:21" ht="23.25">
-      <c r="B49" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-    </row>
-    <row r="50" spans="2:21">
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="52"/>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="B47" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="Z47" s="21"/>
+    </row>
+    <row r="48" spans="2:28">
+      <c r="B48" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="Z48" s="21"/>
+    </row>
+    <row r="49" spans="2:28">
+      <c r="B49" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="Z49" s="21"/>
+    </row>
+    <row r="50" spans="2:28">
       <c r="B50" s="45" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
@@ -3323,86 +3460,130 @@
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-    </row>
-    <row r="51" spans="2:21" ht="12.75" customHeight="1">
-      <c r="B51" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-    </row>
-    <row r="52" spans="2:21">
-      <c r="B52" s="22"/>
-    </row>
-    <row r="53" spans="2:21">
-      <c r="B53" s="22"/>
-    </row>
-    <row r="54" spans="2:21">
-      <c r="B54" s="22"/>
-    </row>
-    <row r="55" spans="2:21">
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="Z50" s="20"/>
+    </row>
+    <row r="51" spans="2:28">
+      <c r="B51" s="120" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="M51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+    </row>
+    <row r="52" spans="2:28">
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="N52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="2:28">
+      <c r="B53" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="Z53" s="1"/>
+    </row>
+    <row r="54" spans="2:28" ht="12.75" customHeight="1">
+      <c r="B54" s="45"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="Z54" s="20"/>
+    </row>
+    <row r="55" spans="2:28">
       <c r="B55" s="22"/>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:28">
       <c r="B56" s="22"/>
+    </row>
+    <row r="57" spans="2:28">
+      <c r="B57" s="22"/>
+    </row>
+    <row r="58" spans="2:28">
+      <c r="B58" s="22"/>
+    </row>
+    <row r="59" spans="2:28">
+      <c r="B59" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="C30:C33"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="D13:D25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3412,80 +3593,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DE4FE5-E2F8-4F66-86D7-49D84AB3CCE5}">
-  <dimension ref="C2:C15"/>
+  <dimension ref="C2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:5">
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
+        <v>44</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" ht="14.25">
       <c r="C3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:3">
+      <c r="E3" s="103">
+        <v>21000.45</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:3">
+      <c r="E4" s="55">
+        <v>39200.44</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
+      <c r="E5">
+        <v>27500.44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
+      <c r="E6" s="55">
+        <v>30464</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
       <c r="C7">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="8" spans="3:3">
+      <c r="E7" s="55">
+        <v>35800.44</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
       <c r="C8">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="9" spans="3:3">
+      <c r="E8" s="55">
+        <v>26041.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
       <c r="C9">
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:5">
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:5">
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:5">
       <c r="C12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:5">
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:5">
       <c r="C14">
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="3:5">
       <c r="C15">
         <v>4.2</v>
+      </c>
+      <c r="E15" s="55">
+        <f>SUM(E3:E8)</f>
+        <v>180007.27000000002</v>
       </c>
     </row>
   </sheetData>

--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -1,44 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC678022-8A80-4FD2-B7BB-73B50CCB44B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="24480" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22223" windowHeight="10908"/>
   </bookViews>
   <sheets>
     <sheet name="NAV24" sheetId="2" r:id="rId1"/>
     <sheet name="scratchpad" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Tan, Victor</author>
     <author>Bin TAN</author>
   </authors>
   <commentList>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="U2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E32" authorId="1">
       <text>
         <r>
           <rPr>
@@ -62,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>val</t>
   </si>
@@ -174,10 +157,10 @@
     <t>bank: citi.SG sav</t>
   </si>
   <si>
-    <t>TJJ's AUM#USD&gt;</t>
-  </si>
-  <si>
-    <t>46k givens2kids</t>
+    <t>TJJ's AUM&gt;</t>
+  </si>
+  <si>
+    <t>46k givenTo2kids</t>
   </si>
   <si>
     <t>bank: BOC</t>
@@ -186,7 +169,7 @@
     <t>&lt;GUI</t>
   </si>
   <si>
-    <t>USD mufu]OC&gt;</t>
+    <t>mufu]OC&gt;</t>
   </si>
   <si>
     <t>保守</t>
@@ -214,6 +197,9 @@
     <t>rEstt:PEK</t>
   </si>
   <si>
+    <t>assume expatriated</t>
+  </si>
+  <si>
     <t>不稳</t>
   </si>
   <si>
@@ -310,9 +296,6 @@
     <t>BOC CNY 69k</t>
   </si>
   <si>
-    <t>TJJ's AUM&gt;</t>
-  </si>
-  <si>
     <t>24k剩余given&gt;&gt;kids</t>
   </si>
   <si>
@@ -377,27 +360,23 @@
   </si>
   <si>
     <t>TD]khm</t>
-  </si>
-  <si>
-    <t>assume expatriated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="[$USD]\ #,##0"/>
-    <numFmt numFmtId="168" formatCode="[$SGD]\ #,##0"/>
-    <numFmt numFmtId="169" formatCode="[$SGD]\ #,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="180" formatCode="[$SGD]\ #,##0"/>
+    <numFmt numFmtId="181" formatCode="[$SGD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="15">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -436,19 +415,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0" tint="-0.349986266670736"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -465,7 +432,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.14990691854609822"/>
+      <color theme="0" tint="-0.149906918546098"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -475,12 +442,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,8 +611,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -653,33 +957,301 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -692,33 +1264,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -733,22 +1305,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -758,19 +1327,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -784,7 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -793,99 +1361,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1143,50 +1715,50 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" customWidth="1"/>
+    <col min="1" max="1" width="0.851851851851852" customWidth="1"/>
+    <col min="2" max="2" width="2.71296296296296" customWidth="1"/>
+    <col min="3" max="3" width="5.22222222222222" customWidth="1"/>
+    <col min="4" max="4" width="6.57407407407407" customWidth="1"/>
+    <col min="5" max="5" width="16.8518518518519" customWidth="1"/>
+    <col min="6" max="6" width="5.13888888888889" customWidth="1"/>
+    <col min="7" max="7" width="9.13888888888889" customWidth="1"/>
+    <col min="8" max="8" width="7.42592592592593" customWidth="1"/>
+    <col min="9" max="9" width="0.425925925925926" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="0.42578125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="0.42578125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="0.42578125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="0.42578125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" customWidth="1"/>
-    <col min="26" max="26" width="0.42578125" style="6" customWidth="1"/>
-    <col min="27" max="28" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.13888888888889" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.13888888888889" style="6" customWidth="1"/>
+    <col min="13" max="13" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="14" max="14" width="4.13888888888889" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.13888888888889" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.13888888888889" style="6" customWidth="1"/>
+    <col min="17" max="17" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.13888888888889" style="5" customWidth="1"/>
+    <col min="19" max="19" width="7.57407407407407" style="6" customWidth="1"/>
+    <col min="20" max="20" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.13888888888889" style="5" customWidth="1"/>
+    <col min="22" max="22" width="7.57407407407407" style="6" customWidth="1"/>
+    <col min="23" max="23" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="24" max="24" width="9.13888888888889" customWidth="1"/>
+    <col min="25" max="25" width="7.57407407407407" customWidth="1"/>
+    <col min="26" max="26" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="27" max="28" width="7.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="6" customHeight="1"/>
+    <row r="1" ht="6" customHeight="1"/>
     <row r="2" spans="2:28">
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1197,42 +1769,42 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="105"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="106" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="105"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="106" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="106" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="105"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="107" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="108"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="106">
+      <c r="V2" s="96"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="10">
         <v>42401</v>
       </c>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="106" t="s">
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="105"/>
+      <c r="AB2" s="11"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
@@ -1248,1788 +1820,1788 @@
       <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="str">
+      <c r="G3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="11" t="str">
+      <c r="K3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="11" t="str">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="11" t="str">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11" t="str">
+      <c r="T3" s="13"/>
+      <c r="U3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="89" t="s">
+      <c r="W3" s="13"/>
+      <c r="X3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="89" t="s">
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:28">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14">
+      <c r="G4" s="14"/>
+      <c r="H4" s="15">
         <v>2500</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="14">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="15">
         <v>2500</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="14">
+      <c r="M4" s="21"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="15">
         <v>2500</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="14">
+      <c r="Q4" s="15"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="15">
         <v>2500</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="14">
+      <c r="T4" s="15"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="15">
         <v>2500</v>
       </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14">
+      <c r="G5" s="14"/>
+      <c r="H5" s="15">
         <v>8100</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="14">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="15">
         <v>9800</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="14">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="15">
         <v>13400</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="14">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="15">
         <v>1300</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="14">
+      <c r="T5" s="15"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="15">
         <v>900</v>
       </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14">
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
         <v>51800</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="14">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="15">
         <f>1000*(4+2+5+3+7+10+3+5+2+3+1)</f>
         <v>45000</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="14">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="15">
         <v>32000</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="14">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="15">
         <v>0</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="14">
+      <c r="T6" s="15"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="15">
         <v>0</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
     </row>
     <row r="7" spans="2:28">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
         <v>255</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="14">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="15">
         <v>238</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="14">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="15">
         <v>564</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="14">
+      <c r="T7" s="15"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="15">
         <v>6100</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
     </row>
     <row r="8" spans="2:28">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>4400</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="14">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="15">
         <v>1500</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="14">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="15">
         <v>1500</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="14">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="15">
         <v>1642</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="14">
+      <c r="T8" s="15"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="15">
         <v>1300</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
     </row>
     <row r="9" spans="2:28">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
         <v>1655</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="14">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="15">
         <v>1500</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="51">
+      <c r="M9" s="15"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="58">
         <v>1500</v>
       </c>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="51">
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="58">
         <v>2031</v>
       </c>
-      <c r="T9" s="51"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="14">
+      <c r="T9" s="58"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="15">
         <v>107000</v>
       </c>
-      <c r="W9" s="51"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="14">
+      <c r="W9" s="58"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="15">
         <v>120000</v>
       </c>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="14">
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15">
         <v>270000</v>
       </c>
     </row>
     <row r="10" spans="2:28">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
         <f>3700*3</f>
         <v>11100</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="14">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="15">
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="53" t="s">
+      <c r="M10" s="37"/>
+      <c r="N10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55">
+      <c r="O10" s="60"/>
+      <c r="P10" s="61">
         <f>14300+2000</f>
         <v>16300</v>
       </c>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="75">
+      <c r="Q10" s="61"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="81">
         <v>57781</v>
       </c>
-      <c r="T10" s="55"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="63"/>
-    </row>
-    <row r="11" spans="2:28" ht="11.25" customHeight="1">
-      <c r="B11" s="13" t="s">
+      <c r="T10" s="61"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+    </row>
+    <row r="11" ht="11.25" customHeight="1" spans="2:28">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <v>335</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="14">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="15">
         <v>45</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="56" t="s">
+      <c r="M11" s="37"/>
+      <c r="N11" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="57"/>
-      <c r="P11" s="58" t="s">
+      <c r="O11" s="63"/>
+      <c r="P11" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58">
+      <c r="Q11" s="64"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64">
         <v>-46000</v>
       </c>
-      <c r="T11" s="58"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="75">
+      <c r="T11" s="64"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="81">
         <v>-36000</v>
       </c>
-      <c r="W11" s="58"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="63"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="63"/>
-    </row>
-    <row r="12" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B12" s="13" t="s">
+      <c r="W11" s="64"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
         <v>180000</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="14">
+      <c r="J12" s="14"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="15">
         <v>34004</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="56" t="s">
+      <c r="M12" s="37"/>
+      <c r="N12" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="57"/>
-      <c r="P12" s="59">
+      <c r="O12" s="63"/>
+      <c r="P12" s="65">
         <v>5000</v>
       </c>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="59">
+      <c r="Q12" s="64"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="65">
         <v>5000</v>
       </c>
-      <c r="T12" s="58"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="59">
+      <c r="T12" s="64"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="65">
         <v>5000</v>
       </c>
-      <c r="W12" s="58"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="63"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
     </row>
     <row r="13" spans="2:28">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16">
+      <c r="G13" s="14"/>
+      <c r="H13" s="21">
         <f t="shared" ref="H13" si="0">L13</f>
         <v>20000</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="18">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="21">
         <f>P13</f>
         <v>20000</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="60">
+      <c r="M13" s="21"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="66">
         <f>S13</f>
         <v>20000</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="16">
+      <c r="Q13" s="15"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="21">
         <f>Y13</f>
         <v>20000</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="16">
+      <c r="T13" s="15"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="21">
         <f>Y13</f>
         <v>20000</v>
       </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="16">
+      <c r="W13" s="15"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="21">
         <f>AB13</f>
         <v>20000</v>
       </c>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="14">
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="15">
         <v>20000</v>
       </c>
     </row>
     <row r="14" spans="2:28">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="117"/>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
         <f>600*6</f>
         <v>3600</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="18">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="21">
         <f>P14</f>
         <v>1800</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="14">
+      <c r="M14" s="21"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="15">
         <f>300*6</f>
         <v>1800</v>
       </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="14">
+      <c r="Q14" s="15"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="15">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="14">
+      <c r="T14" s="15"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="15">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="W14" s="14"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="16">
+      <c r="W14" s="15"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="21">
         <f>AB14</f>
         <v>1020</v>
       </c>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="14">
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="15">
         <v>1020</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="12.75" customHeight="1">
-      <c r="B15" s="13" t="s">
+    <row r="15" ht="12.75" customHeight="1" spans="2:28">
+      <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14">
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
         <v>5000</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="14">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="15">
         <v>5000</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="14">
+      <c r="M15" s="21"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="15">
         <v>5000</v>
       </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="14">
+      <c r="Q15" s="15"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="15">
         <v>5000</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="14">
+      <c r="T15" s="15"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="15">
         <v>5000</v>
       </c>
-      <c r="W15" s="14"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-    </row>
-    <row r="16" spans="2:28" ht="13.15" customHeight="1">
-      <c r="B16" s="13" t="s">
+      <c r="W15" s="15"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+    </row>
+    <row r="16" ht="13.15" customHeight="1" spans="2:28">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="14">
+      <c r="G16" s="14"/>
+      <c r="H16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="15">
         <v>90000</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="14">
+      <c r="M16" s="21"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="15">
         <v>90000</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="14">
+      <c r="Q16" s="15"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="15">
         <v>90000</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="14">
+      <c r="T16" s="15"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="15">
         <v>90000</v>
       </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="14">
+      <c r="W16" s="15"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="15">
         <v>90000</v>
       </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="14">
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="15">
         <v>90000</v>
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="18">
+      <c r="G17" s="14"/>
+      <c r="H17" s="21">
         <f t="shared" ref="H17" si="1">L17</f>
         <v>439000</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="18">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="21">
         <f>P17</f>
         <v>439000</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="14">
+      <c r="M17" s="21"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="15">
         <f>V17+169000</f>
         <v>439000</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="14">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="15">
         <f>V17+169000*40%</f>
         <v>337600</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="14">
+      <c r="T17" s="15"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="15">
         <v>270000</v>
       </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="112"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="15">
         <v>200000</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15">
         <v>200000</v>
       </c>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14">
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15">
         <v>200000</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14">
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15">
         <v>200000</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14">
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15">
         <v>200000</v>
       </c>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14">
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15">
         <v>105000</v>
       </c>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="13"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="14"/>
     </row>
     <row r="19" spans="2:28">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="14">
+      <c r="F19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="15">
         <v>750000</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15">
         <v>750000</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14">
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15">
         <f>750000-415000</f>
         <v>335000</v>
       </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15">
         <v>600000</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14">
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15">
         <v>600000</v>
       </c>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14">
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15">
         <f>600000-154000</f>
         <v>446000</v>
       </c>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14">
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15">
         <v>420000</v>
       </c>
-      <c r="AB19" s="13"/>
+      <c r="AB19" s="14"/>
     </row>
     <row r="20" spans="2:28">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="14">
+      <c r="F20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="15">
         <f>2700+75000+15800</f>
         <v>93500</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15">
         <f>0+27000+15000</f>
         <v>42000</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14">
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15">
         <f>1000+18000+15000</f>
         <v>34000</v>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15">
         <f>37303+14272+15932</f>
         <v>67507</v>
       </c>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14">
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15">
         <f>(35+13+14)*1000</f>
         <v>62000</v>
       </c>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14">
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15">
         <v>5000</v>
       </c>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="13"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="14"/>
     </row>
     <row r="21" spans="2:28">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="15">
         <f>44000+240000+71000</f>
         <v>355000</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15">
         <f>24600+221400+71000</f>
         <v>317000</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14">
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15">
         <f>141000+205000+68000</f>
         <v>414000</v>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15">
         <f>24201+57247+54415</f>
         <v>135863</v>
       </c>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14">
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15">
         <f>17000+51797+50452</f>
         <v>119249</v>
       </c>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14">
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15">
         <f>142000+37403+40410</f>
         <v>219813</v>
       </c>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14">
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15">
         <f>17700+15000+15000</f>
         <v>47700</v>
       </c>
-      <c r="AB21" s="13" t="s">
+      <c r="AB21" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28">
+      <c r="B22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="2:28">
-      <c r="B22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="14">
+      <c r="G22" s="15">
         <v>14000</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="16">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="21">
         <f>O22</f>
         <v>5000</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="62">
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="68">
         <f>R22</f>
         <v>5000</v>
       </c>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="62">
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="68">
         <f>U22</f>
         <v>5000</v>
       </c>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51">
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58">
         <v>5000</v>
       </c>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="13"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="14"/>
     </row>
     <row r="23" spans="2:28">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="15">
         <f>(300000-228000)+(50065*2)+(250774-190000)</f>
         <v>232904</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70">
         <v>50065</v>
       </c>
-      <c r="L23" s="64"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="55" t="s">
+      <c r="L23" s="70"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55">
+      <c r="O23" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61">
         <v>20000</v>
       </c>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55">
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61">
         <v>20000</v>
       </c>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="75">
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="81">
         <v>30000</v>
       </c>
-      <c r="Y23" s="75"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="64"/>
-      <c r="AB23" s="63"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="69"/>
     </row>
     <row r="24" spans="2:28">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="14">
+      <c r="D24" s="27"/>
+      <c r="E24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="15">
         <f>15000*5</f>
         <v>75000</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67">
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73">
         <f>15000*3</f>
         <v>45000</v>
       </c>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="67"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="63"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="69"/>
     </row>
     <row r="25" spans="2:28">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="21">
         <f>K25</f>
         <v>1234</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="65">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="71">
         <v>1234</v>
       </c>
-      <c r="L25" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" s="55"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="55">
+      <c r="L25" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="61"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="61">
         <v>1000</v>
       </c>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55">
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61">
         <v>92574</v>
       </c>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55">
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61">
         <v>102000</v>
       </c>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55">
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61">
         <v>55000</v>
       </c>
-      <c r="Y25" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="75">
+      <c r="Y25" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="81">
         <v>5000</v>
       </c>
-      <c r="AB25" s="91"/>
+      <c r="AB25" s="109"/>
     </row>
     <row r="26" spans="2:28">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="15">
         <v>22000</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="64">
-        <v>36140</v>
-      </c>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70">
+        <v>36000</v>
+      </c>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75">
         <v>40000</v>
       </c>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69">
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75">
         <v>27907</v>
       </c>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69">
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75">
         <v>6000</v>
       </c>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69">
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75">
         <v>155000</v>
       </c>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="63"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="69"/>
     </row>
     <row r="27" spans="2:28">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="15">
         <v>2000</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70">
         <v>1000</v>
       </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64">
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70">
         <v>2000</v>
       </c>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64">
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70">
         <v>28176</v>
       </c>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64">
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70">
         <v>20000</v>
       </c>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
-      <c r="X27" s="64"/>
-      <c r="Y27" s="64"/>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AB27" s="63"/>
-    </row>
-    <row r="28" spans="2:28" ht="3" customHeight="1">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="63"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="69"/>
+    </row>
+    <row r="28" ht="3" customHeight="1" spans="2:28">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="69"/>
     </row>
     <row r="29" spans="2:28">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="26">
+      <c r="F29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="34">
         <v>2300</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" s="73">
-        <v>-200970</v>
-      </c>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="74">
+      <c r="H29" s="29"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="79">
+        <v>-201000</v>
+      </c>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="80">
         <f>-140000</f>
         <v>-140000</v>
       </c>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="63"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="69"/>
     </row>
     <row r="30" spans="2:28">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="26">
+      <c r="F30" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="34">
         <f>745+1065+4000</f>
         <v>5810</v>
       </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" s="73">
+      <c r="H30" s="36"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="79">
         <v>285000</v>
       </c>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="74">
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="80">
         <f>176000</f>
         <v>176000</v>
       </c>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="63"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="69"/>
     </row>
     <row r="31" spans="2:28">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="29">
+      <c r="E31" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="37">
         <f>6000+100000</f>
         <v>106000</v>
       </c>
-      <c r="H31" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="55">
-        <v>10017</v>
-      </c>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55">
+      <c r="H31" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="61">
+        <v>10000</v>
+      </c>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61">
         <v>9000</v>
       </c>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="75">
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="81">
         <v>20000</v>
       </c>
-      <c r="S31" s="75"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="64"/>
-      <c r="V31" s="64"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="55"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="63"/>
-    </row>
-    <row r="32" spans="2:28" ht="12.75" customHeight="1">
-      <c r="B32" s="13" t="s">
+      <c r="S31" s="81"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="69"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1" spans="2:28">
+      <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="115"/>
-      <c r="D32" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="32" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="E32" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="30">
         <v>304000</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="69">
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="75">
         <v>385000</v>
       </c>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69">
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75">
         <v>598000</v>
       </c>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69">
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75">
         <f>27564</f>
         <v>27564</v>
       </c>
-      <c r="S32" s="64"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="64">
+      <c r="S32" s="70"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="70">
         <v>20000</v>
       </c>
-      <c r="V32" s="64"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="64">
+      <c r="V32" s="70"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="70">
         <v>20000</v>
       </c>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="64">
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="70">
         <v>5000</v>
       </c>
-      <c r="AB32" s="63"/>
+      <c r="AB32" s="69"/>
     </row>
     <row r="33" spans="2:28">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="20" t="s">
+      <c r="D33" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="E33" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="30">
         <v>-7000</v>
       </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="64">
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="70">
         <v>-600</v>
       </c>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="63"/>
-    </row>
-    <row r="34" spans="2:28" ht="3" customHeight="1">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="66"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="64"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="63"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="69"/>
+    </row>
+    <row r="34" ht="3" customHeight="1" spans="2:28">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="69"/>
     </row>
     <row r="35" spans="2:28">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="14">
+      <c r="E35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="15">
         <v>13000</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="65">
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="71">
         <v>1600</v>
       </c>
-      <c r="L35" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="M35" s="55"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="82" t="s">
+      <c r="L35" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="61"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73">
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79">
         <v>-30000</v>
       </c>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73">
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79">
         <v>-40000</v>
       </c>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="75">
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="81">
         <v>-30000</v>
       </c>
-      <c r="Y35" s="75"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="64"/>
-      <c r="AB35" s="63"/>
+      <c r="Y35" s="81"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="69"/>
     </row>
     <row r="36" spans="2:28">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="15">
         <v>22000</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="64">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="70">
         <v>20000</v>
       </c>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="84">
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="90">
         <v>16000</v>
       </c>
-      <c r="P36" s="85" t="s">
+      <c r="P36" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="75">
+      <c r="Q36" s="101"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="81">
         <v>20000</v>
       </c>
-      <c r="T36" s="95"/>
-      <c r="U36" s="54"/>
-      <c r="V36" s="75">
+      <c r="T36" s="101"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="81">
         <v>20000</v>
       </c>
-      <c r="W36" s="95"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="95"/>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="63"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="69"/>
+      <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="2:28">
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="11" t="str">
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="12" t="str">
         <f>G3</f>
         <v>in S$</v>
       </c>
-      <c r="H37" s="11" t="str">
+      <c r="H37" s="12" t="str">
         <f>H3</f>
         <v>in USD</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="12">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11" t="str">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12" t="str">
         <f>K3</f>
         <v>in S$</v>
       </c>
-      <c r="L37" s="11" t="str">
+      <c r="L37" s="12" t="str">
         <f>L3</f>
         <v>in USD</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="12">
         <f>M3</f>
         <v>0</v>
       </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11" t="str">
+      <c r="N37" s="12"/>
+      <c r="O37" s="12" t="str">
         <f t="shared" ref="O37:AB37" si="2">O3</f>
         <v>in S$</v>
       </c>
-      <c r="P37" s="86" t="str">
+      <c r="P37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Q37" s="86">
+      <c r="Q37" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R37" s="86" t="str">
+      <c r="R37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="S37" s="86" t="str">
+      <c r="S37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="T37" s="86">
+      <c r="T37" s="92">
         <f t="shared" ref="T37" si="3">T3</f>
         <v>0</v>
       </c>
-      <c r="U37" s="86" t="str">
+      <c r="U37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="V37" s="86" t="str">
+      <c r="V37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="W37" s="86">
+      <c r="W37" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X37" s="11" t="str">
+      <c r="X37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="Y37" s="11" t="str">
+      <c r="Y37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Z37" s="86">
+      <c r="Z37" s="92">
         <f t="shared" ref="Z37" si="4">Z3</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="11" t="str">
+      <c r="AA37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="AB37" s="11" t="str">
+      <c r="AB37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
     </row>
-    <row r="38" spans="2:28">
-      <c r="C38" s="37">
+    <row r="38" spans="3:28">
+      <c r="C38" s="45">
         <f>(G38-G39)+(H38-H39)+(K38-K39)+(L38-L39)+(K42-K43)+(O38-O39)+(P38-P39)+(O42-O43)+(R38-R39)+(S38-S39)+(R42-R43)+(U38-U39)+(V38-V39)+(U42-U43)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38" t="s">
+      <c r="D38" s="46"/>
+      <c r="E38" s="46" t="s">
         <v>80</v>
       </c>
       <c r="G38" s="6">
@@ -3040,16 +3612,16 @@
         <f>SUM(H4:H36)</f>
         <v>727745</v>
       </c>
-      <c r="I38" s="87"/>
+      <c r="I38" s="93"/>
       <c r="K38" s="6">
         <f>SUM(K4:K36)</f>
-        <v>1962486</v>
+        <v>1962299</v>
       </c>
       <c r="L38" s="6">
         <f>SUM(L4:L36)</f>
         <v>683087</v>
       </c>
-      <c r="M38" s="88"/>
+      <c r="M38" s="94"/>
       <c r="O38" s="6">
         <f>SUM(O4:O36)</f>
         <v>1735000</v>
@@ -3091,9 +3663,9 @@
         <v>381020</v>
       </c>
     </row>
-    <row r="39" spans="2:28">
-      <c r="D39" s="38"/>
-      <c r="E39" s="39" t="s">
+    <row r="39" spans="4:28">
+      <c r="D39" s="46"/>
+      <c r="E39" s="47" t="s">
         <v>81</v>
       </c>
       <c r="G39" s="6">
@@ -3103,12 +3675,12 @@
         <v>727745</v>
       </c>
       <c r="K39" s="6">
-        <v>1962486</v>
+        <v>1962299</v>
       </c>
       <c r="L39" s="6">
         <v>683087</v>
       </c>
-      <c r="M39" s="88"/>
+      <c r="M39" s="94"/>
       <c r="O39" s="6">
         <v>1735000</v>
       </c>
@@ -3140,16 +3712,16 @@
         <v>381020</v>
       </c>
     </row>
-    <row r="40" spans="2:28">
-      <c r="E40" s="40" t="s">
+    <row r="40" spans="5:22">
+      <c r="E40" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="45">
         <v>1.36</v>
       </c>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
       <c r="L40" s="5" t="s">
         <v>83</v>
       </c>
@@ -3157,283 +3729,280 @@
       <c r="P40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S40" s="88"/>
+      <c r="S40" s="94"/>
       <c r="U40" s="6"/>
       <c r="V40"/>
     </row>
-    <row r="41" spans="2:28" s="4" customFormat="1">
-      <c r="D41" s="41"/>
-      <c r="E41" s="42" t="s">
+    <row r="41" s="4" customFormat="1" spans="4:26">
+      <c r="D41" s="49"/>
+      <c r="E41" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="109">
+      <c r="G41" s="51">
         <f>G42/$F$40</f>
-        <v>2339324.411764706</v>
-      </c>
-      <c r="H41" s="109"/>
+        <v>2339324.41176471</v>
+      </c>
+      <c r="H41" s="51"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="109">
+      <c r="K41" s="51">
         <f>K42/1.3439</f>
-        <v>2143378.9716496761</v>
-      </c>
-      <c r="L41" s="109"/>
-      <c r="M41" s="43"/>
+        <v>2143239.8243917</v>
+      </c>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="109">
-        <f>O42/1.3465</f>
-        <v>1916525.8076494616</v>
-      </c>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="98"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="98"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
-      <c r="V41" s="98"/>
-      <c r="W41" s="98"/>
-      <c r="Z41" s="98"/>
-    </row>
-    <row r="42" spans="2:28">
-      <c r="D42" s="38"/>
-      <c r="E42" s="38" t="s">
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="105"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="Z41" s="104"/>
+    </row>
+    <row r="42" spans="4:28">
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="110">
+      <c r="G42" s="52">
         <f>H38*$F$40+G38</f>
         <v>3181481.2</v>
       </c>
-      <c r="H42" s="110"/>
-      <c r="K42" s="110">
+      <c r="H42" s="52"/>
+      <c r="K42" s="52">
         <f>ROUND(L38*1.3439+K38,0)</f>
-        <v>2880487</v>
-      </c>
-      <c r="L42" s="110"/>
-      <c r="M42" s="44"/>
-      <c r="O42" s="110">
+        <v>2880300</v>
+      </c>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="O42" s="52">
         <f>ROUND(P38*1.3465+O38,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P42" s="110"/>
-      <c r="R42" s="110">
+      <c r="P42" s="52"/>
+      <c r="R42" s="52">
         <f>ROUND(S38*1.37+R38,0)</f>
         <v>1877698</v>
       </c>
-      <c r="S42" s="110"/>
-      <c r="U42" s="110">
+      <c r="S42" s="52"/>
+      <c r="U42" s="52">
         <f>V38*1.37+U38</f>
         <v>1789659</v>
       </c>
-      <c r="V42" s="110"/>
-      <c r="X42" s="110">
+      <c r="V42" s="52"/>
+      <c r="X42" s="52">
         <f>Y38*1.36+X38</f>
         <v>1320000.2</v>
       </c>
-      <c r="Y42" s="110"/>
-      <c r="AA42" s="110">
+      <c r="Y42" s="52"/>
+      <c r="AA42" s="52">
         <f>AB38*1.4+AA38</f>
         <v>1011128</v>
       </c>
-      <c r="AB42" s="110"/>
-    </row>
-    <row r="43" spans="2:28">
-      <c r="D43" s="38"/>
-      <c r="E43" s="45" t="s">
+      <c r="AB42" s="52"/>
+    </row>
+    <row r="43" spans="4:28">
+      <c r="D43" s="46"/>
+      <c r="E43" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="K43" s="110">
-        <v>2880487</v>
-      </c>
-      <c r="L43" s="110"/>
-      <c r="M43" s="44"/>
-      <c r="O43" s="110">
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="K43" s="52">
+        <v>2880300</v>
+      </c>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="O43" s="52">
         <v>2580602</v>
       </c>
-      <c r="P43" s="110"/>
-      <c r="R43" s="110">
+      <c r="P43" s="52"/>
+      <c r="R43" s="52">
         <v>1877698</v>
       </c>
-      <c r="S43" s="110"/>
-      <c r="U43" s="110">
+      <c r="S43" s="52"/>
+      <c r="U43" s="52">
         <v>1789659</v>
       </c>
-      <c r="V43" s="110"/>
-      <c r="X43" s="110">
+      <c r="V43" s="52"/>
+      <c r="X43" s="52">
         <v>1320000</v>
       </c>
-      <c r="Y43" s="110"/>
-      <c r="AA43" s="110">
+      <c r="Y43" s="52"/>
+      <c r="AA43" s="52">
         <v>1011128</v>
       </c>
-      <c r="AB43" s="110"/>
-    </row>
-    <row r="44" spans="2:28">
-      <c r="D44" s="38"/>
-      <c r="E44" s="45"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
+      <c r="AB43" s="52"/>
+    </row>
+    <row r="44" spans="4:28">
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
     </row>
     <row r="45" spans="2:28">
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="M45" s="44"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="M45" s="52"/>
       <c r="O45" s="3"/>
       <c r="P45" s="6">
         <f>G42-K42</f>
-        <v>300994.20000000019</v>
-      </c>
-      <c r="R45" s="100" t="s">
+        <v>301181.2</v>
+      </c>
+      <c r="R45" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="S45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-    </row>
-    <row r="46" spans="2:28">
-      <c r="B46" s="103" t="s">
+      <c r="S45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="48"/>
-      <c r="Z46" s="48"/>
-    </row>
-    <row r="47" spans="2:28">
-      <c r="B47" s="46" t="s">
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="Z46" s="55"/>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="B47" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48"/>
-      <c r="Z47" s="48"/>
-    </row>
-    <row r="48" spans="2:28">
-      <c r="B48" s="46" t="s">
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="Z47" s="55"/>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="48"/>
-      <c r="U48" s="48"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="48"/>
-      <c r="Z48" s="48"/>
-    </row>
-    <row r="49" spans="2:28">
-      <c r="B49" s="46" t="s">
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="Z48" s="55"/>
+    </row>
+    <row r="49" spans="2:26">
+      <c r="B49" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="Z49" s="47"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="Z49" s="54"/>
     </row>
     <row r="50" spans="2:28">
-      <c r="B50" s="103" t="s">
+      <c r="B50" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="M50" s="44"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="AA50" s="44"/>
-      <c r="AB50" s="44"/>
-    </row>
-    <row r="51" spans="2:28">
+      <c r="D50" s="46"/>
+      <c r="M50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+    </row>
+    <row r="51" spans="2:26">
       <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
       <c r="N51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="T51" s="5"/>
@@ -3441,7 +4010,7 @@
       <c r="W51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="2:28">
+    <row r="52" spans="2:26">
       <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
@@ -3452,52 +4021,63 @@
       <c r="W52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="2:28" ht="12.75" customHeight="1">
-      <c r="B53" s="46"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="Z53" s="47"/>
-    </row>
-    <row r="54" spans="2:28">
-      <c r="B54" s="49"/>
-    </row>
-    <row r="55" spans="2:28">
-      <c r="B55" s="49"/>
-    </row>
-    <row r="56" spans="2:28">
-      <c r="B56" s="49"/>
-    </row>
-    <row r="57" spans="2:28">
-      <c r="B57" s="49"/>
-    </row>
-    <row r="58" spans="2:28">
-      <c r="B58" s="49"/>
+    <row r="53" ht="12.75" customHeight="1" spans="2:26">
+      <c r="B53" s="53"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="Z53" s="54"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="56"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="56"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="56"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="56"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:V42"/>
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="AA42:AB42"/>
     <mergeCell ref="G43:H43"/>
@@ -3507,39 +4087,30 @@
     <mergeCell ref="U43:V43"/>
     <mergeCell ref="X43:Y43"/>
     <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D13:D24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
@@ -3548,7 +4119,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="3:5" ht="14.25">
+    <row r="3" spans="3:5">
       <c r="C3">
         <v>4</v>
       </c>
@@ -3560,7 +4131,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:3">
       <c r="C5">
         <v>1</v>
       </c>
@@ -3583,32 +4154,32 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:3">
       <c r="C9">
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:3">
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:3">
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:3">
       <c r="C12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:3">
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:3">
       <c r="C14">
         <v>2.7</v>
       </c>
@@ -3622,5 +4193,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059443C6-5306-4505-95D1-59A3D82B2F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22223" windowHeight="10908"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAV24" sheetId="2" r:id="rId1"/>
     <sheet name="scratchpad" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tan, Victor</author>
     <author>Bin TAN</author>
   </authors>
   <commentList>
-    <comment ref="U2" authorId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="1">
+    <comment ref="E32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0">
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -365,18 +382,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="[$USD]\ #,##0"/>
-    <numFmt numFmtId="180" formatCode="[$SGD]\ #,##0"/>
-    <numFmt numFmtId="181" formatCode="[$SGD]\ #,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="[$SGD]\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="[$SGD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -415,7 +428,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.349986266670736"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -432,7 +445,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.149906918546098"/>
+      <color theme="0" tint="-0.1498764000366222"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -442,163 +455,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,194 +473,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -957,301 +633,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1311,10 +718,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1327,17 +734,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1371,93 +778,85 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1715,50 +1114,50 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB58"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="0.851851851851852" customWidth="1"/>
-    <col min="2" max="2" width="2.71296296296296" customWidth="1"/>
-    <col min="3" max="3" width="5.22222222222222" customWidth="1"/>
-    <col min="4" max="4" width="6.57407407407407" customWidth="1"/>
-    <col min="5" max="5" width="16.8518518518519" customWidth="1"/>
-    <col min="6" max="6" width="5.13888888888889" customWidth="1"/>
-    <col min="7" max="7" width="9.13888888888889" customWidth="1"/>
-    <col min="8" max="8" width="7.42592592592593" customWidth="1"/>
-    <col min="9" max="9" width="0.425925925925926" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="9.13888888888889" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.13888888888889" style="6" customWidth="1"/>
-    <col min="13" max="13" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="14" max="14" width="4.13888888888889" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.13888888888889" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.13888888888889" style="6" customWidth="1"/>
-    <col min="17" max="17" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.13888888888889" style="5" customWidth="1"/>
-    <col min="19" max="19" width="7.57407407407407" style="6" customWidth="1"/>
-    <col min="20" max="20" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.13888888888889" style="5" customWidth="1"/>
-    <col min="22" max="22" width="7.57407407407407" style="6" customWidth="1"/>
-    <col min="23" max="23" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="24" max="24" width="9.13888888888889" customWidth="1"/>
-    <col min="25" max="25" width="7.57407407407407" customWidth="1"/>
-    <col min="26" max="26" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="27" max="28" width="7.57407407407407" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="0.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="0.42578125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="0.42578125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="0.42578125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" customWidth="1"/>
+    <col min="26" max="26" width="0.42578125" style="6" customWidth="1"/>
+    <col min="27" max="28" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6" customHeight="1"/>
+    <row r="1" spans="2:28" ht="6" customHeight="1"/>
     <row r="2" spans="2:28">
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1769,42 +1168,42 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10" t="s">
+      <c r="L2" s="110"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="10" t="s">
+      <c r="P2" s="110"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="95" t="s">
+      <c r="S2" s="110"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="96"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="10">
+      <c r="V2" s="113"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="109">
         <v>42401</v>
       </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10" t="s">
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="11"/>
+      <c r="AB2" s="110"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
@@ -1820,1808 +1219,1808 @@
       <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="str">
+      <c r="G3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="12" t="str">
+      <c r="K3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12" t="str">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="12" t="str">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="12" t="str">
+      <c r="T3" s="12"/>
+      <c r="U3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="12" t="s">
+      <c r="W3" s="12"/>
+      <c r="X3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="12" t="s">
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:28">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14">
         <v>2500</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="15">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="14">
         <v>2500</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="15">
+      <c r="M4" s="16"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="14">
         <v>2500</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="15">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="14">
         <v>2500</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="15">
+      <c r="T4" s="14"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="14">
         <v>2500</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15">
+      <c r="G5" s="13"/>
+      <c r="H5" s="14">
         <v>8100</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="15">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="14">
         <v>9800</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="15">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="14">
         <v>13400</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="15">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="14">
         <v>1300</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="15">
+      <c r="T5" s="14"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="14">
         <v>900</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
         <v>51800</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="15">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="14">
         <f>1000*(4+2+5+3+7+10+3+5+2+3+1)</f>
         <v>45000</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="15">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="14">
         <v>32000</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="15">
+      <c r="Q6" s="14"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="14">
         <v>0</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="15">
+      <c r="T6" s="14"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="14">
         <v>0</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="2:28">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <v>255</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="15">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="14">
         <v>238</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="23" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="15">
+      <c r="Q7" s="14"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="14">
         <v>564</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="15">
+      <c r="T7" s="14"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="14">
         <v>6100</v>
       </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="2:28">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
         <v>4400</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="15">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="14">
         <v>1500</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="15">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="14">
         <v>1500</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="15">
+      <c r="Q8" s="14"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="14">
         <v>1642</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="15">
+      <c r="T8" s="14"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="14">
         <v>1300</v>
       </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="2:28">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="103"/>
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <v>1655</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="15">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="14">
         <v>1500</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="58">
+      <c r="M9" s="14"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="49">
         <v>1500</v>
       </c>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="58">
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="49">
         <v>2031</v>
       </c>
-      <c r="T9" s="58"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="15">
+      <c r="T9" s="49"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="14">
         <v>107000</v>
       </c>
-      <c r="W9" s="58"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="15">
+      <c r="W9" s="49"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="14">
         <v>120000</v>
       </c>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15">
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="14">
         <v>270000</v>
       </c>
     </row>
     <row r="10" spans="2:28">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="103"/>
+      <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
         <f>3700*3</f>
         <v>11100</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="15">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="14">
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38" t="s">
+      <c r="M10" s="28"/>
+      <c r="N10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="60"/>
-      <c r="P10" s="61">
+      <c r="O10" s="51"/>
+      <c r="P10" s="52">
         <f>14300+2000</f>
         <v>16300</v>
       </c>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="81">
+      <c r="Q10" s="52"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="72">
         <v>57781</v>
       </c>
-      <c r="T10" s="61"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-    </row>
-    <row r="11" ht="11.25" customHeight="1" spans="2:28">
-      <c r="B11" s="14" t="s">
+      <c r="T10" s="52"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+    </row>
+    <row r="11" spans="2:28" ht="11.25" customHeight="1">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="103"/>
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <v>335</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="15">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="14">
         <v>45</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="62" t="s">
+      <c r="M11" s="28"/>
+      <c r="N11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="63"/>
-      <c r="P11" s="64" t="s">
+      <c r="O11" s="54"/>
+      <c r="P11" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="64">
+      <c r="Q11" s="55"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="55">
         <v>-46000</v>
       </c>
-      <c r="T11" s="64"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="81">
+      <c r="T11" s="55"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="72">
         <v>-36000</v>
       </c>
-      <c r="W11" s="64"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="2:28">
-      <c r="B12" s="14" t="s">
+      <c r="W11" s="55"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+    </row>
+    <row r="12" spans="2:28" ht="14.25" customHeight="1">
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="104"/>
+      <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15">
+      <c r="G12" s="13"/>
+      <c r="H12" s="14">
         <v>180000</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="15">
+      <c r="J12" s="13"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="14">
         <v>34004</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="62" t="s">
+      <c r="M12" s="28"/>
+      <c r="N12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="63"/>
-      <c r="P12" s="65">
+      <c r="O12" s="54"/>
+      <c r="P12" s="56">
         <v>5000</v>
       </c>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="65">
+      <c r="Q12" s="55"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="56">
         <v>5000</v>
       </c>
-      <c r="T12" s="64"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="65">
+      <c r="T12" s="55"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="56">
         <v>5000</v>
       </c>
-      <c r="W12" s="64"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
     </row>
     <row r="13" spans="2:28">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="21">
+      <c r="G13" s="13"/>
+      <c r="H13" s="16">
         <f t="shared" ref="H13" si="0">L13</f>
         <v>20000</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="21">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="16">
         <f>P13</f>
         <v>20000</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="66">
+      <c r="M13" s="16"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="57">
         <f>S13</f>
         <v>20000</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="21">
+      <c r="Q13" s="14"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="16">
         <f>Y13</f>
         <v>20000</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="21">
+      <c r="T13" s="14"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="16">
         <f>Y13</f>
         <v>20000</v>
       </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="21">
+      <c r="W13" s="14"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="16">
         <f>AB13</f>
         <v>20000</v>
       </c>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="15">
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="14">
         <v>20000</v>
       </c>
     </row>
     <row r="14" spans="2:28">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="106"/>
+      <c r="E14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
         <f>600*6</f>
         <v>3600</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="21">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="16">
         <f>P14</f>
         <v>1800</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="15">
+      <c r="M14" s="16"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="14">
         <f>300*6</f>
         <v>1800</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="15">
+      <c r="Q14" s="14"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="14">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="15">
+      <c r="T14" s="14"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="14">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="21">
+      <c r="W14" s="14"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="16">
         <f>AB14</f>
         <v>1020</v>
       </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="15">
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="14">
         <v>1020</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" spans="2:28">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="2:28" ht="12.75" customHeight="1">
+      <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="106"/>
+      <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15">
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
         <v>5000</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="15">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="14">
         <v>5000</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="15">
+      <c r="M15" s="16"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="14">
         <v>5000</v>
       </c>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="15">
+      <c r="Q15" s="14"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="14">
         <v>5000</v>
       </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="15">
+      <c r="T15" s="14"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="14">
         <v>5000</v>
       </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-    </row>
-    <row r="16" ht="13.15" customHeight="1" spans="2:28">
-      <c r="B16" s="14" t="s">
+      <c r="W15" s="14"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" spans="2:28" ht="13.15" customHeight="1">
+      <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="106"/>
+      <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="23" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="15">
+      <c r="I16" s="15"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="14">
         <v>90000</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="15">
+      <c r="M16" s="16"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="14">
         <v>90000</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="15">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="14">
         <v>90000</v>
       </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="15">
+      <c r="T16" s="14"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="14">
         <v>90000</v>
       </c>
-      <c r="W16" s="15"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="15">
+      <c r="W16" s="14"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="14">
         <v>90000</v>
       </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="15">
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="14">
         <v>90000</v>
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="106"/>
+      <c r="E17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="21">
+      <c r="G17" s="13"/>
+      <c r="H17" s="16">
         <f t="shared" ref="H17" si="1">L17</f>
         <v>439000</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="21">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="16">
         <f>P17</f>
         <v>439000</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="15">
+      <c r="M17" s="16"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="14">
         <f>V17+169000</f>
         <v>439000</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="15">
+      <c r="Q17" s="14"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="14">
         <f>V17+169000*40%</f>
         <v>337600</v>
       </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="15">
+      <c r="T17" s="14"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="14">
         <v>270000</v>
       </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="25"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="101"/>
+      <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="106"/>
+      <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>200000</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14">
         <v>200000</v>
       </c>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15">
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14">
         <v>200000</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14">
         <v>200000</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15">
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14">
         <v>200000</v>
       </c>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15">
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14">
         <v>105000</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="13"/>
     </row>
     <row r="19" spans="2:28">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="106"/>
+      <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>750000</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14">
         <v>750000</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14">
         <f>750000-415000</f>
         <v>335000</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14">
         <v>600000</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15">
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14">
         <v>600000</v>
       </c>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15">
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14">
         <f>600000-154000</f>
         <v>446000</v>
       </c>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15">
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14">
         <v>420000</v>
       </c>
-      <c r="AB19" s="14"/>
+      <c r="AB19" s="13"/>
     </row>
     <row r="20" spans="2:28">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="106"/>
+      <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <f>2700+75000+15800</f>
         <v>93500</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14">
         <f>0+27000+15000</f>
         <v>42000</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15">
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
         <f>1000+18000+15000</f>
         <v>34000</v>
       </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15">
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14">
         <f>37303+14272+15932</f>
         <v>67507</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15">
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14">
         <f>(35+13+14)*1000</f>
         <v>62000</v>
       </c>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15">
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14">
         <v>5000</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="13"/>
     </row>
     <row r="21" spans="2:28">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="106"/>
+      <c r="E21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <f>44000+240000+71000</f>
         <v>355000</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14">
         <f>24600+221400+71000</f>
         <v>317000</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14">
         <f>141000+205000+68000</f>
         <v>414000</v>
       </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15">
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14">
         <f>24201+57247+54415</f>
         <v>135863</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14">
         <f>17000+51797+50452</f>
         <v>119249</v>
       </c>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15">
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14">
         <f>142000+37403+40410</f>
         <v>219813</v>
       </c>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15">
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14">
         <f>17700+15000+15000</f>
         <v>47700</v>
       </c>
-      <c r="AB21" s="14" t="s">
+      <c r="AB21" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:28">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="106"/>
+      <c r="E22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <v>14000</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="21">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="16">
         <f>O22</f>
         <v>5000</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="68">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="59">
         <f>R22</f>
         <v>5000</v>
       </c>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="68">
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="59">
         <f>U22</f>
         <v>5000</v>
       </c>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58">
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49">
         <v>5000</v>
       </c>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="14"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="13"/>
     </row>
     <row r="23" spans="2:28">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="26" t="s">
+      <c r="D23" s="106"/>
+      <c r="E23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <f>(300000-228000)+(50065*2)+(250774-190000)</f>
         <v>232904</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61">
         <v>50065</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="38" t="s">
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="O23" s="61" t="s">
+      <c r="O23" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61">
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52">
         <v>20000</v>
       </c>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61">
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52">
         <v>20000</v>
       </c>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="81">
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="72">
         <v>30000</v>
       </c>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="61"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="69"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="60"/>
     </row>
     <row r="24" spans="2:28">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="107"/>
+      <c r="E24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <f>15000*5</f>
         <v>75000</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73">
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64">
         <f>15000*3</f>
         <v>45000</v>
       </c>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="69"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="60"/>
     </row>
     <row r="25" spans="2:28">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="16">
         <f>K25</f>
-        <v>1234</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="71">
-        <v>1234</v>
-      </c>
-      <c r="L25" s="38" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="62">
+        <v>1200</v>
+      </c>
+      <c r="L25" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M25" s="61"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="61">
+      <c r="M25" s="52"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="52">
         <v>1000</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61">
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52">
         <v>92574</v>
       </c>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61">
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52">
         <v>102000</v>
       </c>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61">
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52">
         <v>55000</v>
       </c>
-      <c r="Y25" s="108" t="s">
+      <c r="Y25" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="Z25" s="61"/>
-      <c r="AA25" s="81">
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="72">
         <v>5000</v>
       </c>
-      <c r="AB25" s="109"/>
+      <c r="AB25" s="98"/>
     </row>
     <row r="26" spans="2:28">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>22000</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="61">
         <v>36000</v>
       </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75">
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66">
         <v>40000</v>
       </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75">
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66">
         <v>27907</v>
       </c>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75">
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66">
         <v>6000</v>
       </c>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75">
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66">
         <v>155000</v>
       </c>
-      <c r="Y26" s="75"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="69"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="60"/>
     </row>
     <row r="27" spans="2:28">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>2000</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="61">
         <v>1000</v>
       </c>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70">
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61">
         <v>2000</v>
       </c>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70">
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61">
         <v>28176</v>
       </c>
-      <c r="S27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="70">
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61">
         <v>20000</v>
       </c>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="69"/>
-    </row>
-    <row r="28" ht="3" customHeight="1" spans="2:28">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="70"/>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="70"/>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="70"/>
-      <c r="AB28" s="69"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="60"/>
+    </row>
+    <row r="28" spans="2:28" ht="3" customHeight="1">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="60"/>
     </row>
     <row r="29" spans="2:28">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="32" t="s">
+      <c r="E29" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="25">
         <v>2300</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="78" t="s">
+      <c r="H29" s="20"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="79">
+      <c r="K29" s="70">
         <v>-201000</v>
       </c>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="80">
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="71">
         <f>-140000</f>
         <v>-140000</v>
       </c>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="69"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="60"/>
     </row>
     <row r="30" spans="2:28">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="103"/>
+      <c r="D30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="25">
         <f>745+1065+4000</f>
         <v>5810</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="83" t="s">
+      <c r="H30" s="27"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="79">
+      <c r="K30" s="70">
         <v>285000</v>
       </c>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="80">
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="71">
         <f>176000</f>
         <v>176000</v>
       </c>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="70"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="69"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="60"/>
     </row>
     <row r="31" spans="2:28">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="103"/>
+      <c r="D31" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="28">
         <f>6000+100000</f>
         <v>106000</v>
       </c>
-      <c r="H31" s="38" t="s">
+      <c r="H31" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="61">
+      <c r="I31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="52">
         <v>10000</v>
       </c>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61">
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52">
         <v>9000</v>
       </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="81">
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="72">
         <v>20000</v>
       </c>
-      <c r="S31" s="81"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="70"/>
-      <c r="AB31" s="69"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1" spans="2:28">
-      <c r="B32" s="14" t="s">
+      <c r="S31" s="72"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="52"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="60"/>
+    </row>
+    <row r="32" spans="2:28" ht="12.75" customHeight="1">
+      <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="39" t="s">
+      <c r="C32" s="104"/>
+      <c r="D32" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="21">
         <v>304000</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="75">
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="66">
         <v>385000</v>
       </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75">
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66">
         <v>598000</v>
       </c>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75">
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66">
         <f>27564</f>
         <v>27564</v>
       </c>
-      <c r="S32" s="70"/>
-      <c r="T32" s="75"/>
-      <c r="U32" s="70">
+      <c r="S32" s="61"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="61">
         <v>20000</v>
       </c>
-      <c r="V32" s="70"/>
-      <c r="W32" s="75"/>
-      <c r="X32" s="70">
+      <c r="V32" s="61"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="61">
         <v>20000</v>
       </c>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="70">
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="61">
         <v>5000</v>
       </c>
-      <c r="AB32" s="69"/>
+      <c r="AB32" s="60"/>
     </row>
     <row r="33" spans="2:28">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="21">
         <v>-7000</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="70">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="61">
         <v>-600</v>
       </c>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="70"/>
-      <c r="Y33" s="70"/>
-      <c r="Z33" s="70"/>
-      <c r="AA33" s="70"/>
-      <c r="AB33" s="69"/>
-    </row>
-    <row r="34" ht="3" customHeight="1" spans="2:28">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="70"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="70"/>
-      <c r="AB34" s="69"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="61"/>
+      <c r="V33" s="61"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="61"/>
+      <c r="AB33" s="60"/>
+    </row>
+    <row r="34" spans="2:28" ht="3" customHeight="1">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="60"/>
     </row>
     <row r="35" spans="2:28">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <v>13000</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="71">
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="62">
         <v>1600</v>
       </c>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="61"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="88" t="s">
+      <c r="M35" s="52"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79">
+      <c r="P35" s="70"/>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="70">
         <v>-30000</v>
       </c>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79">
+      <c r="S35" s="70"/>
+      <c r="T35" s="70"/>
+      <c r="U35" s="70">
         <v>-40000</v>
       </c>
-      <c r="V35" s="79"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="81">
+      <c r="V35" s="70"/>
+      <c r="W35" s="70"/>
+      <c r="X35" s="72">
         <v>-30000</v>
       </c>
-      <c r="Y35" s="81"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="70"/>
-      <c r="AB35" s="69"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="70"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="60"/>
     </row>
     <row r="36" spans="2:28">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <v>22000</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="70">
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="61">
         <v>20000</v>
       </c>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="89"/>
-      <c r="O36" s="90">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="81">
         <v>16000</v>
       </c>
-      <c r="P36" s="91" t="s">
+      <c r="P36" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="81">
+      <c r="Q36" s="90"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="72">
         <v>20000</v>
       </c>
-      <c r="T36" s="101"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="81">
+      <c r="T36" s="90"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="72">
         <v>20000</v>
       </c>
-      <c r="W36" s="101"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="69"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="90"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
     </row>
     <row r="37" spans="2:28">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="12" t="str">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="11" t="str">
         <f>G3</f>
         <v>in S$</v>
       </c>
-      <c r="H37" s="12" t="str">
+      <c r="H37" s="11" t="str">
         <f>H3</f>
         <v>in USD</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="11">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12" t="str">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11" t="str">
         <f>K3</f>
         <v>in S$</v>
       </c>
-      <c r="L37" s="12" t="str">
+      <c r="L37" s="11" t="str">
         <f>L3</f>
         <v>in USD</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="11">
         <f>M3</f>
         <v>0</v>
       </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12" t="str">
+      <c r="N37" s="11"/>
+      <c r="O37" s="11" t="str">
         <f t="shared" ref="O37:AB37" si="2">O3</f>
         <v>in S$</v>
       </c>
-      <c r="P37" s="92" t="str">
+      <c r="P37" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Q37" s="92">
+      <c r="Q37" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R37" s="92" t="str">
+      <c r="R37" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="S37" s="92" t="str">
+      <c r="S37" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="T37" s="92">
+      <c r="T37" s="83">
         <f t="shared" ref="T37" si="3">T3</f>
         <v>0</v>
       </c>
-      <c r="U37" s="92" t="str">
+      <c r="U37" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="V37" s="92" t="str">
+      <c r="V37" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="W37" s="92">
+      <c r="W37" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X37" s="12" t="str">
+      <c r="X37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="Y37" s="12" t="str">
+      <c r="Y37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Z37" s="92">
+      <c r="Z37" s="83">
         <f t="shared" ref="Z37" si="4">Z3</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="12" t="str">
+      <c r="AA37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="AB37" s="12" t="str">
+      <c r="AB37" s="11" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
     </row>
-    <row r="38" spans="3:28">
-      <c r="C38" s="45">
+    <row r="38" spans="2:28">
+      <c r="C38" s="36">
         <f>(G38-G39)+(H38-H39)+(K38-K39)+(L38-L39)+(K42-K43)+(O38-O39)+(P38-P39)+(O42-O43)+(R38-R39)+(S38-S39)+(R42-R43)+(U38-U39)+(V38-V39)+(U42-U43)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46" t="s">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37" t="s">
         <v>80</v>
       </c>
       <c r="G38" s="6">
         <f>SUM(G4:G36)</f>
-        <v>2191748</v>
+        <v>2191714</v>
       </c>
       <c r="H38" s="6">
         <f>SUM(H4:H36)</f>
         <v>727745</v>
       </c>
-      <c r="I38" s="93"/>
+      <c r="I38" s="84"/>
       <c r="K38" s="6">
         <f>SUM(K4:K36)</f>
-        <v>1962299</v>
+        <v>1962265</v>
       </c>
       <c r="L38" s="6">
         <f>SUM(L4:L36)</f>
         <v>683087</v>
       </c>
-      <c r="M38" s="94"/>
+      <c r="M38" s="85"/>
       <c r="O38" s="6">
         <f>SUM(O4:O36)</f>
         <v>1735000</v>
@@ -3663,24 +3062,24 @@
         <v>381020</v>
       </c>
     </row>
-    <row r="39" spans="4:28">
-      <c r="D39" s="46"/>
-      <c r="E39" s="47" t="s">
+    <row r="39" spans="2:28">
+      <c r="D39" s="37"/>
+      <c r="E39" s="38" t="s">
         <v>81</v>
       </c>
       <c r="G39" s="6">
-        <v>2191748</v>
+        <v>2191714</v>
       </c>
       <c r="H39" s="6">
         <v>727745</v>
       </c>
       <c r="K39" s="6">
-        <v>1962299</v>
+        <v>1962265</v>
       </c>
       <c r="L39" s="6">
         <v>683087</v>
       </c>
-      <c r="M39" s="94"/>
+      <c r="M39" s="85"/>
       <c r="O39" s="6">
         <v>1735000</v>
       </c>
@@ -3712,16 +3111,16 @@
         <v>381020</v>
       </c>
     </row>
-    <row r="40" spans="5:22">
-      <c r="E40" s="48" t="s">
+    <row r="40" spans="2:28">
+      <c r="E40" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="36">
         <v>1.36</v>
       </c>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
       <c r="L40" s="5" t="s">
         <v>83</v>
       </c>
@@ -3729,280 +3128,277 @@
       <c r="P40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S40" s="94"/>
+      <c r="S40" s="85"/>
       <c r="U40" s="6"/>
       <c r="V40"/>
     </row>
-    <row r="41" s="4" customFormat="1" spans="4:26">
-      <c r="D41" s="49"/>
-      <c r="E41" s="50" t="s">
+    <row r="41" spans="2:28" s="4" customFormat="1">
+      <c r="D41" s="40"/>
+      <c r="E41" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="51">
+      <c r="G41" s="111">
         <f>G42/$F$40</f>
-        <v>2339324.41176471</v>
-      </c>
-      <c r="H41" s="51"/>
+        <v>2339299.411764706</v>
+      </c>
+      <c r="H41" s="111"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="51">
-        <f>K42/1.3439</f>
-        <v>2143239.8243917</v>
-      </c>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="42"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="105"/>
-      <c r="S41" s="104"/>
-      <c r="T41" s="104"/>
-      <c r="U41" s="105"/>
-      <c r="V41" s="104"/>
-      <c r="W41" s="104"/>
-      <c r="Z41" s="104"/>
-    </row>
-    <row r="42" spans="4:28">
-      <c r="D42" s="46"/>
-      <c r="E42" s="46" t="s">
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="93"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="Z41" s="93"/>
+    </row>
+    <row r="42" spans="2:28">
+      <c r="D42" s="37"/>
+      <c r="E42" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="108">
         <f>H38*$F$40+G38</f>
-        <v>3181481.2</v>
-      </c>
-      <c r="H42" s="52"/>
-      <c r="K42" s="52">
+        <v>3181447.2</v>
+      </c>
+      <c r="H42" s="108"/>
+      <c r="K42" s="108">
         <f>ROUND(L38*1.3439+K38,0)</f>
-        <v>2880300</v>
-      </c>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="O42" s="52">
+        <v>2880266</v>
+      </c>
+      <c r="L42" s="108"/>
+      <c r="M42" s="43"/>
+      <c r="O42" s="108">
         <f>ROUND(P38*1.3465+O38,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P42" s="52"/>
-      <c r="R42" s="52">
+      <c r="P42" s="108"/>
+      <c r="R42" s="108">
         <f>ROUND(S38*1.37+R38,0)</f>
         <v>1877698</v>
       </c>
-      <c r="S42" s="52"/>
-      <c r="U42" s="52">
+      <c r="S42" s="108"/>
+      <c r="U42" s="108">
         <f>V38*1.37+U38</f>
         <v>1789659</v>
       </c>
-      <c r="V42" s="52"/>
-      <c r="X42" s="52">
+      <c r="V42" s="108"/>
+      <c r="X42" s="108">
         <f>Y38*1.36+X38</f>
         <v>1320000.2</v>
       </c>
-      <c r="Y42" s="52"/>
-      <c r="AA42" s="52">
+      <c r="Y42" s="108"/>
+      <c r="AA42" s="108">
         <f>AB38*1.4+AA38</f>
         <v>1011128</v>
       </c>
-      <c r="AB42" s="52"/>
-    </row>
-    <row r="43" spans="4:28">
-      <c r="D43" s="46"/>
-      <c r="E43" s="47" t="s">
+      <c r="AB42" s="108"/>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="D43" s="37"/>
+      <c r="E43" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="K43" s="52">
-        <v>2880300</v>
-      </c>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="O43" s="52">
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="K43" s="108">
+        <v>2880266</v>
+      </c>
+      <c r="L43" s="108"/>
+      <c r="M43" s="43"/>
+      <c r="O43" s="108">
         <v>2580602</v>
       </c>
-      <c r="P43" s="52"/>
-      <c r="R43" s="52">
+      <c r="P43" s="108"/>
+      <c r="R43" s="108">
         <v>1877698</v>
       </c>
-      <c r="S43" s="52"/>
-      <c r="U43" s="52">
+      <c r="S43" s="108"/>
+      <c r="U43" s="108">
         <v>1789659</v>
       </c>
-      <c r="V43" s="52"/>
-      <c r="X43" s="52">
+      <c r="V43" s="108"/>
+      <c r="X43" s="108">
         <v>1320000</v>
       </c>
-      <c r="Y43" s="52"/>
-      <c r="AA43" s="52">
+      <c r="Y43" s="108"/>
+      <c r="AA43" s="108">
         <v>1011128</v>
       </c>
-      <c r="AB43" s="52"/>
-    </row>
-    <row r="44" spans="4:28">
-      <c r="D44" s="46"/>
-      <c r="E44" s="47"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="52"/>
-      <c r="X44" s="52"/>
-      <c r="Y44" s="52"/>
-      <c r="AA44" s="52"/>
-      <c r="AB44" s="52"/>
+      <c r="AB43" s="108"/>
+    </row>
+    <row r="44" spans="2:28">
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
     </row>
     <row r="45" spans="2:28">
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="M45" s="52"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="M45" s="43"/>
       <c r="O45" s="3"/>
       <c r="P45" s="6">
         <f>G42-K42</f>
-        <v>301181.2</v>
-      </c>
-      <c r="R45" s="106" t="s">
+        <v>301181.20000000019</v>
+      </c>
+      <c r="R45" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="S45" s="52"/>
-      <c r="U45" s="52"/>
-      <c r="V45" s="52"/>
-      <c r="X45" s="52"/>
-      <c r="Y45" s="52"/>
-      <c r="AA45" s="52"/>
-      <c r="AB45" s="52"/>
-    </row>
-    <row r="46" spans="2:26">
-      <c r="B46" s="110" t="s">
+      <c r="S45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+    </row>
+    <row r="46" spans="2:28">
+      <c r="B46" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="Z46" s="55"/>
-    </row>
-    <row r="47" spans="2:26">
-      <c r="B47" s="53" t="s">
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="Z46" s="46"/>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="B47" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="Z47" s="55"/>
-    </row>
-    <row r="48" spans="2:26">
-      <c r="B48" s="53" t="s">
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="Z47" s="46"/>
+    </row>
+    <row r="48" spans="2:28">
+      <c r="B48" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="Z48" s="55"/>
-    </row>
-    <row r="49" spans="2:26">
-      <c r="B49" s="53" t="s">
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="Z48" s="46"/>
+    </row>
+    <row r="49" spans="2:28">
+      <c r="B49" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="54"/>
-      <c r="S49" s="54"/>
-      <c r="T49" s="54"/>
-      <c r="U49" s="54"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="54"/>
-      <c r="Z49" s="54"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="Z49" s="45"/>
     </row>
     <row r="50" spans="2:28">
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="M50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="U50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-    </row>
-    <row r="51" spans="2:26">
+      <c r="D50" s="37"/>
+      <c r="M50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="AA50" s="43"/>
+      <c r="AB50" s="43"/>
+    </row>
+    <row r="51" spans="2:28">
       <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
       <c r="N51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="T51" s="5"/>
@@ -4010,7 +3406,7 @@
       <c r="W51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="2:26">
+    <row r="52" spans="2:28">
       <c r="B52" s="1" t="s">
         <v>96</v>
       </c>
@@ -4021,64 +3417,58 @@
       <c r="W52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1" spans="2:26">
-      <c r="B53" s="53"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="107"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
-      <c r="V53" s="54"/>
-      <c r="W53" s="54"/>
-      <c r="Z53" s="54"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="56"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="56"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="56"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="56"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="56"/>
+    <row r="53" spans="2:28" ht="12.75" customHeight="1">
+      <c r="B53" s="44"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="Z53" s="45"/>
+    </row>
+    <row r="54" spans="2:28">
+      <c r="B54" s="47"/>
+    </row>
+    <row r="55" spans="2:28">
+      <c r="B55" s="47"/>
+    </row>
+    <row r="56" spans="2:28">
+      <c r="B56" s="47"/>
+    </row>
+    <row r="57" spans="2:28">
+      <c r="B57" s="47"/>
+    </row>
+    <row r="58" spans="2:28">
+      <c r="B58" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="O41:P41"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="U2:V2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="X42:Y42"/>
     <mergeCell ref="AA42:AB42"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="K43:L43"/>
@@ -4087,30 +3477,34 @@
     <mergeCell ref="U43:V43"/>
     <mergeCell ref="X43:Y43"/>
     <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:V42"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="D13:D24"/>
+    <mergeCell ref="X42:Y42"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="5" width="10.1388888888889" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
@@ -4119,7 +3513,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:5" ht="14.25">
       <c r="C3">
         <v>4</v>
       </c>
@@ -4131,7 +3525,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:5">
       <c r="C5">
         <v>1</v>
       </c>
@@ -4154,32 +3548,32 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:5">
       <c r="C9">
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:5">
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:5">
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:5">
       <c r="C12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:5">
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:5">
       <c r="C14">
         <v>2.7</v>
       </c>
@@ -4193,6 +3587,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059443C6-5306-4505-95D1-59A3D82B2F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D3666C-DB6F-491A-BCA0-D22905AA99A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="99">
   <si>
     <t>val</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>TD]khm</t>
+  </si>
+  <si>
+    <t>&lt;lateFeb</t>
   </si>
 </sst>
 </file>
@@ -803,6 +806,24 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -826,24 +847,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,14 +1126,14 @@
   <dimension ref="B1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
@@ -1168,42 +1171,42 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="110"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="110"/>
+      <c r="L2" s="101"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="109" t="s">
+      <c r="O2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="110"/>
+      <c r="P2" s="101"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="109" t="s">
+      <c r="R2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="110"/>
+      <c r="S2" s="101"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="112" t="s">
+      <c r="U2" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="113"/>
+      <c r="V2" s="104"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="109">
+      <c r="X2" s="100">
         <v>42401</v>
       </c>
-      <c r="Y2" s="110"/>
+      <c r="Y2" s="101"/>
       <c r="Z2" s="10"/>
-      <c r="AA2" s="109" t="s">
+      <c r="AA2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="110"/>
+      <c r="AB2" s="101"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
@@ -1377,7 +1380,7 @@
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="108" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1427,7 +1430,7 @@
       <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="103"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1474,7 +1477,7 @@
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1524,7 @@
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="103"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
@@ -1572,7 +1575,7 @@
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="103"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
@@ -1622,7 +1625,7 @@
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1671,7 +1674,7 @@
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="104"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
@@ -1725,7 +1728,7 @@
       <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="111" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1784,7 +1787,7 @@
       <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="15" t="s">
         <v>40</v>
       </c>
@@ -1841,7 +1844,7 @@
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
@@ -1888,7 +1891,7 @@
       <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
@@ -1933,13 +1936,13 @@
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="106" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="106"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="13" t="s">
         <v>45</v>
       </c>
@@ -1984,11 +1987,11 @@
       <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="101"/>
+      <c r="B18" s="107"/>
       <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="106"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
@@ -2037,7 +2040,7 @@
       <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="106"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
@@ -2090,7 +2093,7 @@
       <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="106"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
@@ -2098,10 +2101,12 @@
         <v>50</v>
       </c>
       <c r="G20" s="14">
-        <f>2700+75000+15800</f>
-        <v>93500</v>
-      </c>
-      <c r="H20" s="13"/>
+        <f>2700+83000+15800</f>
+        <v>101500</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="14">
@@ -2144,7 +2149,7 @@
       <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="106"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="13" t="s">
         <v>49</v>
       </c>
@@ -2152,10 +2157,12 @@
         <v>18</v>
       </c>
       <c r="G21" s="14">
-        <f>44000+240000+71000</f>
-        <v>355000</v>
-      </c>
-      <c r="H21" s="13"/>
+        <f>47000+242000+74000</f>
+        <v>363000</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="14">
@@ -2204,7 +2211,7 @@
       <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="106"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="15" t="s">
         <v>52</v>
       </c>
@@ -2254,7 +2261,7 @@
       <c r="C23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="106"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="18" t="s">
         <v>53</v>
       </c>
@@ -2306,7 +2313,7 @@
       <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="113"/>
       <c r="E24" s="13" t="s">
         <v>56</v>
       </c>
@@ -2536,7 +2543,7 @@
       <c r="B29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="108" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="22" t="s">
@@ -2584,7 +2591,7 @@
       <c r="B30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="103"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="22" t="s">
         <v>19</v>
       </c>
@@ -2631,7 +2638,7 @@
       <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="103"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="22" t="s">
         <v>19</v>
       </c>
@@ -2679,7 +2686,7 @@
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="104"/>
+      <c r="C32" s="110"/>
       <c r="D32" s="30" t="s">
         <v>70</v>
       </c>
@@ -3005,7 +3012,7 @@
       </c>
       <c r="G38" s="6">
         <f>SUM(G4:G36)</f>
-        <v>2191714</v>
+        <v>2207714</v>
       </c>
       <c r="H38" s="6">
         <f>SUM(H4:H36)</f>
@@ -3068,7 +3075,7 @@
         <v>81</v>
       </c>
       <c r="G39" s="6">
-        <v>2191714</v>
+        <v>2207714</v>
       </c>
       <c r="H39" s="6">
         <v>727745</v>
@@ -3137,18 +3144,18 @@
       <c r="E41" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="111">
+      <c r="G41" s="102">
         <f>G42/$F$40</f>
-        <v>2339299.411764706</v>
-      </c>
-      <c r="H41" s="111"/>
+        <v>2351064.1176470588</v>
+      </c>
+      <c r="H41" s="102"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="111"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
       <c r="M41" s="42"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="111"/>
-      <c r="P41" s="111"/>
+      <c r="O41" s="102"/>
+      <c r="P41" s="102"/>
       <c r="Q41" s="93"/>
       <c r="R41" s="94"/>
       <c r="S41" s="93"/>
@@ -3163,75 +3170,75 @@
       <c r="E42" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="108">
+      <c r="G42" s="105">
         <f>H38*$F$40+G38</f>
-        <v>3181447.2</v>
-      </c>
-      <c r="H42" s="108"/>
-      <c r="K42" s="108">
+        <v>3197447.2</v>
+      </c>
+      <c r="H42" s="105"/>
+      <c r="K42" s="105">
         <f>ROUND(L38*1.3439+K38,0)</f>
         <v>2880266</v>
       </c>
-      <c r="L42" s="108"/>
+      <c r="L42" s="105"/>
       <c r="M42" s="43"/>
-      <c r="O42" s="108">
+      <c r="O42" s="105">
         <f>ROUND(P38*1.3465+O38,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P42" s="108"/>
-      <c r="R42" s="108">
+      <c r="P42" s="105"/>
+      <c r="R42" s="105">
         <f>ROUND(S38*1.37+R38,0)</f>
         <v>1877698</v>
       </c>
-      <c r="S42" s="108"/>
-      <c r="U42" s="108">
+      <c r="S42" s="105"/>
+      <c r="U42" s="105">
         <f>V38*1.37+U38</f>
         <v>1789659</v>
       </c>
-      <c r="V42" s="108"/>
-      <c r="X42" s="108">
+      <c r="V42" s="105"/>
+      <c r="X42" s="105">
         <f>Y38*1.36+X38</f>
         <v>1320000.2</v>
       </c>
-      <c r="Y42" s="108"/>
-      <c r="AA42" s="108">
+      <c r="Y42" s="105"/>
+      <c r="AA42" s="105">
         <f>AB38*1.4+AA38</f>
         <v>1011128</v>
       </c>
-      <c r="AB42" s="108"/>
+      <c r="AB42" s="105"/>
     </row>
     <row r="43" spans="2:28">
       <c r="D43" s="37"/>
       <c r="E43" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="K43" s="108">
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="K43" s="105">
         <v>2880266</v>
       </c>
-      <c r="L43" s="108"/>
+      <c r="L43" s="105"/>
       <c r="M43" s="43"/>
-      <c r="O43" s="108">
+      <c r="O43" s="105">
         <v>2580602</v>
       </c>
-      <c r="P43" s="108"/>
-      <c r="R43" s="108">
+      <c r="P43" s="105"/>
+      <c r="R43" s="105">
         <v>1877698</v>
       </c>
-      <c r="S43" s="108"/>
-      <c r="U43" s="108">
+      <c r="S43" s="105"/>
+      <c r="U43" s="105">
         <v>1789659</v>
       </c>
-      <c r="V43" s="108"/>
-      <c r="X43" s="108">
+      <c r="V43" s="105"/>
+      <c r="X43" s="105">
         <v>1320000</v>
       </c>
-      <c r="Y43" s="108"/>
-      <c r="AA43" s="108">
+      <c r="Y43" s="105"/>
+      <c r="AA43" s="105">
         <v>1011128</v>
       </c>
-      <c r="AB43" s="108"/>
+      <c r="AB43" s="105"/>
     </row>
     <row r="44" spans="2:28">
       <c r="D44" s="37"/>
@@ -3268,7 +3275,7 @@
       <c r="O45" s="3"/>
       <c r="P45" s="6">
         <f>G42-K42</f>
-        <v>301181.20000000019</v>
+        <v>317181.20000000019</v>
       </c>
       <c r="R45" s="95" t="s">
         <v>89</v>
@@ -3459,16 +3466,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="X42:Y42"/>
     <mergeCell ref="AA42:AB42"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="K43:L43"/>
@@ -3482,11 +3484,16 @@
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="R42:S42"/>
     <mergeCell ref="U42:V42"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D13:D24"/>
-    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -1,44 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D3666C-DB6F-491A-BCA0-D22905AA99A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22223" windowHeight="10908"/>
   </bookViews>
   <sheets>
     <sheet name="NAV24" sheetId="2" r:id="rId1"/>
     <sheet name="scratchpad" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Tan, Victor</author>
     <author>Bin TAN</author>
   </authors>
   <commentList>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="U2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E32" authorId="1">
       <text>
         <r>
           <rPr>
@@ -62,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +133,7 @@
     <t>exact</t>
   </si>
   <si>
-    <t>bank: khm TD</t>
+    <t>bank: khm FixD</t>
   </si>
   <si>
     <t>bank: khm sav</t>
@@ -165,7 +148,7 @@
     <t>bank: citi.NA</t>
   </si>
   <si>
-    <t>bank: citi.SG TD</t>
+    <t>bank:citi.SG FixD</t>
   </si>
   <si>
     <t>Citi.sg+BOC&gt;</t>
@@ -238,6 +221,9 @@
     <t>mom</t>
   </si>
   <si>
+    <t>&lt;lateFeb</t>
+  </si>
+  <si>
     <t>&lt;est</t>
   </si>
   <si>
@@ -316,7 +302,7 @@
     <t>24k剩余given&gt;&gt;kids</t>
   </si>
   <si>
-    <t>PHP 940k</t>
+    <t>PHP 965k</t>
   </si>
   <si>
     <t>Jay warehouse &gt;</t>
@@ -377,22 +363,23 @@
   </si>
   <si>
     <t>TD]khm</t>
-  </si>
-  <si>
-    <t>&lt;lateFeb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="[$USD]\ #,##0"/>
-    <numFmt numFmtId="166" formatCode="[$SGD]\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="[$SGD]\ #,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="180" formatCode="[$SGD]\ #,##0"/>
+    <numFmt numFmtId="181" formatCode="[$SGD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -431,7 +418,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0" tint="-0.349986266670736"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -448,7 +435,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.1498764000366222"/>
+      <color theme="0" tint="-0.149876400036622"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -458,12 +445,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,8 +614,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -636,32 +960,301 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -721,10 +1314,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -737,17 +1330,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -781,85 +1374,93 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1117,50 +1718,50 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AB58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="0.42578125" customWidth="1"/>
+    <col min="1" max="1" width="0.851851851851852" customWidth="1"/>
+    <col min="2" max="2" width="2.71296296296296" customWidth="1"/>
+    <col min="3" max="3" width="8.13888888888889" customWidth="1"/>
+    <col min="4" max="4" width="6.57407407407407" customWidth="1"/>
+    <col min="5" max="5" width="16.8518518518519" customWidth="1"/>
+    <col min="6" max="6" width="5.13888888888889" customWidth="1"/>
+    <col min="7" max="7" width="9.13888888888889" customWidth="1"/>
+    <col min="8" max="8" width="7.42592592592593" customWidth="1"/>
+    <col min="9" max="9" width="0.425925925925926" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="0.42578125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="0.42578125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="0.42578125" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="7.5703125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="0.42578125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" customWidth="1"/>
-    <col min="26" max="26" width="0.42578125" style="6" customWidth="1"/>
-    <col min="27" max="28" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.13888888888889" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.13888888888889" style="6" customWidth="1"/>
+    <col min="13" max="13" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="14" max="14" width="4.13888888888889" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.13888888888889" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.13888888888889" style="6" customWidth="1"/>
+    <col min="17" max="17" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.13888888888889" style="5" customWidth="1"/>
+    <col min="19" max="19" width="7.57407407407407" style="6" customWidth="1"/>
+    <col min="20" max="20" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.13888888888889" style="5" customWidth="1"/>
+    <col min="22" max="22" width="7.57407407407407" style="6" customWidth="1"/>
+    <col min="23" max="23" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="24" max="24" width="9.13888888888889" customWidth="1"/>
+    <col min="25" max="25" width="7.57407407407407" customWidth="1"/>
+    <col min="26" max="26" width="0.425925925925926" style="6" customWidth="1"/>
+    <col min="27" max="28" width="7.57407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="6" customHeight="1"/>
+    <row r="1" ht="6" customHeight="1"/>
     <row r="2" spans="2:28">
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1171,42 +1772,42 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="101"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="101"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="100" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="100" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="101"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="103" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="104"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="100">
+      <c r="V2" s="96"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="10">
         <v>42401</v>
       </c>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="100" t="s">
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="101"/>
+      <c r="AB2" s="11"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
@@ -1222,1803 +1823,1803 @@
       <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="str">
+      <c r="G3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="11" t="str">
+      <c r="K3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="11" t="str">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="11" t="str">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11" t="str">
+      <c r="T3" s="13"/>
+      <c r="U3" s="12" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="11" t="s">
+      <c r="W3" s="13"/>
+      <c r="X3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="11" t="s">
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:28">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14">
+      <c r="G4" s="14"/>
+      <c r="H4" s="15">
         <v>2500</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="14">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="15">
         <v>2500</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="14">
+      <c r="M4" s="21"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="15">
         <v>2500</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="14">
+      <c r="Q4" s="15"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="15">
         <v>2500</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="14">
+      <c r="T4" s="15"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="15">
         <v>2500</v>
       </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14">
+      <c r="G5" s="14"/>
+      <c r="H5" s="15">
         <v>8100</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="14">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="15">
         <v>9800</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="14">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="15">
         <v>13400</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="14">
+      <c r="Q5" s="15"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="15">
         <v>1300</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="14">
+      <c r="T5" s="15"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="15">
         <v>900</v>
       </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14">
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
         <v>51800</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="14">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="15">
         <f>1000*(4+2+5+3+7+10+3+5+2+3+1)</f>
         <v>45000</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="14">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="15">
         <v>32000</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="14">
+      <c r="Q6" s="15"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="15">
         <v>0</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="14">
+      <c r="T6" s="15"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="15">
         <v>0</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
     </row>
     <row r="7" spans="2:28">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
         <v>255</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="14">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="15">
         <v>238</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="17" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="14">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="15">
         <v>564</v>
       </c>
-      <c r="T7" s="14"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="14">
+      <c r="T7" s="15"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="15">
         <v>6100</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
     </row>
     <row r="8" spans="2:28">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>4400</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="14">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="15">
         <v>1500</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="14">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="15">
         <v>1500</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="14">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="15">
         <v>1642</v>
       </c>
-      <c r="T8" s="14"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="14">
+      <c r="T8" s="15"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="15">
         <v>1300</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
     </row>
     <row r="9" spans="2:28">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
         <v>1655</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="14">
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="15">
         <v>1500</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="49">
+      <c r="M9" s="15"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="58">
         <v>1500</v>
       </c>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="49">
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="58">
         <v>2031</v>
       </c>
-      <c r="T9" s="49"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="14">
+      <c r="T9" s="58"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="15">
         <v>107000</v>
       </c>
-      <c r="W9" s="49"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="14">
+      <c r="W9" s="58"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="15">
         <v>120000</v>
       </c>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="14">
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15">
         <v>270000</v>
       </c>
     </row>
     <row r="10" spans="2:28">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
         <f>3700*3</f>
         <v>11100</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="14">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="15">
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29" t="s">
+      <c r="M10" s="37"/>
+      <c r="N10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52">
+      <c r="O10" s="60"/>
+      <c r="P10" s="61">
         <f>14300+2000</f>
         <v>16300</v>
       </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="72">
+      <c r="Q10" s="61"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="81">
         <v>57781</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-    </row>
-    <row r="11" spans="2:28" ht="11.25" customHeight="1">
-      <c r="B11" s="13" t="s">
+      <c r="T10" s="61"/>
+      <c r="U10" s="97"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+    </row>
+    <row r="11" ht="11.25" customHeight="1" spans="2:28">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14">
         <v>335</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="14">
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="15">
         <v>45</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="53" t="s">
+      <c r="M11" s="37"/>
+      <c r="N11" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55" t="s">
+      <c r="O11" s="63"/>
+      <c r="P11" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="55">
+      <c r="Q11" s="64"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64">
         <v>-46000</v>
       </c>
-      <c r="T11" s="55"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="72">
+      <c r="T11" s="64"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="81">
         <v>-36000</v>
       </c>
-      <c r="W11" s="55"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
-    </row>
-    <row r="12" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B12" s="13" t="s">
+      <c r="W11" s="64"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="2:28">
+      <c r="B12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15">
         <v>180000</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="14">
+      <c r="J12" s="14"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="15">
         <v>34004</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="53" t="s">
+      <c r="M12" s="37"/>
+      <c r="N12" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="56">
+      <c r="O12" s="63"/>
+      <c r="P12" s="65">
         <v>5000</v>
       </c>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="56">
+      <c r="Q12" s="64"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="65">
         <v>5000</v>
       </c>
-      <c r="T12" s="55"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="56">
+      <c r="T12" s="64"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="65">
         <v>5000</v>
       </c>
-      <c r="W12" s="55"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
     </row>
     <row r="13" spans="2:28">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16">
+      <c r="G13" s="14"/>
+      <c r="H13" s="21">
         <f t="shared" ref="H13" si="0">L13</f>
         <v>20000</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="16">
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="21">
         <f>P13</f>
         <v>20000</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="57">
+      <c r="M13" s="21"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="66">
         <f>S13</f>
         <v>20000</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="16">
+      <c r="Q13" s="15"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="21">
         <f>Y13</f>
         <v>20000</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="16">
+      <c r="T13" s="15"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="21">
         <f>Y13</f>
         <v>20000</v>
       </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="16">
+      <c r="W13" s="15"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="21">
         <f>AB13</f>
         <v>20000</v>
       </c>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="14">
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="15">
         <v>20000</v>
       </c>
     </row>
     <row r="14" spans="2:28">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
         <f>600*6</f>
         <v>3600</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="16">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="21">
         <f>P14</f>
         <v>1800</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="14">
+      <c r="M14" s="21"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="15">
         <f>300*6</f>
         <v>1800</v>
       </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="14">
+      <c r="Q14" s="15"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="15">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="T14" s="14"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="14">
+      <c r="T14" s="15"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="15">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="W14" s="14"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="16">
+      <c r="W14" s="15"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="21">
         <f>AB14</f>
         <v>1020</v>
       </c>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="14">
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="15">
         <v>1020</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="12.75" customHeight="1">
-      <c r="B15" s="13" t="s">
+    <row r="15" ht="12.75" customHeight="1" spans="2:28">
+      <c r="B15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14">
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
         <v>5000</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="14">
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="15">
         <v>5000</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="14">
+      <c r="M15" s="21"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="15">
         <v>5000</v>
       </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="14">
+      <c r="Q15" s="15"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="15">
         <v>5000</v>
       </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="14">
+      <c r="T15" s="15"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="15">
         <v>5000</v>
       </c>
-      <c r="W15" s="14"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-    </row>
-    <row r="16" spans="2:28" ht="13.15" customHeight="1">
-      <c r="B16" s="13" t="s">
+      <c r="W15" s="15"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+    </row>
+    <row r="16" ht="13.15" customHeight="1" spans="2:28">
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="17" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="14">
+      <c r="I16" s="17"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="15">
         <v>90000</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="14">
+      <c r="M16" s="21"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="15">
         <v>90000</v>
       </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="14">
+      <c r="Q16" s="15"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="15">
         <v>90000</v>
       </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="14">
+      <c r="T16" s="15"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="15">
         <v>90000</v>
       </c>
-      <c r="W16" s="14"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="14">
+      <c r="W16" s="15"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="15">
         <v>90000</v>
       </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="14">
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="15">
         <v>90000</v>
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="16">
+      <c r="G17" s="14"/>
+      <c r="H17" s="21">
         <f t="shared" ref="H17" si="1">L17</f>
         <v>439000</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="16">
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="21">
         <f>P17</f>
         <v>439000</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="14">
+      <c r="M17" s="21"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="15">
         <f>V17+169000</f>
         <v>439000</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="14">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="15">
         <f>V17+169000*40%</f>
         <v>337600</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="14">
+      <c r="T17" s="15"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="15">
         <v>270000</v>
       </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="107"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="15">
         <v>200000</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15">
         <v>200000</v>
       </c>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14">
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15">
         <v>200000</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14">
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15">
         <v>200000</v>
       </c>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14">
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15">
         <v>200000</v>
       </c>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14">
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15">
         <v>105000</v>
       </c>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="13"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="14"/>
     </row>
     <row r="19" spans="2:28">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="15">
         <v>750000</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15">
         <v>750000</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14">
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15">
         <f>750000-415000</f>
         <v>335000</v>
       </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15">
         <v>600000</v>
       </c>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14">
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15">
         <v>600000</v>
       </c>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14">
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15">
         <f>600000-154000</f>
         <v>446000</v>
       </c>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14">
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15">
         <v>420000</v>
       </c>
-      <c r="AB19" s="13"/>
+      <c r="AB19" s="14"/>
     </row>
     <row r="20" spans="2:28">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="15">
         <f>2700+83000+15800</f>
         <v>101500</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15">
         <f>0+27000+15000</f>
         <v>42000</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14">
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15">
         <f>1000+18000+15000</f>
         <v>34000</v>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15">
         <f>37303+14272+15932</f>
         <v>67507</v>
       </c>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14">
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15">
         <f>(35+13+14)*1000</f>
         <v>62000</v>
       </c>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14">
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15">
         <v>5000</v>
       </c>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="13"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="14"/>
     </row>
     <row r="21" spans="2:28">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="15">
         <f>47000+242000+74000</f>
         <v>363000</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14">
+      <c r="H21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15">
         <f>24600+221400+71000</f>
         <v>317000</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14">
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15">
         <f>141000+205000+68000</f>
         <v>414000</v>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15">
         <f>24201+57247+54415</f>
         <v>135863</v>
       </c>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14">
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15">
         <f>17000+51797+50452</f>
         <v>119249</v>
       </c>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14">
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15">
         <f>142000+37403+40410</f>
         <v>219813</v>
       </c>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14">
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15">
         <f>17700+15000+15000</f>
         <v>47700</v>
       </c>
-      <c r="AB21" s="13" t="s">
-        <v>51</v>
+      <c r="AB21" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:28">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="15">
         <v>14000</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="16">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="21">
         <f>O22</f>
         <v>5000</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="59">
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="68">
         <f>R22</f>
         <v>5000</v>
       </c>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="59">
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="68">
         <f>U22</f>
         <v>5000</v>
       </c>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49">
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58">
         <v>5000</v>
       </c>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="13"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="14"/>
     </row>
     <row r="23" spans="2:28">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="112"/>
-      <c r="E23" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="15">
         <f>(300000-228000)+(50065*2)+(250774-190000)</f>
         <v>232904</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70">
         <v>50065</v>
       </c>
-      <c r="L23" s="61"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="O23" s="52" t="s">
+      <c r="L23" s="70"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52">
+      <c r="O23" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61">
         <v>20000</v>
       </c>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52">
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61">
         <v>20000</v>
       </c>
-      <c r="V23" s="52"/>
-      <c r="W23" s="52"/>
-      <c r="X23" s="72">
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="81">
         <v>30000</v>
       </c>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="61"/>
-      <c r="AB23" s="60"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="69"/>
     </row>
     <row r="24" spans="2:28">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="113"/>
-      <c r="E24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="15">
         <f>15000*5</f>
         <v>75000</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64">
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73">
         <f>15000*3</f>
         <v>45000</v>
       </c>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="64"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="60"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="69"/>
     </row>
     <row r="25" spans="2:28">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="21">
         <f>K25</f>
         <v>1200</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="62">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="71">
         <v>1200</v>
       </c>
-      <c r="L25" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" s="52"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="52">
+      <c r="L25" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="61"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="61">
         <v>1000</v>
       </c>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52">
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61">
         <v>92574</v>
       </c>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52">
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61">
         <v>102000</v>
       </c>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52">
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61">
         <v>55000</v>
       </c>
-      <c r="Y25" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="72">
+      <c r="Y25" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="81">
         <v>5000</v>
       </c>
-      <c r="AB25" s="98"/>
+      <c r="AB25" s="109"/>
     </row>
     <row r="26" spans="2:28">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="15">
         <v>22000</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="61">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70">
         <v>36000</v>
       </c>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66">
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75">
         <v>40000</v>
       </c>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66">
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75">
         <v>27907</v>
       </c>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66">
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75">
         <v>6000</v>
       </c>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66">
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75">
         <v>155000</v>
       </c>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="60"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="69"/>
     </row>
     <row r="27" spans="2:28">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="15">
         <v>2000</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="70">
         <v>1000</v>
       </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61">
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="70">
         <v>2000</v>
       </c>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61">
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+      <c r="R27" s="70">
         <v>28176</v>
       </c>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61">
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70">
         <v>20000</v>
       </c>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
-      <c r="Z27" s="61"/>
-      <c r="AA27" s="61"/>
-      <c r="AB27" s="60"/>
-    </row>
-    <row r="28" spans="2:28" ht="3" customHeight="1">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="60"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="69"/>
+    </row>
+    <row r="28" ht="3" customHeight="1" spans="2:28">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="69"/>
     </row>
     <row r="29" spans="2:28">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="24" t="s">
+      <c r="E29" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="25">
+      <c r="F29" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="34">
         <v>2300</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" s="70">
+      <c r="H29" s="29"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="79">
         <v>-201000</v>
       </c>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="71">
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="80">
         <f>-140000</f>
         <v>-140000</v>
       </c>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="60"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="69"/>
     </row>
     <row r="30" spans="2:28">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="22" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="24" t="s">
+      <c r="E30" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="25">
+      <c r="F30" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="34">
         <f>745+1065+4000</f>
         <v>5810</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30" s="70">
+      <c r="H30" s="36"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="79">
         <v>285000</v>
       </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="71">
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="80">
         <f>176000</f>
         <v>176000</v>
       </c>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="63"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
-      <c r="Z30" s="63"/>
-      <c r="AA30" s="61"/>
-      <c r="AB30" s="60"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="70"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="70"/>
+      <c r="AB30" s="69"/>
     </row>
     <row r="31" spans="2:28">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="37">
         <f>6000+100000</f>
         <v>106000</v>
       </c>
-      <c r="H31" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="52">
+      <c r="H31" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="61">
         <v>10000</v>
       </c>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52">
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61">
         <v>9000</v>
       </c>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="72">
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="81">
         <v>20000</v>
       </c>
-      <c r="S31" s="72"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="60"/>
-    </row>
-    <row r="32" spans="2:28" ht="12.75" customHeight="1">
-      <c r="B32" s="13" t="s">
+      <c r="S31" s="81"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="69"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1" spans="2:28">
+      <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="110"/>
-      <c r="D32" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="31" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="E32" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="30">
         <v>304000</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="66">
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="75">
         <v>385000</v>
       </c>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66">
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75">
         <v>598000</v>
       </c>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="66">
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75">
         <f>27564</f>
         <v>27564</v>
       </c>
-      <c r="S32" s="61"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="61">
+      <c r="S32" s="70"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="70">
         <v>20000</v>
       </c>
-      <c r="V32" s="61"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="61">
+      <c r="V32" s="70"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="70">
         <v>20000</v>
       </c>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="61">
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="70">
         <v>5000</v>
       </c>
-      <c r="AB32" s="60"/>
+      <c r="AB32" s="69"/>
     </row>
     <row r="33" spans="2:28">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="E33" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="30">
         <v>-7000</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="61">
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="70">
         <v>-600</v>
       </c>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="61"/>
-      <c r="AA33" s="61"/>
-      <c r="AB33" s="60"/>
-    </row>
-    <row r="34" spans="2:28" ht="3" customHeight="1">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="61"/>
-      <c r="AB34" s="60"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="70"/>
+      <c r="AA33" s="70"/>
+      <c r="AB33" s="69"/>
+    </row>
+    <row r="34" ht="3" customHeight="1" spans="2:28">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="69"/>
     </row>
     <row r="35" spans="2:28">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="15">
         <v>13000</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="62">
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="71">
         <v>1600</v>
       </c>
-      <c r="L35" s="29" t="s">
+      <c r="L35" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="52"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="P35" s="70"/>
-      <c r="Q35" s="70"/>
-      <c r="R35" s="70">
+      <c r="M35" s="61"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79">
         <v>-30000</v>
       </c>
-      <c r="S35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="U35" s="70">
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79">
         <v>-40000</v>
       </c>
-      <c r="V35" s="70"/>
-      <c r="W35" s="70"/>
-      <c r="X35" s="72">
+      <c r="V35" s="79"/>
+      <c r="W35" s="79"/>
+      <c r="X35" s="81">
         <v>-30000</v>
       </c>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="70"/>
-      <c r="AA35" s="61"/>
-      <c r="AB35" s="60"/>
+      <c r="Y35" s="81"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="70"/>
+      <c r="AB35" s="69"/>
     </row>
     <row r="36" spans="2:28">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="14">
-        <v>22000</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="61">
+      <c r="G36" s="15">
+        <v>23500</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="70">
         <v>20000</v>
       </c>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="81">
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="90">
         <v>16000</v>
       </c>
-      <c r="P36" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="72">
+      <c r="P36" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="81">
         <v>20000</v>
       </c>
-      <c r="T36" s="90"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="72">
+      <c r="T36" s="101"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="81">
         <v>20000</v>
       </c>
-      <c r="W36" s="90"/>
-      <c r="X36" s="92"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="69"/>
+      <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="2:28">
-      <c r="B37" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="11" t="str">
+      <c r="B37" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="12" t="str">
         <f>G3</f>
         <v>in S$</v>
       </c>
-      <c r="H37" s="11" t="str">
+      <c r="H37" s="12" t="str">
         <f>H3</f>
         <v>in USD</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="12">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11" t="str">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12" t="str">
         <f>K3</f>
         <v>in S$</v>
       </c>
-      <c r="L37" s="11" t="str">
+      <c r="L37" s="12" t="str">
         <f>L3</f>
         <v>in USD</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="12">
         <f>M3</f>
         <v>0</v>
       </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11" t="str">
+      <c r="N37" s="12"/>
+      <c r="O37" s="12" t="str">
         <f t="shared" ref="O37:AB37" si="2">O3</f>
         <v>in S$</v>
       </c>
-      <c r="P37" s="83" t="str">
+      <c r="P37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Q37" s="83">
+      <c r="Q37" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R37" s="83" t="str">
+      <c r="R37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="S37" s="83" t="str">
+      <c r="S37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="T37" s="83">
+      <c r="T37" s="92">
         <f t="shared" ref="T37" si="3">T3</f>
         <v>0</v>
       </c>
-      <c r="U37" s="83" t="str">
+      <c r="U37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="V37" s="83" t="str">
+      <c r="V37" s="92" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="W37" s="83">
+      <c r="W37" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X37" s="11" t="str">
+      <c r="X37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="Y37" s="11" t="str">
+      <c r="Y37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Z37" s="83">
+      <c r="Z37" s="92">
         <f t="shared" ref="Z37" si="4">Z3</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="11" t="str">
+      <c r="AA37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="AB37" s="11" t="str">
+      <c r="AB37" s="12" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
     </row>
-    <row r="38" spans="2:28">
-      <c r="C38" s="36">
+    <row r="38" spans="3:28">
+      <c r="C38" s="45">
         <f>(G38-G39)+(H38-H39)+(K38-K39)+(L38-L39)+(K42-K43)+(O38-O39)+(P38-P39)+(O42-O43)+(R38-R39)+(S38-S39)+(R42-R43)+(U38-U39)+(V38-V39)+(U42-U43)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37" t="s">
-        <v>80</v>
+        <v>1500</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46" t="s">
+        <v>81</v>
       </c>
       <c r="G38" s="6">
         <f>SUM(G4:G36)</f>
-        <v>2207714</v>
+        <v>2209214</v>
       </c>
       <c r="H38" s="6">
         <f>SUM(H4:H36)</f>
         <v>727745</v>
       </c>
-      <c r="I38" s="84"/>
+      <c r="I38" s="93"/>
       <c r="K38" s="6">
         <f>SUM(K4:K36)</f>
         <v>1962265</v>
@@ -3027,7 +3628,7 @@
         <f>SUM(L4:L36)</f>
         <v>683087</v>
       </c>
-      <c r="M38" s="85"/>
+      <c r="M38" s="94"/>
       <c r="O38" s="6">
         <f>SUM(O4:O36)</f>
         <v>1735000</v>
@@ -3069,10 +3670,10 @@
         <v>381020</v>
       </c>
     </row>
-    <row r="39" spans="2:28">
-      <c r="D39" s="37"/>
-      <c r="E39" s="38" t="s">
-        <v>81</v>
+    <row r="39" spans="4:28">
+      <c r="D39" s="46"/>
+      <c r="E39" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="G39" s="6">
         <v>2207714</v>
@@ -3086,7 +3687,7 @@
       <c r="L39" s="6">
         <v>683087</v>
       </c>
-      <c r="M39" s="85"/>
+      <c r="M39" s="94"/>
       <c r="O39" s="6">
         <v>1735000</v>
       </c>
@@ -3118,294 +3719,294 @@
         <v>381020</v>
       </c>
     </row>
-    <row r="40" spans="2:28">
-      <c r="E40" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="36">
+    <row r="40" spans="5:22">
+      <c r="E40" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="45">
         <v>1.36</v>
       </c>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
       <c r="L40" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M40" s="5"/>
       <c r="P40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S40" s="85"/>
+        <v>85</v>
+      </c>
+      <c r="S40" s="94"/>
       <c r="U40" s="6"/>
       <c r="V40"/>
     </row>
-    <row r="41" spans="2:28" s="4" customFormat="1">
-      <c r="D41" s="40"/>
-      <c r="E41" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="102">
+    <row r="41" s="4" customFormat="1" spans="4:26">
+      <c r="D41" s="49"/>
+      <c r="E41" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="51">
         <f>G42/$F$40</f>
-        <v>2351064.1176470588</v>
-      </c>
-      <c r="H41" s="102"/>
+        <v>2352167.05882353</v>
+      </c>
+      <c r="H41" s="51"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="102"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="42"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="102"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="93"/>
-      <c r="R41" s="94"/>
-      <c r="S41" s="93"/>
-      <c r="T41" s="93"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="93"/>
-      <c r="W41" s="93"/>
-      <c r="Z41" s="93"/>
-    </row>
-    <row r="42" spans="2:28">
-      <c r="D42" s="37"/>
-      <c r="E42" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="105">
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="105"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="Z41" s="104"/>
+    </row>
+    <row r="42" spans="4:28">
+      <c r="D42" s="46"/>
+      <c r="E42" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="52">
         <f>H38*$F$40+G38</f>
-        <v>3197447.2</v>
-      </c>
-      <c r="H42" s="105"/>
-      <c r="K42" s="105">
+        <v>3198947.2</v>
+      </c>
+      <c r="H42" s="52"/>
+      <c r="K42" s="52">
         <f>ROUND(L38*1.3439+K38,0)</f>
         <v>2880266</v>
       </c>
-      <c r="L42" s="105"/>
-      <c r="M42" s="43"/>
-      <c r="O42" s="105">
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="O42" s="52">
         <f>ROUND(P38*1.3465+O38,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P42" s="105"/>
-      <c r="R42" s="105">
+      <c r="P42" s="52"/>
+      <c r="R42" s="52">
         <f>ROUND(S38*1.37+R38,0)</f>
         <v>1877698</v>
       </c>
-      <c r="S42" s="105"/>
-      <c r="U42" s="105">
+      <c r="S42" s="52"/>
+      <c r="U42" s="52">
         <f>V38*1.37+U38</f>
         <v>1789659</v>
       </c>
-      <c r="V42" s="105"/>
-      <c r="X42" s="105">
+      <c r="V42" s="52"/>
+      <c r="X42" s="52">
         <f>Y38*1.36+X38</f>
         <v>1320000.2</v>
       </c>
-      <c r="Y42" s="105"/>
-      <c r="AA42" s="105">
+      <c r="Y42" s="52"/>
+      <c r="AA42" s="52">
         <f>AB38*1.4+AA38</f>
         <v>1011128</v>
       </c>
-      <c r="AB42" s="105"/>
-    </row>
-    <row r="43" spans="2:28">
-      <c r="D43" s="37"/>
-      <c r="E43" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="K43" s="105">
+      <c r="AB42" s="52"/>
+    </row>
+    <row r="43" spans="4:28">
+      <c r="D43" s="46"/>
+      <c r="E43" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="K43" s="52">
         <v>2880266</v>
       </c>
-      <c r="L43" s="105"/>
-      <c r="M43" s="43"/>
-      <c r="O43" s="105">
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="O43" s="52">
         <v>2580602</v>
       </c>
-      <c r="P43" s="105"/>
-      <c r="R43" s="105">
+      <c r="P43" s="52"/>
+      <c r="R43" s="52">
         <v>1877698</v>
       </c>
-      <c r="S43" s="105"/>
-      <c r="U43" s="105">
+      <c r="S43" s="52"/>
+      <c r="U43" s="52">
         <v>1789659</v>
       </c>
-      <c r="V43" s="105"/>
-      <c r="X43" s="105">
+      <c r="V43" s="52"/>
+      <c r="X43" s="52">
         <v>1320000</v>
       </c>
-      <c r="Y43" s="105"/>
-      <c r="AA43" s="105">
+      <c r="Y43" s="52"/>
+      <c r="AA43" s="52">
         <v>1011128</v>
       </c>
-      <c r="AB43" s="105"/>
-    </row>
-    <row r="44" spans="2:28">
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="43"/>
+      <c r="AB43" s="52"/>
+    </row>
+    <row r="44" spans="4:28">
+      <c r="D44" s="46"/>
+      <c r="E44" s="47"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="52"/>
+      <c r="U44" s="52"/>
+      <c r="V44" s="52"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="AA44" s="52"/>
+      <c r="AB44" s="52"/>
     </row>
     <row r="45" spans="2:28">
-      <c r="B45" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="M45" s="43"/>
+      <c r="B45" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="M45" s="52"/>
       <c r="O45" s="3"/>
       <c r="P45" s="6">
         <f>G42-K42</f>
-        <v>317181.20000000019</v>
-      </c>
-      <c r="R45" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="S45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-    </row>
-    <row r="46" spans="2:28">
-      <c r="B46" s="99" t="s">
+        <v>318681.2</v>
+      </c>
+      <c r="R45" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="Z46" s="46"/>
-    </row>
-    <row r="47" spans="2:28">
-      <c r="B47" s="44" t="s">
+      <c r="S45" s="52"/>
+      <c r="U45" s="52"/>
+      <c r="V45" s="52"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="AA45" s="52"/>
+      <c r="AB45" s="52"/>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="Z47" s="46"/>
-    </row>
-    <row r="48" spans="2:28">
-      <c r="B48" s="44" t="s">
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="Z46" s="55"/>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="B47" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="Z48" s="46"/>
-    </row>
-    <row r="49" spans="2:28">
-      <c r="B49" s="44" t="s">
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="Z47" s="55"/>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="Z49" s="45"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="Z48" s="55"/>
+    </row>
+    <row r="49" spans="2:26">
+      <c r="B49" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="Z49" s="54"/>
     </row>
     <row r="50" spans="2:28">
-      <c r="B50" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="37"/>
-      <c r="M50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="AA50" s="43"/>
-      <c r="AB50" s="43"/>
-    </row>
-    <row r="51" spans="2:28">
+      <c r="B50" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="M50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="52"/>
+      <c r="X50" s="52"/>
+      <c r="Y50" s="52"/>
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="52"/>
+    </row>
+    <row r="51" spans="2:26">
       <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
+        <v>96</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
       <c r="N51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="T51" s="5"/>
@@ -3413,9 +4014,9 @@
       <c r="W51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="2:28">
+    <row r="52" spans="2:26">
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N52" s="5"/>
       <c r="Q52" s="5"/>
@@ -3424,52 +4025,63 @@
       <c r="W52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="2:28" ht="12.75" customHeight="1">
-      <c r="B53" s="44"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
-      <c r="Z53" s="45"/>
-    </row>
-    <row r="54" spans="2:28">
-      <c r="B54" s="47"/>
-    </row>
-    <row r="55" spans="2:28">
-      <c r="B55" s="47"/>
-    </row>
-    <row r="56" spans="2:28">
-      <c r="B56" s="47"/>
-    </row>
-    <row r="57" spans="2:28">
-      <c r="B57" s="47"/>
-    </row>
-    <row r="58" spans="2:28">
-      <c r="B58" s="47"/>
+    <row r="53" ht="12.75" customHeight="1" spans="2:26">
+      <c r="B53" s="53"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="54"/>
+      <c r="Z53" s="54"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="56"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="56"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="56"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="56"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:V42"/>
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="AA42:AB42"/>
     <mergeCell ref="G43:H43"/>
@@ -3479,48 +4091,39 @@
     <mergeCell ref="U43:V43"/>
     <mergeCell ref="X43:Y43"/>
     <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D13:D24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.1388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
       <c r="C2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="3:5" ht="14.25">
+    <row r="3" spans="3:5">
       <c r="C3">
         <v>4</v>
       </c>
@@ -3532,7 +4135,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:3">
       <c r="C5">
         <v>1</v>
       </c>
@@ -3555,32 +4158,32 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:3">
       <c r="C9">
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:3">
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:5">
+    <row r="11" spans="3:3">
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="3:3">
       <c r="C12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:3">
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:3">
       <c r="C14">
         <v>2.7</v>
       </c>
@@ -3594,5 +4197,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70AF152-D828-4694-A936-90F1F75DA96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20701B11-2676-4A8F-9241-0DBFCAFA1865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>top-up: red portion</t>
+          <t>cummulative top-up: red portion</t>
         </r>
       </text>
     </comment>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
   <si>
     <t>val</t>
   </si>
@@ -673,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -719,7 +719,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,6 +839,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,33 +880,6 @@
     </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,7 +1159,7 @@
   <dimension ref="B1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43:H43"/>
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1205,42 +1204,42 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="102"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="102"/>
+      <c r="L2" s="110"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="101" t="s">
+      <c r="O2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="102"/>
+      <c r="P2" s="110"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="102"/>
+      <c r="S2" s="110"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="104" t="s">
+      <c r="U2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="105"/>
+      <c r="V2" s="113"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="101">
+      <c r="X2" s="109">
         <v>42401</v>
       </c>
-      <c r="Y2" s="102"/>
+      <c r="Y2" s="110"/>
       <c r="Z2" s="10"/>
-      <c r="AA2" s="101" t="s">
+      <c r="AA2" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="102"/>
+      <c r="AB2" s="110"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
@@ -1336,23 +1335,23 @@
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="48"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="14">
         <v>2500</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="48"/>
+      <c r="O4" s="47"/>
       <c r="P4" s="14">
         <v>2500</v>
       </c>
       <c r="Q4" s="14"/>
-      <c r="R4" s="48"/>
+      <c r="R4" s="47"/>
       <c r="S4" s="14">
         <v>2500</v>
       </c>
       <c r="T4" s="14"/>
-      <c r="U4" s="48"/>
+      <c r="U4" s="47"/>
       <c r="V4" s="14">
         <v>2500</v>
       </c>
@@ -1383,25 +1382,25 @@
       <c r="H5" s="14">
         <v>6000</v>
       </c>
-      <c r="I5" s="100"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="48"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="14">
         <v>9800</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="48"/>
+      <c r="O5" s="47"/>
       <c r="P5" s="14">
         <v>13400</v>
       </c>
       <c r="Q5" s="14"/>
-      <c r="R5" s="48"/>
+      <c r="R5" s="47"/>
       <c r="S5" s="14">
         <v>1300</v>
       </c>
       <c r="T5" s="14"/>
-      <c r="U5" s="48"/>
+      <c r="U5" s="47"/>
       <c r="V5" s="14">
         <v>900</v>
       </c>
@@ -1416,7 +1415,7 @@
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="102" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1432,26 +1431,26 @@
       <c r="H6" s="14">
         <v>51800</v>
       </c>
-      <c r="I6" s="100"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="14">
         <f>1000*(4+2+5+3+7+10+3+5+2+3+1)</f>
         <v>45000</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="48"/>
+      <c r="O6" s="47"/>
       <c r="P6" s="14">
         <v>32000</v>
       </c>
       <c r="Q6" s="14"/>
-      <c r="R6" s="48"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="14">
         <v>0</v>
       </c>
       <c r="T6" s="14"/>
-      <c r="U6" s="48"/>
+      <c r="U6" s="47"/>
       <c r="V6" s="14">
         <v>0</v>
       </c>
@@ -1466,7 +1465,7 @@
       <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1480,24 +1479,24 @@
       <c r="H7" s="13">
         <v>271</v>
       </c>
-      <c r="I7" s="100"/>
-      <c r="K7" s="48"/>
+      <c r="I7" s="99"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="14">
         <v>238</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
-      <c r="O7" s="48"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="Q7" s="14"/>
-      <c r="R7" s="48"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="14">
         <v>564</v>
       </c>
       <c r="T7" s="14"/>
-      <c r="U7" s="48"/>
+      <c r="U7" s="47"/>
       <c r="V7" s="14">
         <v>6100</v>
       </c>
@@ -1512,7 +1511,7 @@
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
@@ -1526,25 +1525,25 @@
       <c r="H8" s="13">
         <v>4400</v>
       </c>
-      <c r="I8" s="100"/>
+      <c r="I8" s="99"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="48"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="14">
         <v>1500</v>
       </c>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="14">
         <v>1500</v>
       </c>
       <c r="Q8" s="14"/>
-      <c r="R8" s="48"/>
+      <c r="R8" s="47"/>
       <c r="S8" s="14">
         <v>1642</v>
       </c>
       <c r="T8" s="14"/>
-      <c r="U8" s="48"/>
+      <c r="U8" s="47"/>
       <c r="V8" s="14">
         <v>1300</v>
       </c>
@@ -1559,7 +1558,7 @@
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="110"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
@@ -1573,34 +1572,34 @@
       <c r="H9" s="13">
         <v>3788</v>
       </c>
-      <c r="I9" s="100"/>
+      <c r="I9" s="99"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="48"/>
+      <c r="K9" s="47"/>
       <c r="L9" s="14">
         <v>1500</v>
       </c>
       <c r="M9" s="14"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="49">
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="48">
         <v>1500</v>
       </c>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="49">
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="48">
         <v>2031</v>
       </c>
-      <c r="T9" s="49"/>
-      <c r="U9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="47"/>
       <c r="V9" s="14">
         <v>107000</v>
       </c>
-      <c r="W9" s="49"/>
+      <c r="W9" s="48"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="14">
         <v>120000</v>
       </c>
-      <c r="Z9" s="49"/>
+      <c r="Z9" s="48"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="14">
         <v>270000</v>
@@ -1610,7 +1609,7 @@
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
@@ -1627,40 +1626,40 @@
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="48"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="14">
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29" t="s">
+      <c r="M10" s="27"/>
+      <c r="N10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52">
+      <c r="O10" s="50"/>
+      <c r="P10" s="51">
         <f>14300+2000</f>
         <v>16300</v>
       </c>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="72">
+      <c r="Q10" s="51"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="71">
         <v>57781</v>
       </c>
-      <c r="T10" s="52"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
     </row>
     <row r="11" spans="2:28" ht="11.25" customHeight="1">
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1674,42 +1673,42 @@
       <c r="H11" s="13">
         <v>370</v>
       </c>
-      <c r="I11" s="100"/>
+      <c r="I11" s="99"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="48"/>
+      <c r="K11" s="47"/>
       <c r="L11" s="14">
         <v>45</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="53" t="s">
+      <c r="M11" s="27"/>
+      <c r="N11" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55" t="s">
+      <c r="O11" s="53"/>
+      <c r="P11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="55">
+      <c r="Q11" s="54"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54">
         <v>-46000</v>
       </c>
-      <c r="T11" s="55"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="72">
+      <c r="T11" s="54"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="71">
         <v>-36000</v>
       </c>
-      <c r="W11" s="55"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="60"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
     </row>
     <row r="12" spans="2:28" ht="14.25" customHeight="1">
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="111"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
@@ -1727,34 +1726,34 @@
         <v>34</v>
       </c>
       <c r="J12" s="13"/>
-      <c r="K12" s="48"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="14">
         <v>34004</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="53" t="s">
+      <c r="M12" s="27"/>
+      <c r="N12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="56">
+      <c r="O12" s="53"/>
+      <c r="P12" s="55">
         <v>5000</v>
       </c>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="56">
+      <c r="Q12" s="54"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="55">
         <v>5000</v>
       </c>
-      <c r="T12" s="55"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="56">
+      <c r="T12" s="54"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="55">
         <v>5000</v>
       </c>
-      <c r="W12" s="55"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="13" t="s">
@@ -1763,7 +1762,7 @@
       <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="105" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1779,26 +1778,26 @@
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="48"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="16">
         <f>P13</f>
         <v>20000</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="57">
+      <c r="O13" s="47"/>
+      <c r="P13" s="56">
         <f>S13</f>
         <v>20000</v>
       </c>
       <c r="Q13" s="14"/>
-      <c r="R13" s="48"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="16">
         <f>Y13</f>
         <v>20000</v>
       </c>
       <c r="T13" s="14"/>
-      <c r="U13" s="48"/>
+      <c r="U13" s="47"/>
       <c r="V13" s="16">
         <f>Y13</f>
         <v>20000</v>
@@ -1822,7 +1821,7 @@
       <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="106"/>
       <c r="E14" s="15" t="s">
         <v>40</v>
       </c>
@@ -1836,26 +1835,26 @@
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="48"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="16">
         <f>P14</f>
         <v>1800</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="48"/>
+      <c r="O14" s="47"/>
       <c r="P14" s="14">
         <f>300*6</f>
         <v>1800</v>
       </c>
       <c r="Q14" s="14"/>
-      <c r="R14" s="48"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="14">
         <f>200*6</f>
         <v>1200</v>
       </c>
       <c r="T14" s="14"/>
-      <c r="U14" s="48"/>
+      <c r="U14" s="47"/>
       <c r="V14" s="14">
         <f>200*6</f>
         <v>1200</v>
@@ -1879,7 +1878,7 @@
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="113"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
@@ -1892,23 +1891,23 @@
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="48"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="14">
         <v>5000</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="48"/>
+      <c r="O15" s="47"/>
       <c r="P15" s="14">
         <v>5000</v>
       </c>
       <c r="Q15" s="14"/>
-      <c r="R15" s="48"/>
+      <c r="R15" s="47"/>
       <c r="S15" s="14">
         <v>5000</v>
       </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="48"/>
+      <c r="U15" s="47"/>
       <c r="V15" s="14">
         <v>5000</v>
       </c>
@@ -1926,7 +1925,7 @@
       <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="113"/>
+      <c r="D16" s="106"/>
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
@@ -1939,23 +1938,23 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="48"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="14">
         <v>90000</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="48"/>
+      <c r="O16" s="47"/>
       <c r="P16" s="14">
         <v>90000</v>
       </c>
       <c r="Q16" s="14"/>
-      <c r="R16" s="48"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="14">
         <v>90000</v>
       </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="48"/>
+      <c r="U16" s="47"/>
       <c r="V16" s="14">
         <v>90000</v>
       </c>
@@ -1971,13 +1970,13 @@
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="100" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="113"/>
+      <c r="D17" s="106"/>
       <c r="E17" s="13" t="s">
         <v>45</v>
       </c>
@@ -1991,26 +1990,26 @@
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="48"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="16">
         <f>P17</f>
         <v>439000</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="48"/>
+      <c r="O17" s="47"/>
       <c r="P17" s="14">
         <f>V17+169000</f>
         <v>439000</v>
       </c>
       <c r="Q17" s="14"/>
-      <c r="R17" s="48"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="14">
         <f>V17+169000*40%</f>
         <v>337600</v>
       </c>
       <c r="T17" s="14"/>
-      <c r="U17" s="48"/>
+      <c r="U17" s="47"/>
       <c r="V17" s="14">
         <v>270000</v>
       </c>
@@ -2022,11 +2021,11 @@
       <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="108"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="113"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
@@ -2042,8 +2041,8 @@
       <c r="K18" s="14">
         <v>200000</v>
       </c>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14">
         <v>200000</v>
@@ -2075,7 +2074,7 @@
       <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="113"/>
+      <c r="D19" s="106"/>
       <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
@@ -2128,8 +2127,8 @@
       <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="113"/>
-      <c r="E20" s="100" t="s">
+      <c r="D20" s="106"/>
+      <c r="E20" s="99" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="13" t="s">
@@ -2178,7 +2177,7 @@
     <row r="21" spans="2:28">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="113"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="13" t="s">
         <v>95</v>
       </c>
@@ -2225,7 +2224,7 @@
       <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="13" t="s">
         <v>49</v>
       </c>
@@ -2287,7 +2286,7 @@
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="113"/>
+      <c r="D23" s="106"/>
       <c r="E23" s="15" t="s">
         <v>53</v>
       </c>
@@ -2306,27 +2305,27 @@
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="59">
+      <c r="N23" s="48"/>
+      <c r="O23" s="58">
         <f>R23</f>
         <v>5000</v>
       </c>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="59">
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="58">
         <f>U23</f>
         <v>5000</v>
       </c>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49">
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48">
         <v>5000</v>
       </c>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="87"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="86"/>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="49"/>
+      <c r="Z23" s="48"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="13"/>
     </row>
@@ -2337,7 +2336,7 @@
       <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="113"/>
+      <c r="D24" s="106"/>
       <c r="E24" s="18" t="s">
         <v>54</v>
       </c>
@@ -2350,37 +2349,37 @@
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61">
+      <c r="J24" s="59"/>
+      <c r="K24" s="60">
         <v>50065</v>
       </c>
-      <c r="L24" s="61"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="29" t="s">
+      <c r="L24" s="60"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="52" t="s">
+      <c r="O24" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52">
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51">
         <v>20000</v>
       </c>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52">
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51">
         <v>20000</v>
       </c>
-      <c r="V24" s="52"/>
-      <c r="W24" s="52"/>
-      <c r="X24" s="72">
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="71">
         <v>30000</v>
       </c>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="61"/>
-      <c r="AB24" s="60"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="59"/>
     </row>
     <row r="25" spans="2:28">
       <c r="B25" s="13" t="s">
@@ -2389,7 +2388,7 @@
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="114"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="13" t="s">
         <v>57</v>
       </c>
@@ -2402,31 +2401,31 @@
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61">
+      <c r="J25" s="59"/>
+      <c r="K25" s="60">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64">
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63">
         <f>15000*3</f>
         <v>45000</v>
       </c>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="60"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="59"/>
     </row>
     <row r="26" spans="2:28">
       <c r="B26" s="13" t="s">
@@ -2450,41 +2449,41 @@
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="62">
+      <c r="J26" s="59"/>
+      <c r="K26" s="61">
         <v>1200</v>
       </c>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="52"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="52">
+      <c r="M26" s="51"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="51">
         <v>1000</v>
       </c>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52">
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51">
         <v>92574</v>
       </c>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52">
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51">
         <v>102000</v>
       </c>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52">
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51">
         <v>55000</v>
       </c>
-      <c r="Y26" s="97" t="s">
+      <c r="Y26" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="72">
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="71">
         <v>5000</v>
       </c>
-      <c r="AB26" s="98"/>
+      <c r="AB26" s="97"/>
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="13" t="s">
@@ -2507,35 +2506,35 @@
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61">
+      <c r="J27" s="59"/>
+      <c r="K27" s="60">
         <v>36000</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66">
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65">
         <v>40000</v>
       </c>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66">
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65">
         <v>27907</v>
       </c>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66">
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65">
         <v>6000</v>
       </c>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66">
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65">
         <v>155000</v>
       </c>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="60"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="59"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="13" t="s">
@@ -2558,33 +2557,33 @@
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="61">
+      <c r="J28" s="59"/>
+      <c r="K28" s="60">
         <v>1000</v>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61">
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60">
         <v>2000</v>
       </c>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61">
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60">
         <v>28176</v>
       </c>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61">
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60">
         <v>20000</v>
       </c>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
-      <c r="Z28" s="61"/>
-      <c r="AA28" s="61"/>
-      <c r="AB28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="59"/>
     </row>
     <row r="29" spans="2:28" ht="3" customHeight="1">
       <c r="B29" s="13"/>
@@ -2595,31 +2594,31 @@
       <c r="G29" s="21"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="61"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
-      <c r="Z29" s="61"/>
-      <c r="AA29" s="61"/>
-      <c r="AB29" s="60"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="59"/>
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="102" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="22" t="s">
@@ -2637,39 +2636,39 @@
       <c r="H30" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="69" t="s">
+      <c r="I30" s="67"/>
+      <c r="J30" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="70">
+      <c r="K30" s="69">
         <v>-201000</v>
       </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="71">
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="70">
         <f>-140000</f>
         <v>-140000</v>
       </c>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-      <c r="U30" s="61"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
-      <c r="Z30" s="61"/>
-      <c r="AA30" s="61"/>
-      <c r="AB30" s="60"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="59"/>
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="110"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="22" t="s">
         <v>19</v>
       </c>
@@ -2683,40 +2682,42 @@
         <f>745+1065+4000</f>
         <v>5810</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74" t="s">
+      <c r="H31" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="70">
+      <c r="K31" s="69">
         <v>285000</v>
       </c>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="71">
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="70">
         <f>176000</f>
         <v>176000</v>
       </c>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="63"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="60"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="59"/>
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="110"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="22" t="s">
         <v>19</v>
       </c>
@@ -2726,49 +2727,49 @@
       <c r="F32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="27">
         <f>6000+100000</f>
         <v>106000</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="52">
+      <c r="I32" s="74"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="51">
         <v>10000</v>
       </c>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52">
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51">
         <v>9000</v>
       </c>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="72">
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="71">
         <v>20000</v>
       </c>
-      <c r="S32" s="72"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="61"/>
-      <c r="AB32" s="60"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="59"/>
     </row>
     <row r="33" spans="2:28" ht="12.75" customHeight="1">
       <c r="B33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="30" t="s">
+      <c r="C33" s="104"/>
+      <c r="D33" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="30" t="s">
         <v>70</v>
       </c>
       <c r="F33" s="20" t="s">
@@ -2777,40 +2778,40 @@
       <c r="G33" s="21">
         <v>304000</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="66">
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="65">
         <v>385000</v>
       </c>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66">
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65">
         <v>598000</v>
       </c>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66">
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65">
         <f>27564</f>
         <v>27564</v>
       </c>
-      <c r="S33" s="61"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="61">
+      <c r="S33" s="60"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="60">
         <v>20000</v>
       </c>
-      <c r="V33" s="61"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="61">
+      <c r="V33" s="60"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="60">
         <v>20000</v>
       </c>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="61">
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="60">
         <v>5000</v>
       </c>
-      <c r="AB33" s="60"/>
+      <c r="AB33" s="59"/>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="13" t="s">
@@ -2833,27 +2834,27 @@
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="61">
+      <c r="J34" s="77"/>
+      <c r="K34" s="60">
         <v>-600</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="61"/>
-      <c r="AA34" s="61"/>
-      <c r="AB34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="59"/>
     </row>
     <row r="35" spans="2:28" ht="3" customHeight="1">
       <c r="B35" s="13"/>
@@ -2864,25 +2865,25 @@
       <c r="G35" s="21"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
-      <c r="V35" s="63"/>
-      <c r="W35" s="63"/>
-      <c r="X35" s="63"/>
-      <c r="Y35" s="61"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="61"/>
-      <c r="AB35" s="60"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="59"/>
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="13" t="s">
@@ -2907,37 +2908,37 @@
         <v>51</v>
       </c>
       <c r="I36" s="13"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="62">
+      <c r="J36" s="59"/>
+      <c r="K36" s="61">
         <v>1600</v>
       </c>
-      <c r="L36" s="29" t="s">
+      <c r="L36" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="52"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="79" t="s">
+      <c r="M36" s="51"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70">
+      <c r="P36" s="69"/>
+      <c r="Q36" s="69"/>
+      <c r="R36" s="69">
         <v>-30000</v>
       </c>
-      <c r="S36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="U36" s="70">
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="69">
         <v>-40000</v>
       </c>
-      <c r="V36" s="70"/>
-      <c r="W36" s="70"/>
-      <c r="X36" s="72">
+      <c r="V36" s="69"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="71">
         <v>-30000</v>
       </c>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="70"/>
-      <c r="AA36" s="61"/>
-      <c r="AB36" s="60"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="59"/>
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="13" t="s">
@@ -2962,44 +2963,44 @@
         <v>51</v>
       </c>
       <c r="I37" s="13"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="61">
+      <c r="J37" s="59"/>
+      <c r="K37" s="60">
         <v>20000</v>
       </c>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="81">
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="80">
         <v>16000</v>
       </c>
-      <c r="P37" s="82" t="s">
+      <c r="P37" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="72">
+      <c r="Q37" s="89"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="71">
         <v>20000</v>
       </c>
-      <c r="T37" s="90"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="72">
+      <c r="T37" s="89"/>
+      <c r="U37" s="50"/>
+      <c r="V37" s="71">
         <v>20000</v>
       </c>
-      <c r="W37" s="90"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
     </row>
     <row r="38" spans="2:28">
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="34"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="11" t="str">
         <f>G3</f>
         <v>in S$</v>
@@ -3030,35 +3031,35 @@
         <f t="shared" ref="O38:AB38" si="2">O3</f>
         <v>in S$</v>
       </c>
-      <c r="P38" s="83" t="str">
+      <c r="P38" s="82" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Q38" s="83">
+      <c r="Q38" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R38" s="83" t="str">
+      <c r="R38" s="82" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="S38" s="83" t="str">
+      <c r="S38" s="82" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="T38" s="83">
+      <c r="T38" s="82">
         <f t="shared" ref="T38" si="3">T3</f>
         <v>0</v>
       </c>
-      <c r="U38" s="83" t="str">
+      <c r="U38" s="82" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="V38" s="83" t="str">
+      <c r="V38" s="82" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="W38" s="83">
+      <c r="W38" s="82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3070,7 +3071,7 @@
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Z38" s="83">
+      <c r="Z38" s="82">
         <f t="shared" ref="Z38" si="4">Z3</f>
         <v>0</v>
       </c>
@@ -3084,12 +3085,12 @@
       </c>
     </row>
     <row r="39" spans="2:28">
-      <c r="C39" s="36">
+      <c r="C39" s="35">
         <f>(G39-G40)+(H39-H40)+(K39-K40)+(L39-L40)+(K43-K44)+(O39-O40)+(P39-P40)+(O43-O44)+(R39-R40)+(S39-S40)+(R43-R44)+(U39-U40)+(V39-V40)+(U43-U44)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37" t="s">
+      <c r="D39" s="36"/>
+      <c r="E39" s="36" t="s">
         <v>77</v>
       </c>
       <c r="G39" s="6">
@@ -3100,7 +3101,7 @@
         <f>SUM(H4:H37)</f>
         <v>727829</v>
       </c>
-      <c r="I39" s="84"/>
+      <c r="I39" s="83"/>
       <c r="K39" s="6">
         <f>SUM(K4:K37)</f>
         <v>1962265</v>
@@ -3109,7 +3110,7 @@
         <f>SUM(L4:L37)</f>
         <v>683087</v>
       </c>
-      <c r="M39" s="85"/>
+      <c r="M39" s="84"/>
       <c r="O39" s="6">
         <f>SUM(O4:O37)</f>
         <v>1735000</v>
@@ -3152,8 +3153,8 @@
       </c>
     </row>
     <row r="40" spans="2:28">
-      <c r="D40" s="37"/>
-      <c r="E40" s="38" t="s">
+      <c r="D40" s="36"/>
+      <c r="E40" s="37" t="s">
         <v>78</v>
       </c>
       <c r="G40" s="6">
@@ -3168,7 +3169,7 @@
       <c r="L40" s="6">
         <v>683087</v>
       </c>
-      <c r="M40" s="85"/>
+      <c r="M40" s="84"/>
       <c r="O40" s="6">
         <v>1735000</v>
       </c>
@@ -3201,15 +3202,15 @@
       </c>
     </row>
     <row r="41" spans="2:28">
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="35">
         <v>1.36</v>
       </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
       <c r="L41" s="5" t="s">
         <v>80</v>
       </c>
@@ -3217,277 +3218,277 @@
       <c r="P41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="S41" s="85"/>
+      <c r="S41" s="84"/>
       <c r="U41" s="6"/>
       <c r="V41"/>
     </row>
     <row r="42" spans="2:28" s="4" customFormat="1">
-      <c r="D42" s="40"/>
-      <c r="E42" s="41" t="s">
+      <c r="D42" s="39"/>
+      <c r="E42" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G42" s="103">
+      <c r="G42" s="111">
         <f>G43/$F$41</f>
         <v>2352251.0588235292</v>
       </c>
-      <c r="H42" s="103"/>
+      <c r="H42" s="111"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="42"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="41"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="93"/>
-      <c r="R42" s="94"/>
-      <c r="S42" s="93"/>
-      <c r="T42" s="93"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="93"/>
-      <c r="W42" s="93"/>
-      <c r="Z42" s="93"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="92"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
+      <c r="Z42" s="92"/>
     </row>
     <row r="43" spans="2:28">
-      <c r="D43" s="37"/>
-      <c r="E43" s="37" t="s">
+      <c r="D43" s="36"/>
+      <c r="E43" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G43" s="106">
+      <c r="G43" s="108">
         <f>H39*$F$41+G39</f>
         <v>3199061.44</v>
       </c>
-      <c r="H43" s="106"/>
-      <c r="K43" s="106">
+      <c r="H43" s="108"/>
+      <c r="K43" s="108">
         <f>ROUND(L39*1.3439+K39,0)</f>
         <v>2880266</v>
       </c>
-      <c r="L43" s="106"/>
-      <c r="M43" s="43"/>
-      <c r="O43" s="106">
+      <c r="L43" s="108"/>
+      <c r="M43" s="42"/>
+      <c r="O43" s="108">
         <f>ROUND(P39*1.3465+O39,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P43" s="106"/>
-      <c r="R43" s="106">
+      <c r="P43" s="108"/>
+      <c r="R43" s="108">
         <f>ROUND(S39*1.37+R39,0)</f>
         <v>1877698</v>
       </c>
-      <c r="S43" s="106"/>
-      <c r="U43" s="106">
+      <c r="S43" s="108"/>
+      <c r="U43" s="108">
         <f>V39*1.37+U39</f>
         <v>1789659</v>
       </c>
-      <c r="V43" s="106"/>
-      <c r="X43" s="106">
+      <c r="V43" s="108"/>
+      <c r="X43" s="108">
         <f>Y39*1.36+X39</f>
         <v>1320000.2</v>
       </c>
-      <c r="Y43" s="106"/>
-      <c r="AA43" s="106">
+      <c r="Y43" s="108"/>
+      <c r="AA43" s="108">
         <f>AB39*1.4+AA39</f>
         <v>1011128</v>
       </c>
-      <c r="AB43" s="106"/>
+      <c r="AB43" s="108"/>
     </row>
     <row r="44" spans="2:28">
-      <c r="D44" s="37"/>
-      <c r="E44" s="38" t="s">
+      <c r="D44" s="36"/>
+      <c r="E44" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="K44" s="106">
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="K44" s="108">
         <v>2880266</v>
       </c>
-      <c r="L44" s="106"/>
-      <c r="M44" s="43"/>
-      <c r="O44" s="106">
+      <c r="L44" s="108"/>
+      <c r="M44" s="42"/>
+      <c r="O44" s="108">
         <v>2580602</v>
       </c>
-      <c r="P44" s="106"/>
-      <c r="R44" s="106">
+      <c r="P44" s="108"/>
+      <c r="R44" s="108">
         <v>1877698</v>
       </c>
-      <c r="S44" s="106"/>
-      <c r="U44" s="106">
+      <c r="S44" s="108"/>
+      <c r="U44" s="108">
         <v>1789659</v>
       </c>
-      <c r="V44" s="106"/>
-      <c r="X44" s="106">
+      <c r="V44" s="108"/>
+      <c r="X44" s="108">
         <v>1320000</v>
       </c>
-      <c r="Y44" s="106"/>
-      <c r="AA44" s="106">
+      <c r="Y44" s="108"/>
+      <c r="AA44" s="108">
         <v>1011128</v>
       </c>
-      <c r="AB44" s="106"/>
+      <c r="AB44" s="108"/>
     </row>
     <row r="45" spans="2:28">
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
     </row>
     <row r="46" spans="2:28">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="M46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="M46" s="42"/>
       <c r="O46" s="3"/>
       <c r="P46" s="6">
         <f>G43-K43</f>
         <v>318795.43999999994</v>
       </c>
-      <c r="R46" s="95" t="s">
+      <c r="R46" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="S46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="43"/>
+      <c r="S46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
     </row>
     <row r="47" spans="2:28">
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="Z47" s="46"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="Z47" s="45"/>
     </row>
     <row r="48" spans="2:28">
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="Z48" s="46"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="Z48" s="45"/>
     </row>
     <row r="49" spans="2:28">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="Z49" s="46"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="Z49" s="45"/>
     </row>
     <row r="50" spans="2:28">
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="Z50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="Z50" s="44"/>
     </row>
     <row r="51" spans="2:28">
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="37"/>
-      <c r="M51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="AA51" s="43"/>
-      <c r="AB51" s="43"/>
+      <c r="D51" s="36"/>
+      <c r="M51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="42"/>
     </row>
     <row r="52" spans="2:28">
       <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
       <c r="N52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="T52" s="5"/>
@@ -3507,52 +3508,57 @@
       <c r="Z53" s="5"/>
     </row>
     <row r="54" spans="2:28" ht="12.75" customHeight="1">
-      <c r="B54" s="44"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="Z54" s="45"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="Z54" s="44"/>
     </row>
     <row r="55" spans="2:28">
-      <c r="B55" s="47"/>
+      <c r="B55" s="46"/>
     </row>
     <row r="56" spans="2:28">
-      <c r="B56" s="47"/>
+      <c r="B56" s="46"/>
     </row>
     <row r="57" spans="2:28">
-      <c r="B57" s="47"/>
+      <c r="B57" s="46"/>
     </row>
     <row r="58" spans="2:28">
-      <c r="B58" s="47"/>
+      <c r="B58" s="46"/>
     </row>
     <row r="59" spans="2:28">
-      <c r="B59" s="47"/>
+      <c r="B59" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D13:D25"/>
-    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="AA43:AB43"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="K44:L44"/>
@@ -3566,16 +3572,11 @@
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="U43:V43"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D13:D25"/>
+    <mergeCell ref="X43:Y43"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20701B11-2676-4A8F-9241-0DBFCAFA1865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B63877-3E1B-400D-AB17-F5FAC200D60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,15 +92,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>val</t>
   </si>
   <si>
     <t>exact≜to'000</t>
-  </si>
-  <si>
-    <t>quick n dirty Jan25</t>
   </si>
   <si>
     <t>Feb24{bonus</t>
@@ -251,9 +248,6 @@
     <t>mom</t>
   </si>
   <si>
-    <t>&lt;lateFeb</t>
-  </si>
-  <si>
     <t>&lt;est</t>
   </si>
   <si>
@@ -392,9 +386,6 @@
     <t>wifeOA/SA#24k red</t>
   </si>
   <si>
-    <t>&lt;lateFe</t>
-  </si>
-  <si>
     <t>BOC CNY 70k</t>
   </si>
   <si>
@@ -402,6 +393,9 @@
   </si>
   <si>
     <t>存款:153+AUM</t>
+  </si>
+  <si>
+    <t>Feb25{bonus</t>
   </si>
 </sst>
 </file>
@@ -673,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -865,6 +859,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1159,14 +1156,14 @@
   <dimension ref="B1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
@@ -1204,74 +1201,72 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="110"/>
+      <c r="G2" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="111"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="110"/>
+      <c r="K2" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="111"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="109" t="s">
+      <c r="O2" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="109" t="s">
+      <c r="S2" s="111"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="110"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="112" t="s">
+      <c r="V2" s="114"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="110">
+        <v>42401</v>
+      </c>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="113"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="109">
-        <v>42401</v>
-      </c>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB2" s="110"/>
+      <c r="AB2" s="111"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
@@ -1280,7 +1275,7 @@
         <v>in S$</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="11" t="str">
@@ -1288,7 +1283,7 @@
         <v>in S$</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T3" s="12"/>
       <c r="U3" s="11" t="str">
@@ -1296,38 +1291,38 @@
         <v>in S$</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W3" s="12"/>
       <c r="X3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="12"/>
       <c r="AA3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:28">
       <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="14">
@@ -1364,19 +1359,19 @@
     </row>
     <row r="5" spans="2:28">
       <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="14">
@@ -1413,19 +1408,19 @@
     </row>
     <row r="6" spans="2:28">
       <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="D6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="14">
@@ -1463,17 +1458,17 @@
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="103"/>
       <c r="D7" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
@@ -1488,7 +1483,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="47"/>
       <c r="P7" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="47"/>
@@ -1509,17 +1504,17 @@
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="103"/>
       <c r="D8" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13">
@@ -1556,17 +1551,17 @@
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="103"/>
       <c r="D9" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
@@ -1607,17 +1602,17 @@
     </row>
     <row r="10" spans="2:28">
       <c r="B10" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="103"/>
       <c r="D10" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
@@ -1633,7 +1628,7 @@
       </c>
       <c r="M10" s="27"/>
       <c r="N10" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="50"/>
       <c r="P10" s="51">
@@ -1657,17 +1652,17 @@
     </row>
     <row r="11" spans="2:28" ht="11.25" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="103"/>
       <c r="D11" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
@@ -1681,11 +1676,11 @@
       </c>
       <c r="M11" s="27"/>
       <c r="N11" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="53"/>
       <c r="P11" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="54"/>
       <c r="R11" s="53"/>
@@ -1706,24 +1701,24 @@
     </row>
     <row r="12" spans="2:28" ht="14.25" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="104"/>
       <c r="D12" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="14">
         <v>180000</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="47"/>
@@ -1732,7 +1727,7 @@
       </c>
       <c r="M12" s="27"/>
       <c r="N12" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="53"/>
       <c r="P12" s="55">
@@ -1757,19 +1752,19 @@
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="E13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="16">
@@ -1816,17 +1811,17 @@
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="106"/>
       <c r="E14" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13">
@@ -1873,17 +1868,17 @@
     </row>
     <row r="15" spans="2:28" ht="12.75" customHeight="1">
       <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="D15" s="106"/>
       <c r="E15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="14">
@@ -1920,21 +1915,21 @@
     </row>
     <row r="16" spans="2:28" ht="13.15" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="106"/>
       <c r="E16" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="13"/>
@@ -1971,17 +1966,17 @@
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="106"/>
       <c r="E17" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="16">
@@ -2023,14 +2018,14 @@
     <row r="18" spans="2:28">
       <c r="B18" s="101"/>
       <c r="C18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="106"/>
       <c r="E18" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="14">
         <v>200000</v>
@@ -2069,17 +2064,17 @@
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="106"/>
       <c r="E19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="G19" s="14">
         <v>750000</v>
@@ -2122,17 +2117,17 @@
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D20" s="106"/>
       <c r="E20" s="99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="14">
         <f>2700+83000</f>
@@ -2179,10 +2174,10 @@
       <c r="C21" s="13"/>
       <c r="D21" s="106"/>
       <c r="E21" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="14">
         <v>15800</v>
@@ -2219,25 +2214,23 @@
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D22" s="106"/>
       <c r="E22" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="14">
         <f>47000+242000+74000</f>
         <v>363000</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="14">
@@ -2276,22 +2269,22 @@
         <v>47700</v>
       </c>
       <c r="AB22" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:28">
       <c r="B23" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="106"/>
       <c r="E23" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="14">
         <v>14000</v>
@@ -2331,17 +2324,17 @@
     </row>
     <row r="24" spans="2:28">
       <c r="B24" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="106"/>
       <c r="E24" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="14">
         <f>(300000-228000)+(50065*2)+(250774-190000)</f>
@@ -2356,10 +2349,10 @@
       <c r="L24" s="60"/>
       <c r="M24" s="61"/>
       <c r="N24" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O24" s="51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
@@ -2383,17 +2376,17 @@
     </row>
     <row r="25" spans="2:28">
       <c r="B25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="D25" s="107"/>
       <c r="E25" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="14">
         <f>15000*5</f>
@@ -2429,19 +2422,19 @@
     </row>
     <row r="26" spans="2:28">
       <c r="B26" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="16">
         <f>K26</f>
@@ -2454,7 +2447,7 @@
         <v>1200</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M26" s="51"/>
       <c r="N26" s="64"/>
@@ -2477,7 +2470,7 @@
         <v>55000</v>
       </c>
       <c r="Y26" s="96" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z26" s="51"/>
       <c r="AA26" s="71">
@@ -2487,22 +2480,22 @@
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="14">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -2538,19 +2531,19 @@
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="D28" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="14">
         <v>2000</v>
@@ -2616,29 +2609,27 @@
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="102" t="s">
-        <v>22</v>
-      </c>
       <c r="D30" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25">
         <v>2300</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="H30" s="20"/>
       <c r="I30" s="67"/>
       <c r="J30" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K30" s="69">
         <v>-201000</v>
@@ -2666,28 +2657,26 @@
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="103"/>
       <c r="D31" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="25">
         <f>745+1065+4000</f>
         <v>5810</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="H31" s="20"/>
       <c r="I31" s="72"/>
       <c r="J31" s="73" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K31" s="69">
         <v>285000</v>
@@ -2715,24 +2704,24 @@
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="103"/>
       <c r="D32" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" s="27">
         <f>6000+100000</f>
         <v>106000</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I32" s="74"/>
       <c r="J32" s="75"/>
@@ -2763,20 +2752,20 @@
     </row>
     <row r="33" spans="2:28" ht="12.75" customHeight="1">
       <c r="B33" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="104"/>
       <c r="D33" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="21">
-        <v>304000</v>
+        <v>324000</v>
       </c>
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
@@ -2815,22 +2804,22 @@
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="21">
-        <v>-7000</v>
+        <v>-4000</v>
       </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
@@ -2887,38 +2876,36 @@
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="14">
         <v>13000</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>51</v>
-      </c>
+      <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="59"/>
       <c r="K36" s="61">
         <v>1600</v>
       </c>
       <c r="L36" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M36" s="51"/>
       <c r="N36" s="64"/>
       <c r="O36" s="78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P36" s="69"/>
       <c r="Q36" s="69"/>
@@ -2942,26 +2929,24 @@
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="14">
-        <v>23500</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>51</v>
-      </c>
+        <v>23000</v>
+      </c>
+      <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="59"/>
       <c r="K37" s="60">
@@ -2974,7 +2959,7 @@
         <v>16000</v>
       </c>
       <c r="P37" s="81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q37" s="89"/>
       <c r="R37" s="90"/>
@@ -2995,7 +2980,7 @@
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -3009,9 +2994,9 @@
         <f>H3</f>
         <v>in USD</v>
       </c>
-      <c r="I38" s="11" t="str">
+      <c r="I38" s="11">
         <f>I3</f>
-        <v>&lt;lateFeb</v>
+        <v>0</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="str">
@@ -3085,17 +3070,17 @@
       </c>
     </row>
     <row r="39" spans="2:28">
-      <c r="C39" s="35">
-        <f>(G39-G40)+(H39-H40)+(K39-K40)+(L39-L40)+(K43-K44)+(O39-O40)+(P39-P40)+(O43-O44)+(R39-R40)+(S39-S40)+(R43-R44)+(U39-U40)+(V39-V40)+(U43-U44)</f>
+      <c r="C39" s="109">
+        <f>ABS(G39-G40)+ABS(H39-H40)+ABS(K39-K40)+ABS(L39-L40)+ABS(K43-K44)+ABS(O39-O40)+ABS(P39-P40)+ABS(O43-O44)+ABS(R39-R40)+ABS(S39-S40)+ABS(R43-R44)+ABS(U39-U40)+ABS(V39-V40)+ABS(U43-U44)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="36"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G39" s="6">
         <f>SUM(G4:G37)</f>
-        <v>2209214</v>
+        <v>2232714</v>
       </c>
       <c r="H39" s="6">
         <f>SUM(H4:H37)</f>
@@ -3155,10 +3140,10 @@
     <row r="40" spans="2:28">
       <c r="D40" s="36"/>
       <c r="E40" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" s="6">
-        <v>2209214</v>
+        <v>2232714</v>
       </c>
       <c r="H40" s="6">
         <v>727829</v>
@@ -3203,20 +3188,20 @@
     </row>
     <row r="41" spans="2:28">
       <c r="E41" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" s="35">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
       <c r="L41" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M41" s="5"/>
       <c r="P41" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S41" s="84"/>
       <c r="U41" s="6"/>
@@ -3225,20 +3210,20 @@
     <row r="42" spans="2:28" s="4" customFormat="1">
       <c r="D42" s="39"/>
       <c r="E42" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="111">
+        <v>80</v>
+      </c>
+      <c r="G42" s="112">
         <f>G43/$F$41</f>
-        <v>2352251.0588235292</v>
-      </c>
-      <c r="H42" s="111"/>
+        <v>2394033.4776119404</v>
+      </c>
+      <c r="H42" s="112"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="111"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112"/>
       <c r="M42" s="41"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="111"/>
-      <c r="P42" s="111"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
       <c r="Q42" s="92"/>
       <c r="R42" s="93"/>
       <c r="S42" s="92"/>
@@ -3251,11 +3236,11 @@
     <row r="43" spans="2:28">
       <c r="D43" s="36"/>
       <c r="E43" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G43" s="108">
         <f>H39*$F$41+G39</f>
-        <v>3199061.44</v>
+        <v>3208004.8600000003</v>
       </c>
       <c r="H43" s="108"/>
       <c r="K43" s="108">
@@ -3293,7 +3278,7 @@
     <row r="44" spans="2:28">
       <c r="D44" s="36"/>
       <c r="E44" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" s="108"/>
       <c r="H44" s="108"/>
@@ -3344,7 +3329,7 @@
     </row>
     <row r="46" spans="2:28">
       <c r="B46" s="43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
@@ -3358,10 +3343,10 @@
       <c r="O46" s="3"/>
       <c r="P46" s="6">
         <f>G43-K43</f>
-        <v>318795.43999999994</v>
+        <v>327738.86000000034</v>
       </c>
       <c r="R46" s="94" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S46" s="42"/>
       <c r="U46" s="42"/>
@@ -3373,7 +3358,7 @@
     </row>
     <row r="47" spans="2:28">
       <c r="B47" s="98" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K47" s="45"/>
       <c r="L47" s="45"/>
@@ -3391,7 +3376,7 @@
     </row>
     <row r="48" spans="2:28">
       <c r="B48" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
@@ -3417,7 +3402,7 @@
     </row>
     <row r="49" spans="2:28">
       <c r="B49" s="43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
@@ -3443,7 +3428,7 @@
     </row>
     <row r="50" spans="2:28">
       <c r="B50" s="43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
@@ -3470,7 +3455,7 @@
     </row>
     <row r="51" spans="2:28">
       <c r="B51" s="98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D51" s="36"/>
       <c r="M51" s="42"/>
@@ -3485,7 +3470,7 @@
     </row>
     <row r="52" spans="2:28">
       <c r="B52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
@@ -3498,7 +3483,7 @@
     </row>
     <row r="53" spans="2:28">
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N53" s="5"/>
       <c r="Q53" s="5"/>
@@ -3548,7 +3533,7 @@
       <c r="B59" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="G42:H42"/>
@@ -3577,6 +3562,7 @@
     <mergeCell ref="C30:C33"/>
     <mergeCell ref="D13:D25"/>
     <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3599,7 +3585,7 @@
   <sheetData>
     <row r="2" spans="3:5">
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1"/>
     </row>

--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
   <si>
     <t>val</t>
   </si>
@@ -290,7 +290,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>: Citi+D+AUM</t>
+      <t>:C+D+AUM</t>
     </r>
   </si>
   <si>
@@ -303,13 +303,16 @@
     <t>存款:153+AUM</t>
   </si>
   <si>
-    <t>ex-AUM   &gt;&gt;&gt;</t>
+    <t>exAUM&gt;</t>
   </si>
   <si>
     <t>mLock</t>
   </si>
   <si>
     <t>存款 ex-Poems</t>
+  </si>
+  <si>
+    <t>&lt;checked 3x</t>
   </si>
   <si>
     <t>NA</t>
@@ -394,17 +397,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="[$USD]\ #,##0"/>
-    <numFmt numFmtId="180" formatCode="[$SGD]\ #,##0"/>
-    <numFmt numFmtId="181" formatCode="[$SGD]\ #,##0.00"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="181" formatCode="[$SGD]\ #,##0"/>
+    <numFmt numFmtId="182" formatCode="[$SGD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -444,11 +448,6 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.349986266670736"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -1096,152 +1095,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1286,7 +1285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1312,20 +1310,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1343,19 +1339,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1371,14 +1370,15 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1401,8 +1401,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1414,8 +1416,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1425,7 +1427,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1434,10 +1436,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1764,8 +1766,8 @@
   <sheetPr/>
   <dimension ref="B1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1779,7 +1781,7 @@
     <col min="7" max="7" width="9.13888888888889" customWidth="1"/>
     <col min="8" max="8" width="7.42592592592593" customWidth="1"/>
     <col min="9" max="9" width="0.425925925925926" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="10" max="10" width="7.33333333333333" customWidth="1"/>
     <col min="11" max="11" width="9.13888888888889" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.13888888888889" style="6" customWidth="1"/>
     <col min="13" max="13" width="0.425925925925926" style="6" customWidth="1"/>
@@ -1832,10 +1834,10 @@
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
-      <c r="U2" s="96" t="s">
+      <c r="U2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="97"/>
+      <c r="V2" s="98"/>
       <c r="W2" s="11"/>
       <c r="X2" s="10">
         <v>42401</v>
@@ -1986,7 +1988,7 @@
       <c r="H5" s="15">
         <v>6000</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="14"/>
       <c r="K5" s="58"/>
       <c r="L5" s="15">
@@ -2035,7 +2037,7 @@
       <c r="H6" s="15">
         <v>51800</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="14"/>
       <c r="K6" s="58"/>
       <c r="L6" s="15">
@@ -2083,7 +2085,7 @@
       <c r="H7" s="14">
         <v>271</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="17"/>
       <c r="K7" s="58"/>
       <c r="L7" s="15">
         <v>238</v>
@@ -2129,7 +2131,7 @@
       <c r="H8" s="14">
         <v>4400</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="14"/>
       <c r="K8" s="58"/>
       <c r="L8" s="15">
@@ -2176,7 +2178,7 @@
       <c r="H9" s="14">
         <v>3788</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="14"/>
       <c r="K9" s="58"/>
       <c r="L9" s="15">
@@ -2235,29 +2237,29 @@
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="38" t="s">
+      <c r="M10" s="36"/>
+      <c r="N10" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="62">
+      <c r="O10" s="62"/>
+      <c r="P10" s="63">
         <f>14300+2000</f>
         <v>16300</v>
       </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="82">
+      <c r="Q10" s="63"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="83">
         <v>57781</v>
       </c>
-      <c r="T10" s="62"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
     </row>
     <row r="11" ht="11.25" customHeight="1" spans="2:28">
       <c r="B11" s="14" t="s">
@@ -2277,36 +2279,36 @@
       <c r="H11" s="14">
         <v>370</v>
       </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="14"/>
       <c r="K11" s="58"/>
       <c r="L11" s="15">
         <v>45</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="63" t="s">
+      <c r="M11" s="36"/>
+      <c r="N11" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="64"/>
-      <c r="P11" s="65" t="s">
+      <c r="O11" s="65"/>
+      <c r="P11" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="65">
+      <c r="Q11" s="66"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="66">
         <v>-46000</v>
       </c>
-      <c r="T11" s="65"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="82">
+      <c r="T11" s="66"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="83">
         <v>-36000</v>
       </c>
-      <c r="W11" s="65"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="2:28">
       <c r="B12" s="14" t="s">
@@ -2334,30 +2336,30 @@
       <c r="L12" s="15">
         <v>34004</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="63" t="s">
+      <c r="M12" s="36"/>
+      <c r="N12" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="64"/>
-      <c r="P12" s="66">
+      <c r="O12" s="65"/>
+      <c r="P12" s="67">
         <v>5000</v>
       </c>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="66">
+      <c r="Q12" s="66"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="67">
         <v>5000</v>
       </c>
-      <c r="T12" s="65"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="66">
+      <c r="T12" s="66"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="67">
         <v>5000</v>
       </c>
-      <c r="W12" s="65"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="14" t="s">
@@ -2390,7 +2392,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="15"/>
       <c r="O13" s="58"/>
-      <c r="P13" s="67">
+      <c r="P13" s="68">
         <f>S13</f>
         <v>20000</v>
       </c>
@@ -2645,8 +2647,8 @@
       <c r="K18" s="15">
         <v>200000</v>
       </c>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15">
         <v>200000</v>
@@ -2732,7 +2734,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="22"/>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="17" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="14" t="s">
@@ -2908,13 +2910,13 @@
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="59"/>
-      <c r="O23" s="69">
+      <c r="O23" s="70">
         <f>R23</f>
         <v>5000</v>
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59"/>
-      <c r="R23" s="69">
+      <c r="R23" s="70">
         <f>U23</f>
         <v>5000</v>
       </c>
@@ -2925,7 +2927,7 @@
       </c>
       <c r="V23" s="59"/>
       <c r="W23" s="59"/>
-      <c r="X23" s="99"/>
+      <c r="X23" s="100"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="59"/>
       <c r="AA23" s="15"/>
@@ -2939,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="22"/>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="14" t="s">
@@ -2951,37 +2953,37 @@
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71">
+      <c r="J24" s="71"/>
+      <c r="K24" s="72">
         <v>50065</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="38" t="s">
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="O24" s="62" t="s">
+      <c r="O24" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62">
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63">
         <v>20000</v>
       </c>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62">
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63">
         <v>20000</v>
       </c>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="82">
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="83">
         <v>30000</v>
       </c>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="70"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="71"/>
     </row>
     <row r="25" spans="2:28">
       <c r="B25" s="14" t="s">
@@ -2990,7 +2992,7 @@
       <c r="C25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="28"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="14" t="s">
         <v>58</v>
       </c>
@@ -3003,31 +3005,31 @@
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71">
+      <c r="J25" s="71"/>
+      <c r="K25" s="72">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74">
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75">
         <f>15000*3</f>
         <v>45000</v>
       </c>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="70"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="71"/>
     </row>
     <row r="26" spans="2:28">
       <c r="B26" s="14" t="s">
@@ -3051,41 +3053,41 @@
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="72">
+      <c r="J26" s="71"/>
+      <c r="K26" s="73">
         <v>1200</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="M26" s="62"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="62">
+      <c r="M26" s="63"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="63">
         <v>1000</v>
       </c>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62">
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63">
         <v>92574</v>
       </c>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62">
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63">
         <v>102000</v>
       </c>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62">
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63">
         <v>55000</v>
       </c>
-      <c r="Y26" s="109" t="s">
+      <c r="Y26" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="82">
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="83">
         <v>5000</v>
       </c>
-      <c r="AB26" s="110"/>
+      <c r="AB26" s="111"/>
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="14" t="s">
@@ -3108,35 +3110,35 @@
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="71">
+      <c r="J27" s="71"/>
+      <c r="K27" s="72">
         <v>36000</v>
       </c>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76">
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77">
         <v>40000</v>
       </c>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76">
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77">
         <v>27907</v>
       </c>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76">
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77">
         <v>6000</v>
       </c>
-      <c r="V27" s="76"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="76">
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77">
         <v>155000</v>
       </c>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="76"/>
-      <c r="AB27" s="70"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="71"/>
     </row>
     <row r="28" spans="2:28">
       <c r="B28" s="14" t="s">
@@ -3159,62 +3161,62 @@
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71">
+      <c r="J28" s="71"/>
+      <c r="K28" s="72">
         <v>1000</v>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71">
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72">
         <v>2000</v>
       </c>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71">
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72">
         <v>28176</v>
       </c>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71">
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72">
         <v>20000</v>
       </c>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="70"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="72"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="71"/>
     </row>
     <row r="29" ht="3" customHeight="1" spans="2:28">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="70"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="71"/>
     </row>
     <row r="30" spans="2:28">
       <c r="B30" s="14" t="s">
@@ -3223,193 +3225,195 @@
       <c r="C30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="34">
         <v>2300</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="79" t="s">
+      <c r="H30" s="29"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="80">
+      <c r="K30" s="81">
         <v>-201000</v>
       </c>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="81">
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="82">
         <f>-140000</f>
         <v>-140000</v>
       </c>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="70"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="71"/>
     </row>
     <row r="31" spans="2:28">
       <c r="B31" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="18"/>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="34">
         <f>745+1055+4000</f>
         <v>5800</v>
       </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="84" t="s">
+      <c r="H31" s="29"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="80">
+      <c r="K31" s="81">
         <v>285000</v>
       </c>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="81">
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="82">
         <f>176000</f>
         <v>176000</v>
       </c>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="70"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="72"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="71"/>
     </row>
     <row r="32" spans="2:28">
       <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="18"/>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="32" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="36">
         <f>6000+100000</f>
         <v>106000</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="37"/>
+      <c r="I32" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="85"/>
       <c r="J32" s="86"/>
-      <c r="K32" s="62">
+      <c r="K32" s="63">
         <v>10000</v>
       </c>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62">
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63">
         <v>9000</v>
       </c>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="82">
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="83">
         <v>20000</v>
       </c>
-      <c r="S32" s="82"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="70"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="71"/>
     </row>
     <row r="33" ht="12.75" customHeight="1" spans="2:28">
       <c r="B33" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="19"/>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="30">
         <v>324000</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="76">
+      <c r="H33" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="87"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="77">
         <v>385000</v>
       </c>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76">
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77">
         <v>598000</v>
       </c>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76">
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77">
         <f>27564</f>
         <v>27564</v>
       </c>
-      <c r="S33" s="71"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="71">
+      <c r="S33" s="72"/>
+      <c r="T33" s="77"/>
+      <c r="U33" s="72">
         <v>20000</v>
       </c>
-      <c r="V33" s="71"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="71">
+      <c r="V33" s="72"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="72">
         <v>20000</v>
       </c>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="71">
+      <c r="Y33" s="72"/>
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="72">
         <v>5000</v>
       </c>
-      <c r="AB33" s="70"/>
+      <c r="AB33" s="71"/>
     </row>
     <row r="34" spans="2:28">
       <c r="B34" s="14" t="s">
@@ -3419,82 +3423,82 @@
         <v>36</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="E34" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="30">
         <v>-4000</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="71">
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="72">
         <v>-600</v>
       </c>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="70"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="71"/>
     </row>
     <row r="35" ht="3" customHeight="1" spans="2:28">
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="70"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="72"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="71"/>
     </row>
     <row r="36" spans="2:28">
       <c r="B36" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>48</v>
@@ -3504,37 +3508,37 @@
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="72">
+      <c r="J36" s="71"/>
+      <c r="K36" s="73">
         <v>1600</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="62"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="80">
+      <c r="M36" s="63"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81">
         <v>-30000</v>
       </c>
-      <c r="S36" s="80"/>
-      <c r="T36" s="80"/>
-      <c r="U36" s="80">
+      <c r="S36" s="81"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81">
         <v>-40000</v>
       </c>
-      <c r="V36" s="80"/>
-      <c r="W36" s="80"/>
-      <c r="X36" s="82">
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="83">
         <v>-30000</v>
       </c>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="80"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="70"/>
+      <c r="Y36" s="83"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="71"/>
     </row>
     <row r="37" spans="2:28">
       <c r="B37" s="14" t="s">
@@ -3546,8 +3550,8 @@
       <c r="D37" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>79</v>
+      <c r="E37" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>18</v>
@@ -3557,44 +3561,44 @@
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="71">
+      <c r="J37" s="71"/>
+      <c r="K37" s="72">
         <v>20000</v>
       </c>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="91">
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="92">
         <v>16000</v>
       </c>
-      <c r="P37" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="103"/>
-      <c r="S37" s="82">
+      <c r="P37" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="83">
         <v>20000</v>
       </c>
-      <c r="T37" s="102"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="82">
+      <c r="T37" s="103"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="83">
         <v>20000</v>
       </c>
-      <c r="W37" s="102"/>
-      <c r="X37" s="104"/>
-      <c r="Y37" s="70"/>
-      <c r="Z37" s="102"/>
-      <c r="AA37" s="70"/>
-      <c r="AB37" s="70"/>
+      <c r="W37" s="103"/>
+      <c r="X37" s="105"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="103"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
     </row>
     <row r="38" spans="2:28">
-      <c r="B38" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="43"/>
+      <c r="B38" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="12" t="str">
         <f>G3</f>
         <v>in S$</v>
@@ -3625,35 +3629,35 @@
         <f t="shared" ref="O38:AB38" si="2">O3</f>
         <v>in S$</v>
       </c>
-      <c r="P38" s="93" t="str">
+      <c r="P38" s="94" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Q38" s="93">
+      <c r="Q38" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R38" s="93" t="str">
+      <c r="R38" s="94" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="S38" s="93" t="str">
+      <c r="S38" s="94" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="T38" s="93">
+      <c r="T38" s="94">
         <f t="shared" ref="T38" si="3">T3</f>
         <v>0</v>
       </c>
-      <c r="U38" s="93" t="str">
+      <c r="U38" s="94" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="V38" s="93" t="str">
+      <c r="V38" s="94" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="W38" s="93">
+      <c r="W38" s="94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3665,7 +3669,7 @@
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Z38" s="93">
+      <c r="Z38" s="94">
         <f t="shared" ref="Z38" si="4">Z3</f>
         <v>0</v>
       </c>
@@ -3679,13 +3683,13 @@
       </c>
     </row>
     <row r="39" spans="3:28">
-      <c r="C39" s="45">
+      <c r="C39" s="44">
         <f>ABS(G39-G40)+ABS(H39-H40)+ABS(K39-K40)+ABS(L39-L40)+ABS(K43-K44)+ABS(O39-O40)+ABS(P39-P40)+ABS(O43-O44)+ABS(R39-R40)+ABS(S39-S40)+ABS(R43-R44)+ABS(U39-U40)+ABS(V39-V40)+ABS(U43-U44)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46" t="s">
-        <v>82</v>
+      <c r="D39" s="44"/>
+      <c r="E39" s="45" t="s">
+        <v>83</v>
       </c>
       <c r="G39" s="6">
         <f>SUM(G4:G37)</f>
@@ -3695,7 +3699,7 @@
         <f>SUM(H4:H37)</f>
         <v>727829</v>
       </c>
-      <c r="I39" s="94"/>
+      <c r="I39" s="95"/>
       <c r="K39" s="6">
         <f>SUM(K4:K37)</f>
         <v>1962265</v>
@@ -3704,7 +3708,7 @@
         <f>SUM(L4:L37)</f>
         <v>683087</v>
       </c>
-      <c r="M39" s="95"/>
+      <c r="M39" s="96"/>
       <c r="O39" s="6">
         <f>SUM(O4:O37)</f>
         <v>1735000</v>
@@ -3747,9 +3751,9 @@
       </c>
     </row>
     <row r="40" spans="4:28">
-      <c r="D40" s="46"/>
-      <c r="E40" s="47" t="s">
-        <v>83</v>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46" t="s">
+        <v>84</v>
       </c>
       <c r="G40" s="6">
         <v>2232704</v>
@@ -3763,7 +3767,7 @@
       <c r="L40" s="6">
         <v>683087</v>
       </c>
-      <c r="M40" s="95"/>
+      <c r="M40" s="96"/>
       <c r="O40" s="6">
         <v>1735000</v>
       </c>
@@ -3796,34 +3800,34 @@
       </c>
     </row>
     <row r="41" spans="5:22">
-      <c r="E41" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="49">
-        <v>1.34</v>
+      <c r="E41" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="48">
+        <v>1.347</v>
       </c>
       <c r="H41" s="49"/>
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
       <c r="L41" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M41" s="5"/>
       <c r="P41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S41" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="S41" s="96"/>
       <c r="U41" s="6"/>
       <c r="V41"/>
     </row>
     <row r="42" s="4" customFormat="1" spans="4:26">
       <c r="D42" s="50"/>
       <c r="E42" s="51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G42" s="52">
         <f>G43/$F$41</f>
-        <v>2394026.01492537</v>
+        <v>2385367.23311062</v>
       </c>
       <c r="H42" s="52"/>
       <c r="J42" s="6"/>
@@ -3833,23 +3837,23 @@
       <c r="N42" s="6"/>
       <c r="O42" s="52"/>
       <c r="P42" s="52"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="106"/>
-      <c r="S42" s="105"/>
-      <c r="T42" s="105"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="105"/>
-      <c r="W42" s="105"/>
-      <c r="Z42" s="105"/>
+      <c r="Q42" s="106"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="106"/>
+      <c r="T42" s="106"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="Z42" s="106"/>
     </row>
     <row r="43" spans="4:28">
-      <c r="D43" s="46"/>
-      <c r="E43" s="46" t="s">
-        <v>88</v>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="G43" s="53">
         <f>H39*$F$41+G39</f>
-        <v>3207994.86</v>
+        <v>3213089.663</v>
       </c>
       <c r="H43" s="53"/>
       <c r="K43" s="53">
@@ -3885,9 +3889,9 @@
       <c r="AB43" s="53"/>
     </row>
     <row r="44" spans="4:28">
-      <c r="D44" s="46"/>
-      <c r="E44" s="47" t="s">
-        <v>89</v>
+      <c r="D44" s="45"/>
+      <c r="E44" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
@@ -3918,8 +3922,8 @@
       <c r="AB44" s="53"/>
     </row>
     <row r="45" spans="4:28">
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="46"/>
       <c r="G45" s="53"/>
       <c r="H45" s="53"/>
       <c r="K45" s="53"/>
@@ -3938,7 +3942,7 @@
     </row>
     <row r="46" spans="2:28">
       <c r="B46" s="54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -3952,10 +3956,10 @@
       <c r="O46" s="3"/>
       <c r="P46" s="6">
         <f>G43-K43</f>
-        <v>327728.86</v>
-      </c>
-      <c r="R46" s="107" t="s">
-        <v>91</v>
+        <v>332823.663</v>
+      </c>
+      <c r="R46" s="108" t="s">
+        <v>92</v>
       </c>
       <c r="S46" s="53"/>
       <c r="U46" s="53"/>
@@ -3966,8 +3970,8 @@
       <c r="AB46" s="53"/>
     </row>
     <row r="47" spans="2:26">
-      <c r="B47" s="111" t="s">
-        <v>92</v>
+      <c r="B47" s="112" t="s">
+        <v>93</v>
       </c>
       <c r="K47" s="56"/>
       <c r="L47" s="56"/>
@@ -3985,7 +3989,7 @@
     </row>
     <row r="48" spans="2:26">
       <c r="B48" s="54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
@@ -4011,7 +4015,7 @@
     </row>
     <row r="49" spans="2:26">
       <c r="B49" s="54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
@@ -4037,7 +4041,7 @@
     </row>
     <row r="50" spans="2:26">
       <c r="B50" s="54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
@@ -4063,10 +4067,10 @@
       <c r="Z50" s="55"/>
     </row>
     <row r="51" spans="2:28">
-      <c r="B51" s="111" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="46"/>
+      <c r="B51" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="45"/>
       <c r="M51" s="53"/>
       <c r="O51" s="53"/>
       <c r="P51" s="53"/>
@@ -4079,10 +4083,10 @@
     </row>
     <row r="52" spans="2:26">
       <c r="B52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
+        <v>98</v>
+      </c>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
       <c r="N52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="T52" s="5"/>
@@ -4092,7 +4096,7 @@
     </row>
     <row r="53" spans="2:26">
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N53" s="5"/>
       <c r="Q53" s="5"/>
@@ -4118,7 +4122,7 @@
       <c r="O54" s="55"/>
       <c r="P54" s="55"/>
       <c r="Q54" s="55"/>
-      <c r="R54" s="108"/>
+      <c r="R54" s="109"/>
       <c r="S54" s="55"/>
       <c r="T54" s="55"/>
       <c r="U54" s="55"/>
@@ -4196,7 +4200,7 @@
   <sheetData>
     <row r="2" spans="3:5">
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1"/>
     </row>

--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B2533C-160F-4870-A618-1C6C3D328733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22223" windowHeight="10908"/>
+    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAV24" sheetId="2" r:id="rId1"/>
     <sheet name="scratchpad" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tan, Victor</author>
     <author>Bin TAN</author>
   </authors>
   <commentList>
-    <comment ref="U2" authorId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -33,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="1">
+    <comment ref="E33" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O37" authorId="0">
+    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -396,19 +413,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
-    <numFmt numFmtId="180" formatCode="[$USD]\ #,##0"/>
-    <numFmt numFmtId="181" formatCode="[$SGD]\ #,##0"/>
-    <numFmt numFmtId="182" formatCode="[$SGD]\ #,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="169" formatCode="[$SGD]\ #,##0"/>
+    <numFmt numFmtId="170" formatCode="[$SGD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -447,7 +460,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.349986266670736"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -469,7 +482,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.149845881527146"/>
+      <color theme="0" tint="-0.14981536301767021"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -479,163 +492,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,194 +515,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -994,301 +675,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1327,9 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1339,9 +748,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1351,10 +757,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1367,18 +773,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1414,93 +820,91 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1758,50 +1162,50 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="0.851851851851852" customWidth="1"/>
-    <col min="2" max="2" width="2.71296296296296" customWidth="1"/>
-    <col min="3" max="3" width="5.28703703703704" customWidth="1"/>
-    <col min="4" max="4" width="6.57407407407407" customWidth="1"/>
-    <col min="5" max="5" width="16.8518518518519" customWidth="1"/>
-    <col min="6" max="6" width="5.13888888888889" customWidth="1"/>
-    <col min="7" max="7" width="9.13888888888889" customWidth="1"/>
-    <col min="8" max="8" width="7.42592592592593" customWidth="1"/>
-    <col min="9" max="9" width="0.425925925925926" customWidth="1"/>
-    <col min="10" max="10" width="7.33333333333333" customWidth="1"/>
-    <col min="11" max="11" width="9.13888888888889" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.13888888888889" style="6" customWidth="1"/>
-    <col min="13" max="13" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="14" max="14" width="4.13888888888889" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.13888888888889" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.13888888888889" style="6" customWidth="1"/>
-    <col min="17" max="17" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="18" max="18" width="9.13888888888889" style="5" customWidth="1"/>
-    <col min="19" max="19" width="7.57407407407407" style="6" customWidth="1"/>
-    <col min="20" max="20" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.13888888888889" style="5" customWidth="1"/>
-    <col min="22" max="22" width="7.57407407407407" style="6" customWidth="1"/>
-    <col min="23" max="23" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="24" max="24" width="9.13888888888889" customWidth="1"/>
-    <col min="25" max="25" width="7.57407407407407" customWidth="1"/>
-    <col min="26" max="26" width="0.425925925925926" style="6" customWidth="1"/>
-    <col min="27" max="28" width="7.57407407407407" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="0.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="0.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="0.42578125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="0.42578125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="0.42578125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" customWidth="1"/>
+    <col min="26" max="26" width="0.42578125" style="6" customWidth="1"/>
+    <col min="27" max="28" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6" customHeight="1"/>
+    <row r="1" spans="2:28" ht="6" customHeight="1"/>
     <row r="2" spans="2:28">
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -1812,42 +1216,42 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="10" t="s">
+      <c r="L2" s="101"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="10" t="s">
+      <c r="P2" s="101"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="97" t="s">
+      <c r="S2" s="101"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="98"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="10">
+      <c r="V2" s="103"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="100">
         <v>42401</v>
       </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10" t="s">
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="11"/>
+      <c r="AB2" s="101"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
@@ -1863,1832 +1267,1832 @@
       <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="str">
+      <c r="G3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="12" t="str">
+      <c r="K3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="12" t="str">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="12" t="str">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="12" t="str">
+      <c r="T3" s="12"/>
+      <c r="U3" s="11" t="str">
         <f>$X$3</f>
         <v>in S$</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="12" t="s">
+      <c r="W3" s="12"/>
+      <c r="X3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="12" t="s">
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:28">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14">
         <v>2500</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="15">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="14">
         <v>2500</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="15">
+      <c r="M4" s="16"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="14">
         <v>2500</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="15">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="14">
         <v>2500</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="15">
+      <c r="T4" s="14"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="14">
         <v>2500</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15">
+      <c r="G5" s="13"/>
+      <c r="H5" s="14">
         <v>6000</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="15">
+      <c r="I5" s="15"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="14">
         <v>9800</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="15">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="14">
         <v>13400</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="15">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="14">
         <v>1300</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="15">
+      <c r="T5" s="14"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="14">
         <v>900</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
         <v>51800</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="15">
+      <c r="I6" s="15"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="14">
         <f>1000*(4+2+5+3+7+10+3+5+2+3+1)</f>
         <v>45000</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="15">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="14">
         <v>32000</v>
       </c>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="15">
+      <c r="Q6" s="14"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="14">
         <v>0</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="15">
+      <c r="T6" s="14"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="14">
         <v>0</v>
       </c>
-      <c r="W6" s="15"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
     </row>
     <row r="7" spans="2:28">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="110"/>
+      <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <v>271</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="15">
+      <c r="I7" s="15"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="14">
         <v>238</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="23" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="15">
+      <c r="Q7" s="14"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="14">
         <v>564</v>
       </c>
-      <c r="T7" s="15"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="15">
+      <c r="T7" s="14"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="14">
         <v>6100</v>
       </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
     </row>
     <row r="8" spans="2:28">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="110"/>
+      <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
         <v>4400</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="15">
+      <c r="I8" s="15"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="14">
         <v>1500</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="15">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="14">
         <v>1500</v>
       </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="15">
+      <c r="Q8" s="14"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="14">
         <v>1642</v>
       </c>
-      <c r="T8" s="15"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="15">
+      <c r="T8" s="14"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="14">
         <v>1300</v>
       </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
     </row>
     <row r="9" spans="2:28">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="110"/>
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
         <v>3788</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="15">
+      <c r="I9" s="15"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="14">
         <v>1500</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="59">
+      <c r="M9" s="14"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="48">
         <v>1500</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="59">
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="48">
         <v>2031</v>
       </c>
-      <c r="T9" s="59"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="15">
+      <c r="T9" s="48"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="14">
         <v>107000</v>
       </c>
-      <c r="W9" s="59"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="15">
+      <c r="W9" s="48"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="14">
         <v>120000</v>
       </c>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15">
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="14">
         <v>270000</v>
       </c>
     </row>
     <row r="10" spans="2:28">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="110"/>
+      <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
         <f>3700*3</f>
         <v>11100</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="15">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="14">
         <f>6800+3700*7</f>
         <v>32700</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="61" t="s">
+      <c r="M10" s="27"/>
+      <c r="N10" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="63">
+      <c r="O10" s="51"/>
+      <c r="P10" s="52">
         <f>14300+2000</f>
         <v>16300</v>
       </c>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="83">
+      <c r="Q10" s="52"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="72">
         <v>57781</v>
       </c>
-      <c r="T10" s="63"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-    </row>
-    <row r="11" ht="11.25" customHeight="1" spans="2:28">
-      <c r="B11" s="14" t="s">
+      <c r="T10" s="52"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+    </row>
+    <row r="11" spans="2:28" ht="11.25" customHeight="1">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="110"/>
+      <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <v>370</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="15">
+      <c r="I11" s="15"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="14">
         <v>45</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="64" t="s">
+      <c r="M11" s="27"/>
+      <c r="N11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="65"/>
-      <c r="P11" s="66" t="s">
+      <c r="O11" s="54"/>
+      <c r="P11" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="66">
+      <c r="Q11" s="55"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="55">
         <v>-46000</v>
       </c>
-      <c r="T11" s="66"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="83">
+      <c r="T11" s="55"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="72">
         <v>-36000</v>
       </c>
-      <c r="W11" s="66"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="2:28">
-      <c r="B12" s="14" t="s">
+      <c r="W11" s="55"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+    </row>
+    <row r="12" spans="2:28" ht="14.25" customHeight="1">
+      <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15">
+      <c r="G12" s="13"/>
+      <c r="H12" s="14">
         <v>180000</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="15">
+      <c r="J12" s="13"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="14">
         <v>34004</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="64" t="s">
+      <c r="M12" s="27"/>
+      <c r="N12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="65"/>
-      <c r="P12" s="67">
+      <c r="O12" s="54"/>
+      <c r="P12" s="56">
         <v>5000</v>
       </c>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="67">
+      <c r="Q12" s="55"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="56">
         <v>5000</v>
       </c>
-      <c r="T12" s="66"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="67">
+      <c r="T12" s="55"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="56">
         <v>5000</v>
       </c>
-      <c r="W12" s="66"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
     </row>
     <row r="13" spans="2:28">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="21">
+      <c r="G13" s="13"/>
+      <c r="H13" s="16">
         <f t="shared" ref="H13" si="0">L13</f>
         <v>20000</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="21">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="16">
         <f>P13</f>
         <v>20000</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="68">
+      <c r="M13" s="16"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="57">
         <f>S13</f>
         <v>20000</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="21">
+      <c r="Q13" s="14"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="16">
         <f>Y13</f>
         <v>20000</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="21">
+      <c r="T13" s="14"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="16">
         <f>Y13</f>
         <v>20000</v>
       </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="21">
+      <c r="W13" s="14"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="16">
         <f>AB13</f>
         <v>20000</v>
       </c>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="15">
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="14">
         <v>20000</v>
       </c>
     </row>
     <row r="14" spans="2:28">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="113"/>
+      <c r="E14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
         <f>600*6</f>
         <v>3600</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="21">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="16">
         <f>P14</f>
         <v>1800</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="15">
+      <c r="M14" s="16"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="14">
         <f>300*6</f>
         <v>1800</v>
       </c>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="15">
+      <c r="Q14" s="14"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="14">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="15">
+      <c r="T14" s="14"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="14">
         <f>200*6</f>
         <v>1200</v>
       </c>
-      <c r="W14" s="15"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="21">
+      <c r="W14" s="14"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="16">
         <f>AB14</f>
         <v>1020</v>
       </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="15">
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="14">
         <v>1020</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1" spans="2:28">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="2:28" ht="12.75" customHeight="1">
+      <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="113"/>
+      <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15">
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
         <v>5000</v>
       </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="15">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="14">
         <v>5000</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="15">
+      <c r="M15" s="16"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="14">
         <v>5000</v>
       </c>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="15">
+      <c r="Q15" s="14"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="14">
         <v>5000</v>
       </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="15">
+      <c r="T15" s="14"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="14">
         <v>5000</v>
       </c>
-      <c r="W15" s="15"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-    </row>
-    <row r="16" ht="13.15" customHeight="1" spans="2:28">
-      <c r="B16" s="14" t="s">
+      <c r="W15" s="14"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" spans="2:28" ht="13.15" customHeight="1">
+      <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="113"/>
+      <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="23" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="15">
+      <c r="I16" s="15"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="14">
         <v>90000</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="15">
+      <c r="M16" s="16"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="14">
         <v>90000</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="15">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="14">
         <v>90000</v>
       </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="15">
+      <c r="T16" s="14"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="14">
         <v>90000</v>
       </c>
-      <c r="W16" s="15"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="15">
+      <c r="W16" s="14"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="14">
         <v>90000</v>
       </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="15">
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="14">
         <v>90000</v>
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="113"/>
+      <c r="E17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="21">
+      <c r="G17" s="13"/>
+      <c r="H17" s="16">
         <f t="shared" ref="H17" si="1">L17</f>
         <v>439000</v>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="21">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="16">
         <f>P17</f>
         <v>439000</v>
       </c>
-      <c r="M17" s="21"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="15">
+      <c r="M17" s="16"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="14">
         <f>V17+169000</f>
         <v>439000</v>
       </c>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="15">
+      <c r="Q17" s="14"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="14">
         <f>V17+169000*40%</f>
         <v>337600</v>
       </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="15">
+      <c r="T17" s="14"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="14">
         <v>270000</v>
       </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="25"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="108"/>
+      <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="113"/>
+      <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <v>200000</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14">
         <v>200000</v>
       </c>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15">
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14">
         <v>200000</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14">
         <v>200000</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15">
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14">
         <v>200000</v>
       </c>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15">
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14">
         <v>105000</v>
       </c>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="13"/>
     </row>
     <row r="19" spans="2:28">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="113"/>
+      <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>750000</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14">
         <v>750000</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14">
         <f>750000-415000</f>
         <v>335000</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14">
         <v>600000</v>
       </c>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15">
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14">
         <v>600000</v>
       </c>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15">
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14">
         <f>600000-154000</f>
         <v>446000</v>
       </c>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15">
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14">
         <v>420000</v>
       </c>
-      <c r="AB19" s="14"/>
+      <c r="AB19" s="13"/>
     </row>
     <row r="20" spans="2:28">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="113"/>
+      <c r="E20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <f>2700+83000</f>
         <v>85700</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14">
         <f>0+27000</f>
         <v>27000</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15">
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
         <f>1000+18000</f>
         <v>19000</v>
       </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15">
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14">
         <f>37303+14272</f>
         <v>51575</v>
       </c>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15">
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14">
         <f>(35+13)*1000</f>
         <v>48000</v>
       </c>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15">
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14">
         <v>5000</v>
       </c>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="13"/>
     </row>
     <row r="21" spans="2:28">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="14" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>15800</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14">
         <v>15000</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14">
         <v>15000</v>
       </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15">
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14">
         <v>15932</v>
       </c>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14">
         <v>14000</v>
       </c>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="13"/>
     </row>
     <row r="22" spans="2:28">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="113"/>
+      <c r="E22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <f>47000+242000+74000</f>
         <v>363000</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14">
         <f>24600+221400+71000</f>
         <v>317000</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15">
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14">
         <f>141000+205000+68000</f>
         <v>414000</v>
       </c>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15">
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14">
         <f>24201+57247+54415</f>
         <v>135863</v>
       </c>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15">
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14">
         <f>17000+51797+50452</f>
         <v>119249</v>
       </c>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15">
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14">
         <f>142000+37403+40410</f>
         <v>219813</v>
       </c>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15">
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14">
         <f>17700+15000+15000</f>
         <v>47700</v>
       </c>
-      <c r="AB22" s="14" t="s">
+      <c r="AB22" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:28">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="113"/>
+      <c r="E23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <v>14000</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="21">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="16">
         <f>O23</f>
         <v>5000</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="70">
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="59">
         <f>R23</f>
         <v>5000</v>
       </c>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="70">
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="59">
         <f>U23</f>
         <v>5000</v>
       </c>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59">
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48">
         <v>5000</v>
       </c>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="100"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="14"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="13"/>
     </row>
     <row r="24" spans="2:28">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="26" t="s">
+      <c r="D24" s="113"/>
+      <c r="E24" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <f>(300000-228000)+(50065*2)+(250774-190000)</f>
         <v>232904</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61">
         <v>50065</v>
       </c>
-      <c r="L24" s="72"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="61" t="s">
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="O24" s="63" t="s">
+      <c r="O24" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63">
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52">
         <v>20000</v>
       </c>
-      <c r="S24" s="63"/>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63">
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52">
         <v>20000</v>
       </c>
-      <c r="V24" s="63"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="83">
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="72">
         <v>30000</v>
       </c>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="71"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="52"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="60"/>
     </row>
     <row r="25" spans="2:28">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="114"/>
+      <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <f>15000*5</f>
         <v>75000</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="72">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61">
         <f>15000*4</f>
         <v>60000</v>
       </c>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75">
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64">
         <f>15000*3</f>
         <v>45000</v>
       </c>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="71"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="60"/>
     </row>
     <row r="26" spans="2:28">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="16">
         <f>K26</f>
         <v>1200</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="73">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="62">
         <v>1200</v>
       </c>
-      <c r="L26" s="61" t="s">
+      <c r="L26" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="M26" s="63"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="63">
+      <c r="M26" s="52"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="52">
         <v>1000</v>
       </c>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63">
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52">
         <v>92574</v>
       </c>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63">
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52">
         <v>102000</v>
       </c>
-      <c r="V26" s="63"/>
-      <c r="W26" s="63"/>
-      <c r="X26" s="63">
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52">
         <v>55000</v>
       </c>
-      <c r="Y26" s="110" t="s">
+      <c r="Y26" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="83">
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="72">
         <v>5000</v>
       </c>
-      <c r="AB26" s="111"/>
+      <c r="AB26" s="98"/>
     </row>
     <row r="27" spans="2:28">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>23000</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="72">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="61">
         <v>36000</v>
       </c>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77">
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66">
         <v>40000</v>
       </c>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77">
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66">
         <v>27907</v>
       </c>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77">
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66">
         <v>6000</v>
       </c>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77">
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66">
         <v>155000</v>
       </c>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="71"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="60"/>
     </row>
     <row r="28" spans="2:28">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <v>2000</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="72">
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="61">
         <v>1000</v>
       </c>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72">
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61">
         <v>2000</v>
       </c>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72">
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61">
         <v>28176</v>
       </c>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72">
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61">
         <v>20000</v>
       </c>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="71"/>
-    </row>
-    <row r="29" ht="3" customHeight="1" spans="2:28">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="71"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="60"/>
+    </row>
+    <row r="29" spans="2:28" ht="3" customHeight="1">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="60"/>
     </row>
     <row r="30" spans="2:28">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="25">
         <v>2300</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80" t="s">
+      <c r="H30" s="20"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="81">
+      <c r="K30" s="70">
         <v>-201000</v>
       </c>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="82">
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="71">
         <f>-140000</f>
         <v>-140000</v>
       </c>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="71"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="61"/>
+      <c r="AB30" s="60"/>
     </row>
     <row r="31" spans="2:28">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="110"/>
+      <c r="D31" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="25">
         <f>745+1055+4000</f>
         <v>5800</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="K31" s="81">
+      <c r="K31" s="70">
         <v>285000</v>
       </c>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="82">
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="71">
         <f>176000</f>
         <v>176000</v>
       </c>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="72"/>
-      <c r="Y31" s="72"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="72"/>
-      <c r="AB31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="60"/>
     </row>
     <row r="32" spans="2:28">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="31" t="s">
+      <c r="C32" s="110"/>
+      <c r="D32" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="27">
         <f>6000+100000</f>
         <v>106000</v>
       </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="61" t="s">
+      <c r="H32" s="28"/>
+      <c r="I32" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="86"/>
-      <c r="K32" s="63">
+      <c r="J32" s="75"/>
+      <c r="K32" s="52">
         <v>10000</v>
       </c>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63">
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52">
         <v>9000</v>
       </c>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="83">
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="72">
         <v>20000</v>
       </c>
-      <c r="S32" s="83"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="71"/>
-    </row>
-    <row r="33" ht="12.75" customHeight="1" spans="2:28">
-      <c r="B33" s="14" t="s">
+      <c r="S32" s="72"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="52"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="60"/>
+    </row>
+    <row r="33" spans="2:28" ht="12.75" customHeight="1">
+      <c r="B33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="38" t="s">
+      <c r="C33" s="111"/>
+      <c r="D33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="21">
         <v>324000</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I33" s="87"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="77">
+      <c r="I33" s="76"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="66">
         <v>385000</v>
       </c>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77">
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66">
         <v>598000</v>
       </c>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77">
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66">
         <f>27564</f>
         <v>27564</v>
       </c>
-      <c r="S33" s="72"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="72">
+      <c r="S33" s="61"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="61">
         <v>20000</v>
       </c>
-      <c r="V33" s="72"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="72">
+      <c r="V33" s="61"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="61">
         <v>20000</v>
       </c>
-      <c r="Y33" s="72"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="72">
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="61">
         <v>5000</v>
       </c>
-      <c r="AB33" s="71"/>
+      <c r="AB33" s="60"/>
     </row>
     <row r="34" spans="2:28">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="21">
         <v>-4000</v>
       </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="72">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="61">
         <v>-600</v>
       </c>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="71"/>
-    </row>
-    <row r="35" ht="3" customHeight="1" spans="2:28">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="71"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="61"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="61"/>
+      <c r="AA34" s="61"/>
+      <c r="AB34" s="60"/>
+    </row>
+    <row r="35" spans="2:28" ht="3" customHeight="1">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="61"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="61"/>
+      <c r="AB35" s="60"/>
     </row>
     <row r="36" spans="2:28">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <v>13000</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="73">
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="62">
         <v>1600</v>
       </c>
-      <c r="L36" s="61" t="s">
+      <c r="L36" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="63"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="90" t="s">
+      <c r="M36" s="52"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81">
+      <c r="P36" s="70"/>
+      <c r="Q36" s="70"/>
+      <c r="R36" s="70">
         <v>-30000</v>
       </c>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="81">
+      <c r="S36" s="70"/>
+      <c r="T36" s="70"/>
+      <c r="U36" s="70">
         <v>-40000</v>
       </c>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="83">
+      <c r="V36" s="70"/>
+      <c r="W36" s="70"/>
+      <c r="X36" s="72">
         <v>-30000</v>
       </c>
-      <c r="Y36" s="83"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="71"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="70"/>
+      <c r="AA36" s="61"/>
+      <c r="AB36" s="60"/>
     </row>
     <row r="37" spans="2:28">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <v>23000</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="72">
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="61">
         <v>20000</v>
       </c>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="92">
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="81">
         <v>16000</v>
       </c>
-      <c r="P37" s="93" t="s">
+      <c r="P37" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="104"/>
-      <c r="S37" s="83">
+      <c r="Q37" s="90"/>
+      <c r="R37" s="91"/>
+      <c r="S37" s="72">
         <v>20000</v>
       </c>
-      <c r="T37" s="103"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="83">
+      <c r="T37" s="90"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="72">
         <v>20000</v>
       </c>
-      <c r="W37" s="103"/>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="103"/>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="71"/>
+      <c r="W37" s="90"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="90"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
     </row>
     <row r="38" spans="2:28">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="12" t="str">
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="11" t="str">
         <f>G3</f>
         <v>in S$</v>
       </c>
-      <c r="H38" s="12" t="str">
+      <c r="H38" s="11" t="str">
         <f>H3</f>
         <v>in USD</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12" t="str">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11" t="str">
         <f>K3</f>
         <v>in S$</v>
       </c>
-      <c r="L38" s="12" t="str">
+      <c r="L38" s="11" t="str">
         <f>L3</f>
         <v>in USD</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="11">
         <f>M3</f>
         <v>0</v>
       </c>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12" t="str">
+      <c r="N38" s="11"/>
+      <c r="O38" s="11" t="str">
         <f t="shared" ref="O38:AB38" si="2">O3</f>
         <v>in S$</v>
       </c>
-      <c r="P38" s="94" t="str">
+      <c r="P38" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Q38" s="94">
+      <c r="Q38" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R38" s="94" t="str">
+      <c r="R38" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="S38" s="94" t="str">
+      <c r="S38" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="T38" s="94">
+      <c r="T38" s="83">
         <f t="shared" ref="T38" si="3">T3</f>
         <v>0</v>
       </c>
-      <c r="U38" s="94" t="str">
+      <c r="U38" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="V38" s="94" t="str">
+      <c r="V38" s="83" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="W38" s="94">
+      <c r="W38" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X38" s="12" t="str">
+      <c r="X38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="Y38" s="12" t="str">
+      <c r="Y38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
-      <c r="Z38" s="94">
+      <c r="Z38" s="83">
         <f t="shared" ref="Z38" si="4">Z3</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="12" t="str">
+      <c r="AA38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>in S$</v>
       </c>
-      <c r="AB38" s="12" t="str">
+      <c r="AB38" s="11" t="str">
         <f t="shared" si="2"/>
         <v>in USD</v>
       </c>
     </row>
-    <row r="39" spans="3:28">
-      <c r="C39" s="44">
+    <row r="39" spans="2:28">
+      <c r="C39" s="104">
         <f>ABS(G39-G40)+ABS(H39-H40)+ABS(K39-K40)+ABS(L39-L40)+ABS(K43-K44)+ABS(O39-O40)+ABS(P39-P40)+ABS(O43-O44)+ABS(R39-R40)+ABS(S39-S40)+ABS(R43-R44)+ABS(U39-U40)+ABS(V39-V40)+ABS(U43-U44)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="35" t="s">
         <v>83</v>
       </c>
       <c r="G39" s="6">
@@ -3699,7 +3103,7 @@
         <f>SUM(H4:H37)</f>
         <v>727829</v>
       </c>
-      <c r="I39" s="95"/>
+      <c r="I39" s="84"/>
       <c r="K39" s="6">
         <f>SUM(K4:K37)</f>
         <v>1962265</v>
@@ -3708,7 +3112,7 @@
         <f>SUM(L4:L37)</f>
         <v>683087</v>
       </c>
-      <c r="M39" s="96"/>
+      <c r="M39" s="85"/>
       <c r="O39" s="6">
         <f>SUM(O4:O37)</f>
         <v>1735000</v>
@@ -3750,9 +3154,9 @@
         <v>381020</v>
       </c>
     </row>
-    <row r="40" spans="4:28">
-      <c r="D40" s="45"/>
-      <c r="E40" s="46" t="s">
+    <row r="40" spans="2:28">
+      <c r="D40" s="35"/>
+      <c r="E40" s="36" t="s">
         <v>84</v>
       </c>
       <c r="G40" s="6">
@@ -3767,7 +3171,7 @@
       <c r="L40" s="6">
         <v>683087</v>
       </c>
-      <c r="M40" s="96"/>
+      <c r="M40" s="85"/>
       <c r="O40" s="6">
         <v>1735000</v>
       </c>
@@ -3799,16 +3203,16 @@
         <v>381020</v>
       </c>
     </row>
-    <row r="41" spans="5:22">
-      <c r="E41" s="47" t="s">
+    <row r="41" spans="2:28">
+      <c r="E41" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="115">
         <v>1.347</v>
       </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
       <c r="L41" s="5" t="s">
         <v>86</v>
       </c>
@@ -3816,277 +3220,277 @@
       <c r="P41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="S41" s="96"/>
+      <c r="S41" s="85"/>
       <c r="U41" s="6"/>
       <c r="V41"/>
     </row>
-    <row r="42" s="4" customFormat="1" spans="4:26">
-      <c r="D42" s="50"/>
-      <c r="E42" s="51" t="s">
+    <row r="42" spans="2:28" s="4" customFormat="1">
+      <c r="D42" s="39"/>
+      <c r="E42" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G42" s="105">
         <f>G43/$F$41</f>
-        <v>2385367.23311062</v>
-      </c>
-      <c r="H42" s="52"/>
+        <v>2385367.233110616</v>
+      </c>
+      <c r="H42" s="105"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="41"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="106"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="106"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="107"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="106"/>
-      <c r="Z42" s="106"/>
-    </row>
-    <row r="43" spans="4:28">
-      <c r="D43" s="45"/>
-      <c r="E43" s="45" t="s">
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="93"/>
+      <c r="W42" s="93"/>
+      <c r="Z42" s="93"/>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="D43" s="35"/>
+      <c r="E43" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="53">
+      <c r="G43" s="106">
         <f>H39*$F$41+G39</f>
-        <v>3213089.663</v>
-      </c>
-      <c r="H43" s="53"/>
-      <c r="K43" s="53">
+        <v>3213089.6629999997</v>
+      </c>
+      <c r="H43" s="106"/>
+      <c r="K43" s="106">
         <f>ROUND(L39*1.3439+K39,0)</f>
         <v>2880266</v>
       </c>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="O43" s="53">
+      <c r="L43" s="106"/>
+      <c r="M43" s="42"/>
+      <c r="O43" s="106">
         <f>ROUND(P39*1.3465+O39,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P43" s="53"/>
-      <c r="R43" s="53">
+      <c r="P43" s="106"/>
+      <c r="R43" s="106">
         <f>ROUND(S39*1.37+R39,0)</f>
         <v>1877698</v>
       </c>
-      <c r="S43" s="53"/>
-      <c r="U43" s="53">
+      <c r="S43" s="106"/>
+      <c r="U43" s="106">
         <f>V39*1.37+U39</f>
         <v>1789659</v>
       </c>
-      <c r="V43" s="53"/>
-      <c r="X43" s="53">
+      <c r="V43" s="106"/>
+      <c r="X43" s="106">
         <f>Y39*1.36+X39</f>
         <v>1320000.2</v>
       </c>
-      <c r="Y43" s="53"/>
-      <c r="AA43" s="53">
+      <c r="Y43" s="106"/>
+      <c r="AA43" s="106">
         <f>AB39*1.4+AA39</f>
         <v>1011128</v>
       </c>
-      <c r="AB43" s="53"/>
-    </row>
-    <row r="44" spans="4:28">
-      <c r="D44" s="45"/>
-      <c r="E44" s="46" t="s">
+      <c r="AB43" s="106"/>
+    </row>
+    <row r="44" spans="2:28">
+      <c r="D44" s="35"/>
+      <c r="E44" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="K44" s="53">
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="K44" s="106">
         <v>2880266</v>
       </c>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="O44" s="53">
+      <c r="L44" s="106"/>
+      <c r="M44" s="42"/>
+      <c r="O44" s="106">
         <v>2580602</v>
       </c>
-      <c r="P44" s="53"/>
-      <c r="R44" s="53">
+      <c r="P44" s="106"/>
+      <c r="R44" s="106">
         <v>1877698</v>
       </c>
-      <c r="S44" s="53"/>
-      <c r="U44" s="53">
+      <c r="S44" s="106"/>
+      <c r="U44" s="106">
         <v>1789659</v>
       </c>
-      <c r="V44" s="53"/>
-      <c r="X44" s="53">
+      <c r="V44" s="106"/>
+      <c r="X44" s="106">
         <v>1320000</v>
       </c>
-      <c r="Y44" s="53"/>
-      <c r="AA44" s="53">
+      <c r="Y44" s="106"/>
+      <c r="AA44" s="106">
         <v>1011128</v>
       </c>
-      <c r="AB44" s="53"/>
-    </row>
-    <row r="45" spans="4:28">
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
+      <c r="AB44" s="106"/>
+    </row>
+    <row r="45" spans="2:28">
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="AA45" s="42"/>
+      <c r="AB45" s="42"/>
     </row>
     <row r="46" spans="2:28">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="M46" s="53"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="M46" s="42"/>
       <c r="O46" s="3"/>
       <c r="P46" s="6">
         <f>G43-K43</f>
-        <v>332823.663</v>
-      </c>
-      <c r="R46" s="108" t="s">
+        <v>332823.66299999971</v>
+      </c>
+      <c r="R46" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="S46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="X46" s="53"/>
-      <c r="Y46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-    </row>
-    <row r="47" spans="2:26">
-      <c r="B47" s="112" t="s">
+      <c r="S46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="B47" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="Q47" s="56"/>
-      <c r="R47" s="56"/>
-      <c r="S47" s="56"/>
-      <c r="T47" s="56"/>
-      <c r="U47" s="56"/>
-      <c r="V47" s="56"/>
-      <c r="W47" s="56"/>
-      <c r="Z47" s="56"/>
-    </row>
-    <row r="48" spans="2:26">
-      <c r="B48" s="54" t="s">
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="45"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="45"/>
+      <c r="Z47" s="45"/>
+    </row>
+    <row r="48" spans="2:28">
+      <c r="B48" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
-      <c r="U48" s="56"/>
-      <c r="V48" s="56"/>
-      <c r="W48" s="56"/>
-      <c r="Z48" s="56"/>
-    </row>
-    <row r="49" spans="2:26">
-      <c r="B49" s="54" t="s">
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="Z48" s="45"/>
+    </row>
+    <row r="49" spans="2:28">
+      <c r="B49" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="Q49" s="56"/>
-      <c r="R49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="Z49" s="56"/>
-    </row>
-    <row r="50" spans="2:26">
-      <c r="B50" s="54" t="s">
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="45"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="45"/>
+      <c r="Z49" s="45"/>
+    </row>
+    <row r="50" spans="2:28">
+      <c r="B50" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="Z50" s="55"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="Z50" s="44"/>
     </row>
     <row r="51" spans="2:28">
-      <c r="B51" s="112" t="s">
+      <c r="B51" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="45"/>
-      <c r="M51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-    </row>
-    <row r="52" spans="2:26">
+      <c r="D51" s="35"/>
+      <c r="M51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="AA51" s="42"/>
+      <c r="AB51" s="42"/>
+    </row>
+    <row r="52" spans="2:28">
       <c r="B52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
       <c r="N52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="T52" s="5"/>
@@ -4094,7 +3498,7 @@
       <c r="W52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="2:26">
+    <row r="53" spans="2:28">
       <c r="B53" s="1" t="s">
         <v>99</v>
       </c>
@@ -4105,64 +3509,52 @@
       <c r="W53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1" spans="2:26">
-      <c r="B54" s="54"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="55"/>
-      <c r="W54" s="55"/>
-      <c r="Z54" s="55"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="57"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="57"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="57"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="57"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="57"/>
+    <row r="54" spans="2:28" ht="12.75" customHeight="1">
+      <c r="B54" s="43"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="Z54" s="44"/>
+    </row>
+    <row r="55" spans="2:28">
+      <c r="B55" s="46"/>
+    </row>
+    <row r="56" spans="2:28">
+      <c r="B56" s="46"/>
+    </row>
+    <row r="57" spans="2:28">
+      <c r="B57" s="46"/>
+    </row>
+    <row r="58" spans="2:28">
+      <c r="B58" s="46"/>
+    </row>
+    <row r="59" spans="2:28">
+      <c r="B59" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D13:D25"/>
     <mergeCell ref="X43:Y43"/>
     <mergeCell ref="AA43:AB43"/>
     <mergeCell ref="G44:H44"/>
@@ -4172,30 +3564,40 @@
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="X44:Y44"/>
     <mergeCell ref="AA44:AB44"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D13:D25"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="5" width="10.1388888888889" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
@@ -4204,7 +3606,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:5" ht="14.25">
       <c r="C3">
         <v>4</v>
       </c>
@@ -4216,7 +3618,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:5">
       <c r="C5">
         <v>1</v>
       </c>
@@ -4239,32 +3641,32 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:5">
       <c r="C9">
         <v>10.5</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:5">
       <c r="C10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:5">
       <c r="C11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:5">
       <c r="C12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:5">
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:5">
       <c r="C14">
         <v>2.7</v>
       </c>
@@ -4278,6 +3680,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B2533C-160F-4870-A618-1C6C3D328733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C46AEF3-2BA3-455E-A70D-53D22DF49DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>CDP&gt;</t>
   </si>
   <si>
-    <t>存款:153+AUM</t>
-  </si>
-  <si>
     <t>exAUM&gt;</t>
   </si>
   <si>
@@ -329,9 +326,6 @@
     <t>存款 ex-Poems</t>
   </si>
   <si>
-    <t>&lt;checked 3x</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -408,6 +402,12 @@
   </si>
   <si>
     <t>TD]khm</t>
+  </si>
+  <si>
+    <t>存款:D+AUM</t>
+  </si>
+  <si>
+    <t>&lt;checked3x</t>
   </si>
 </sst>
 </file>
@@ -415,11 +415,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="[$USD]\ #,##0"/>
-    <numFmt numFmtId="169" formatCode="[$SGD]\ #,##0"/>
-    <numFmt numFmtId="170" formatCode="[$SGD]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="[$USD]\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="[$SGD]\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="[$SGD]\ #,##0.00"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -685,7 +685,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -693,7 +693,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -757,10 +757,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -773,18 +773,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -820,78 +820,78 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,7 +1171,7 @@
   <dimension ref="B1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1216,42 +1216,42 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="101"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="101"/>
+      <c r="L2" s="111"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="100" t="s">
+      <c r="O2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="101"/>
+      <c r="P2" s="111"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="100" t="s">
+      <c r="R2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="101"/>
+      <c r="S2" s="111"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="103"/>
+      <c r="V2" s="115"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="100">
+      <c r="X2" s="110">
         <v>42401</v>
       </c>
-      <c r="Y2" s="101"/>
+      <c r="Y2" s="111"/>
       <c r="Z2" s="10"/>
-      <c r="AA2" s="100" t="s">
+      <c r="AA2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="101"/>
+      <c r="AB2" s="111"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
@@ -1425,7 +1425,7 @@
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="103" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1475,7 +1475,7 @@
       <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="110"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="110"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="110"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="110"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="111"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="106" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1831,7 +1831,7 @@
       <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="113"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="15" t="s">
         <v>40</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="113"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="113"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
@@ -1980,13 +1980,13 @@
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="101" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="113"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="13" t="s">
         <v>45</v>
       </c>
@@ -2031,11 +2031,11 @@
       <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="108"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="113"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="113"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="15" t="s">
         <v>49</v>
       </c>
@@ -2187,7 +2187,7 @@
     <row r="21" spans="2:28">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="113"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="13" t="s">
         <v>51</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="13" t="s">
         <v>52</v>
       </c>
@@ -2294,7 +2294,7 @@
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="113"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="15" t="s">
         <v>54</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="113"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="18" t="s">
         <v>55</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="114"/>
+      <c r="D25" s="108"/>
       <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="B30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="109" t="s">
+      <c r="C30" s="103" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="22" t="s">
@@ -2674,7 +2674,7 @@
       <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="110"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="22" t="s">
         <v>19</v>
       </c>
@@ -2721,12 +2721,12 @@
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="110"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>50</v>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="H32" s="28"/>
       <c r="I32" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J32" s="75"/>
       <c r="K32" s="52">
@@ -2769,12 +2769,12 @@
       <c r="B33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="111"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>73</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>18</v>
@@ -2783,7 +2783,7 @@
         <v>324000</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="I33" s="76"/>
       <c r="J33" s="77"/>
@@ -2827,10 +2827,10 @@
         <v>36</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>18</v>
@@ -2896,13 +2896,13 @@
         <v>21</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>48</v>
@@ -2922,7 +2922,7 @@
       <c r="M36" s="52"/>
       <c r="N36" s="65"/>
       <c r="O36" s="79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P36" s="70"/>
       <c r="Q36" s="70"/>
@@ -2955,7 +2955,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>18</v>
@@ -2976,7 +2976,7 @@
         <v>16000</v>
       </c>
       <c r="P37" s="82" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="90"/>
       <c r="R37" s="91"/>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="38" spans="2:28">
       <c r="B38" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -3087,13 +3087,13 @@
       </c>
     </row>
     <row r="39" spans="2:28">
-      <c r="C39" s="104">
+      <c r="C39" s="112">
         <f>ABS(G39-G40)+ABS(H39-H40)+ABS(K39-K40)+ABS(L39-L40)+ABS(K43-K44)+ABS(O39-O40)+ABS(P39-P40)+ABS(O43-O44)+ABS(R39-R40)+ABS(S39-S40)+ABS(R43-R44)+ABS(U39-U40)+ABS(V39-V40)+ABS(U43-U44)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="104"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="6">
         <f>SUM(G4:G37)</f>
@@ -3157,7 +3157,7 @@
     <row r="40" spans="2:28">
       <c r="D40" s="35"/>
       <c r="E40" s="36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G40" s="6">
         <v>2232704</v>
@@ -3205,20 +3205,20 @@
     </row>
     <row r="41" spans="2:28">
       <c r="E41" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="115">
+        <v>83</v>
+      </c>
+      <c r="F41" s="100">
         <v>1.347</v>
       </c>
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
       <c r="L41" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M41" s="5"/>
       <c r="P41" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S41" s="85"/>
       <c r="U41" s="6"/>
@@ -3227,20 +3227,20 @@
     <row r="42" spans="2:28" s="4" customFormat="1">
       <c r="D42" s="39"/>
       <c r="E42" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="105">
+        <v>86</v>
+      </c>
+      <c r="G42" s="113">
         <f>G43/$F$41</f>
         <v>2385367.233110616</v>
       </c>
-      <c r="H42" s="105"/>
+      <c r="H42" s="113"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
       <c r="M42" s="41"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="105"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
       <c r="Q42" s="93"/>
       <c r="R42" s="94"/>
       <c r="S42" s="93"/>
@@ -3253,77 +3253,77 @@
     <row r="43" spans="2:28">
       <c r="D43" s="35"/>
       <c r="E43" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="106">
+        <v>87</v>
+      </c>
+      <c r="G43" s="109">
         <f>H39*$F$41+G39</f>
         <v>3213089.6629999997</v>
       </c>
-      <c r="H43" s="106"/>
-      <c r="K43" s="106">
+      <c r="H43" s="109"/>
+      <c r="K43" s="109">
         <f>ROUND(L39*1.3439+K39,0)</f>
         <v>2880266</v>
       </c>
-      <c r="L43" s="106"/>
+      <c r="L43" s="109"/>
       <c r="M43" s="42"/>
-      <c r="O43" s="106">
+      <c r="O43" s="109">
         <f>ROUND(P39*1.3465+O39,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P43" s="106"/>
-      <c r="R43" s="106">
+      <c r="P43" s="109"/>
+      <c r="R43" s="109">
         <f>ROUND(S39*1.37+R39,0)</f>
         <v>1877698</v>
       </c>
-      <c r="S43" s="106"/>
-      <c r="U43" s="106">
+      <c r="S43" s="109"/>
+      <c r="U43" s="109">
         <f>V39*1.37+U39</f>
         <v>1789659</v>
       </c>
-      <c r="V43" s="106"/>
-      <c r="X43" s="106">
+      <c r="V43" s="109"/>
+      <c r="X43" s="109">
         <f>Y39*1.36+X39</f>
         <v>1320000.2</v>
       </c>
-      <c r="Y43" s="106"/>
-      <c r="AA43" s="106">
+      <c r="Y43" s="109"/>
+      <c r="AA43" s="109">
         <f>AB39*1.4+AA39</f>
         <v>1011128</v>
       </c>
-      <c r="AB43" s="106"/>
+      <c r="AB43" s="109"/>
     </row>
     <row r="44" spans="2:28">
       <c r="D44" s="35"/>
       <c r="E44" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="106"/>
-      <c r="H44" s="106"/>
-      <c r="K44" s="106">
+        <v>88</v>
+      </c>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="K44" s="109">
         <v>2880266</v>
       </c>
-      <c r="L44" s="106"/>
+      <c r="L44" s="109"/>
       <c r="M44" s="42"/>
-      <c r="O44" s="106">
+      <c r="O44" s="109">
         <v>2580602</v>
       </c>
-      <c r="P44" s="106"/>
-      <c r="R44" s="106">
+      <c r="P44" s="109"/>
+      <c r="R44" s="109">
         <v>1877698</v>
       </c>
-      <c r="S44" s="106"/>
-      <c r="U44" s="106">
+      <c r="S44" s="109"/>
+      <c r="U44" s="109">
         <v>1789659</v>
       </c>
-      <c r="V44" s="106"/>
-      <c r="X44" s="106">
+      <c r="V44" s="109"/>
+      <c r="X44" s="109">
         <v>1320000</v>
       </c>
-      <c r="Y44" s="106"/>
-      <c r="AA44" s="106">
+      <c r="Y44" s="109"/>
+      <c r="AA44" s="109">
         <v>1011128</v>
       </c>
-      <c r="AB44" s="106"/>
+      <c r="AB44" s="109"/>
     </row>
     <row r="45" spans="2:28">
       <c r="D45" s="35"/>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="46" spans="2:28">
       <c r="B46" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
@@ -3363,7 +3363,7 @@
         <v>332823.66299999971</v>
       </c>
       <c r="R46" s="95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S46" s="42"/>
       <c r="U46" s="42"/>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="47" spans="2:28">
       <c r="B47" s="99" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K47" s="45"/>
       <c r="L47" s="45"/>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="48" spans="2:28">
       <c r="B48" s="43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="49" spans="2:28">
       <c r="B49" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="50" spans="2:28">
       <c r="B50" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="51" spans="2:28">
       <c r="B51" s="99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51" s="35"/>
       <c r="M51" s="42"/>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="52" spans="2:28">
       <c r="B52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -3500,7 +3500,7 @@
     </row>
     <row r="53" spans="2:28">
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N53" s="5"/>
       <c r="Q53" s="5"/>
@@ -3551,11 +3551,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D13:D25"/>
-    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="AA43:AB43"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="K44:L44"/>
@@ -3569,20 +3575,14 @@
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="U43:V43"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D13:D25"/>
+    <mergeCell ref="X43:Y43"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3602,7 +3602,7 @@
   <sheetData>
     <row r="2" spans="3:5">
       <c r="C2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1"/>
     </row>

--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C46AEF3-2BA3-455E-A70D-53D22DF49DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A19874E-3A49-4F84-8345-8FD3B50B96F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,18 +74,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="O37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>P640k</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -377,9 +365,6 @@
     <t>See other pointers at https://tanbinvest.dreamhosters.com/25802/netasset-annual-snap/</t>
   </si>
   <si>
-    <t>&lt;scratchpad</t>
-  </si>
-  <si>
     <t>----- notations:</t>
   </si>
   <si>
@@ -408,6 +393,9 @@
   </si>
   <si>
     <t>&lt;checked3x</t>
+  </si>
+  <si>
+    <t>&lt;checked2x</t>
   </si>
 </sst>
 </file>
@@ -848,6 +836,27 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -871,27 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,7 +1159,7 @@
   <dimension ref="B1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1183,7 +1171,7 @@
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="0.42578125" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5" customWidth="1"/>
@@ -1216,42 +1204,42 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="110" t="s">
+      <c r="G2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="111"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="110" t="s">
+      <c r="K2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="111"/>
+      <c r="L2" s="102"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="110" t="s">
+      <c r="O2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="111"/>
+      <c r="P2" s="102"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="110" t="s">
+      <c r="R2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="111"/>
+      <c r="S2" s="102"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="114" t="s">
+      <c r="U2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="115"/>
+      <c r="V2" s="106"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="110">
+      <c r="X2" s="101">
         <v>42401</v>
       </c>
-      <c r="Y2" s="111"/>
+      <c r="Y2" s="102"/>
       <c r="Z2" s="10"/>
-      <c r="AA2" s="110" t="s">
+      <c r="AA2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="111"/>
+      <c r="AB2" s="102"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
@@ -1425,7 +1413,7 @@
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="110" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1475,7 +1463,7 @@
       <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1509,7 @@
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
@@ -1568,7 +1556,7 @@
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1607,7 @@
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="111"/>
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
@@ -1669,7 +1657,7 @@
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="104"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1718,7 +1706,7 @@
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="105"/>
+      <c r="C12" s="112"/>
       <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
@@ -1772,7 +1760,7 @@
       <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="113" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1831,7 +1819,7 @@
       <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="15" t="s">
         <v>40</v>
       </c>
@@ -1888,7 +1876,7 @@
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="107"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
@@ -1935,7 +1923,7 @@
       <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
@@ -1980,13 +1968,13 @@
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="108" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="107"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="13" t="s">
         <v>45</v>
       </c>
@@ -2031,11 +2019,11 @@
       <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="102"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="107"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
@@ -2084,7 +2072,7 @@
       <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="107"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
@@ -2137,7 +2125,7 @@
       <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="107"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="15" t="s">
         <v>49</v>
       </c>
@@ -2187,7 +2175,7 @@
     <row r="21" spans="2:28">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="107"/>
+      <c r="D21" s="114"/>
       <c r="E21" s="13" t="s">
         <v>51</v>
       </c>
@@ -2234,7 +2222,7 @@
       <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="107"/>
+      <c r="D22" s="114"/>
       <c r="E22" s="13" t="s">
         <v>52</v>
       </c>
@@ -2294,7 +2282,7 @@
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="107"/>
+      <c r="D23" s="114"/>
       <c r="E23" s="15" t="s">
         <v>54</v>
       </c>
@@ -2344,7 +2332,7 @@
       <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="114"/>
       <c r="E24" s="18" t="s">
         <v>55</v>
       </c>
@@ -2355,7 +2343,9 @@
         <f>(300000-228000)+(50065*2)+(250774-190000)</f>
         <v>232904</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="I24" s="13"/>
       <c r="J24" s="60"/>
       <c r="K24" s="61">
@@ -2396,7 +2386,7 @@
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="108"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
@@ -2626,7 +2616,7 @@
       <c r="B30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="110" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="22" t="s">
@@ -2674,7 +2664,7 @@
       <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="104"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="22" t="s">
         <v>19</v>
       </c>
@@ -2721,12 +2711,12 @@
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="104"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>50</v>
@@ -2769,7 +2759,7 @@
       <c r="B33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="105"/>
+      <c r="C33" s="112"/>
       <c r="D33" s="29" t="s">
         <v>71</v>
       </c>
@@ -2783,7 +2773,7 @@
         <v>324000</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="76"/>
       <c r="J33" s="77"/>
@@ -2961,6 +2951,7 @@
         <v>18</v>
       </c>
       <c r="G37" s="14">
+        <f>966000/42</f>
         <v>23000</v>
       </c>
       <c r="H37" s="13"/>
@@ -2973,6 +2964,7 @@
       <c r="M37" s="66"/>
       <c r="N37" s="80"/>
       <c r="O37" s="81">
+        <f>640000/40</f>
         <v>16000</v>
       </c>
       <c r="P37" s="82" t="s">
@@ -3087,11 +3079,11 @@
       </c>
     </row>
     <row r="39" spans="2:28">
-      <c r="C39" s="112">
-        <f>ABS(G39-G40)+ABS(H39-H40)+ABS(K39-K40)+ABS(L39-L40)+ABS(K43-K44)+ABS(O39-O40)+ABS(P39-P40)+ABS(O43-O44)+ABS(R39-R40)+ABS(S39-S40)+ABS(R43-R44)+ABS(U39-U40)+ABS(V39-V40)+ABS(U43-U44)</f>
+      <c r="C39" s="103">
+        <f>ABS(G39-G40)+ABS(H39-H40)+ABS(G43-G44)+ABS(K39-K40)+ABS(L39-L40)+ABS(K43-K44)+ABS(O39-O40)+ABS(P39-P40)+ABS(O43-O44)+ABS(R39-R40)+ABS(S39-S40)+ABS(R43-R44)+ABS(U39-U40)+ABS(V39-V40)+ABS(U43-U44)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="112"/>
+      <c r="D39" s="103"/>
       <c r="E39" s="35" t="s">
         <v>81</v>
       </c>
@@ -3208,7 +3200,7 @@
         <v>83</v>
       </c>
       <c r="F41" s="100">
-        <v>1.347</v>
+        <v>1.35</v>
       </c>
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
@@ -3229,18 +3221,15 @@
       <c r="E42" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="113">
-        <f>G43/$F$41</f>
-        <v>2385367.233110616</v>
-      </c>
-      <c r="H42" s="113"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
       <c r="M42" s="41"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
       <c r="Q42" s="93"/>
       <c r="R42" s="94"/>
       <c r="S42" s="93"/>
@@ -3255,75 +3244,77 @@
       <c r="E43" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="109">
-        <f>H39*$F$41+G39</f>
-        <v>3213089.6629999997</v>
-      </c>
-      <c r="H43" s="109"/>
-      <c r="K43" s="109">
+      <c r="G43" s="107">
+        <f>ROUND(H39*1.3479+G39,0)</f>
+        <v>3213745</v>
+      </c>
+      <c r="H43" s="107"/>
+      <c r="K43" s="107">
         <f>ROUND(L39*1.3439+K39,0)</f>
         <v>2880266</v>
       </c>
-      <c r="L43" s="109"/>
+      <c r="L43" s="107"/>
       <c r="M43" s="42"/>
-      <c r="O43" s="109">
+      <c r="O43" s="107">
         <f>ROUND(P39*1.3465+O39,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P43" s="109"/>
-      <c r="R43" s="109">
+      <c r="P43" s="107"/>
+      <c r="R43" s="107">
         <f>ROUND(S39*1.37+R39,0)</f>
         <v>1877698</v>
       </c>
-      <c r="S43" s="109"/>
-      <c r="U43" s="109">
+      <c r="S43" s="107"/>
+      <c r="U43" s="107">
         <f>V39*1.37+U39</f>
         <v>1789659</v>
       </c>
-      <c r="V43" s="109"/>
-      <c r="X43" s="109">
+      <c r="V43" s="107"/>
+      <c r="X43" s="107">
         <f>Y39*1.36+X39</f>
         <v>1320000.2</v>
       </c>
-      <c r="Y43" s="109"/>
-      <c r="AA43" s="109">
+      <c r="Y43" s="107"/>
+      <c r="AA43" s="107">
         <f>AB39*1.4+AA39</f>
         <v>1011128</v>
       </c>
-      <c r="AB43" s="109"/>
+      <c r="AB43" s="107"/>
     </row>
     <row r="44" spans="2:28">
       <c r="D44" s="35"/>
       <c r="E44" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="109"/>
-      <c r="H44" s="109"/>
-      <c r="K44" s="109">
+      <c r="G44" s="107">
+        <v>3213745</v>
+      </c>
+      <c r="H44" s="107"/>
+      <c r="K44" s="107">
         <v>2880266</v>
       </c>
-      <c r="L44" s="109"/>
+      <c r="L44" s="107"/>
       <c r="M44" s="42"/>
-      <c r="O44" s="109">
+      <c r="O44" s="107">
         <v>2580602</v>
       </c>
-      <c r="P44" s="109"/>
-      <c r="R44" s="109">
+      <c r="P44" s="107"/>
+      <c r="R44" s="107">
         <v>1877698</v>
       </c>
-      <c r="S44" s="109"/>
-      <c r="U44" s="109">
+      <c r="S44" s="107"/>
+      <c r="U44" s="107">
         <v>1789659</v>
       </c>
-      <c r="V44" s="109"/>
-      <c r="X44" s="109">
+      <c r="V44" s="107"/>
+      <c r="X44" s="107">
         <v>1320000</v>
       </c>
-      <c r="Y44" s="109"/>
-      <c r="AA44" s="109">
+      <c r="Y44" s="107"/>
+      <c r="AA44" s="107">
         <v>1011128</v>
       </c>
-      <c r="AB44" s="109"/>
+      <c r="AB44" s="107"/>
     </row>
     <row r="45" spans="2:28">
       <c r="D45" s="35"/>
@@ -3358,13 +3349,7 @@
       <c r="J46" s="44"/>
       <c r="M46" s="42"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="6">
-        <f>G43-K43</f>
-        <v>332823.66299999971</v>
-      </c>
-      <c r="R46" s="95" t="s">
-        <v>90</v>
-      </c>
+      <c r="R46" s="95"/>
       <c r="S46" s="42"/>
       <c r="U46" s="42"/>
       <c r="V46" s="42"/>
@@ -3375,7 +3360,7 @@
     </row>
     <row r="47" spans="2:28">
       <c r="B47" s="99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K47" s="45"/>
       <c r="L47" s="45"/>
@@ -3393,7 +3378,7 @@
     </row>
     <row r="48" spans="2:28">
       <c r="B48" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
@@ -3419,7 +3404,7 @@
     </row>
     <row r="49" spans="2:28">
       <c r="B49" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
@@ -3445,7 +3430,7 @@
     </row>
     <row r="50" spans="2:28">
       <c r="B50" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
@@ -3472,7 +3457,7 @@
     </row>
     <row r="51" spans="2:28">
       <c r="B51" s="99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D51" s="35"/>
       <c r="M51" s="42"/>
@@ -3487,7 +3472,7 @@
     </row>
     <row r="52" spans="2:28">
       <c r="B52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -3500,7 +3485,7 @@
     </row>
     <row r="53" spans="2:28">
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N53" s="5"/>
       <c r="Q53" s="5"/>
@@ -3551,17 +3536,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D13:D25"/>
+    <mergeCell ref="X43:Y43"/>
     <mergeCell ref="AA43:AB43"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="K44:L44"/>
@@ -3575,11 +3554,17 @@
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="U43:V43"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D13:D25"/>
-    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3602,7 +3587,7 @@
   <sheetData>
     <row r="2" spans="3:5">
       <c r="C2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1"/>
     </row>

--- a/msff/xls/NAV.xlsx
+++ b/msff/xls/NAV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A19874E-3A49-4F84-8345-8FD3B50B96F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D4A77F-10B3-4D18-99D6-0180C6CAD204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="-21600" windowWidth="17310" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAV24" sheetId="2" r:id="rId1"/>
@@ -836,6 +836,33 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -853,33 +880,6 @@
     </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,7 +1159,7 @@
   <dimension ref="B1:AB59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1204,42 +1204,42 @@
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="102"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="102"/>
+      <c r="L2" s="111"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="101" t="s">
+      <c r="O2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="102"/>
+      <c r="P2" s="111"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="102"/>
+      <c r="S2" s="111"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="105" t="s">
+      <c r="U2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="V2" s="106"/>
+      <c r="V2" s="115"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="101">
+      <c r="X2" s="110">
         <v>42401</v>
       </c>
-      <c r="Y2" s="102"/>
+      <c r="Y2" s="111"/>
       <c r="Z2" s="10"/>
-      <c r="AA2" s="101" t="s">
+      <c r="AA2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="102"/>
+      <c r="AB2" s="111"/>
     </row>
     <row r="3" spans="2:28">
       <c r="B3" s="7" t="s">
@@ -1413,7 +1413,7 @@
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="103" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="15" t="s">
@@ -1463,7 +1463,7 @@
       <c r="B7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="111"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="111"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
@@ -1556,7 +1556,7 @@
       <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="111"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="111"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="112"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="13" t="s">
         <v>19</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="106" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -1819,7 +1819,7 @@
       <c r="C14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="114"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="15" t="s">
         <v>40</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="114"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="13" t="s">
         <v>41</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="C16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="114"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
@@ -1968,13 +1968,13 @@
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="101" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="114"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="13" t="s">
         <v>45</v>
       </c>
@@ -2019,11 +2019,11 @@
       <c r="AB17" s="13"/>
     </row>
     <row r="18" spans="2:28">
-      <c r="B18" s="109"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="114"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="C19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="C20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="114"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="15" t="s">
         <v>49</v>
       </c>
@@ -2175,7 +2175,7 @@
     <row r="21" spans="2:28">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="114"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="13" t="s">
         <v>51</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="114"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="13" t="s">
         <v>52</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="C23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="114"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="15" t="s">
         <v>54</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="C24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="114"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="18" t="s">
         <v>55</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="115"/>
+      <c r="D25" s="108"/>
       <c r="E25" s="13" t="s">
         <v>58</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="B30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="110" t="s">
+      <c r="C30" s="103" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="22" t="s">
@@ -2664,7 +2664,7 @@
       <c r="B31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="111"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="22" t="s">
         <v>19</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="111"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="22" t="s">
         <v>19</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="B33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="112"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="29" t="s">
         <v>71</v>
       </c>
@@ -3079,11 +3079,11 @@
       </c>
     </row>
     <row r="39" spans="2:28">
-      <c r="C39" s="103">
+      <c r="C39" s="112">
         <f>ABS(G39-G40)+ABS(H39-H40)+ABS(G43-G44)+ABS(K39-K40)+ABS(L39-L40)+ABS(K43-K44)+ABS(O39-O40)+ABS(P39-P40)+ABS(O43-O44)+ABS(R39-R40)+ABS(S39-S40)+ABS(R43-R44)+ABS(U39-U40)+ABS(V39-V40)+ABS(U43-U44)</f>
         <v>0</v>
       </c>
-      <c r="D39" s="103"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="35" t="s">
         <v>81</v>
       </c>
@@ -3199,9 +3199,7 @@
       <c r="E41" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="100">
-        <v>1.35</v>
-      </c>
+      <c r="F41" s="100"/>
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
@@ -3221,15 +3219,15 @@
       <c r="E42" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
       <c r="J42" s="6"/>
-      <c r="K42" s="104"/>
-      <c r="L42" s="104"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
       <c r="M42" s="41"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="104"/>
-      <c r="P42" s="104"/>
+      <c r="O42" s="113"/>
+      <c r="P42" s="113"/>
       <c r="Q42" s="93"/>
       <c r="R42" s="94"/>
       <c r="S42" s="93"/>
@@ -3244,77 +3242,77 @@
       <c r="E43" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="107">
+      <c r="G43" s="109">
         <f>ROUND(H39*1.3479+G39,0)</f>
         <v>3213745</v>
       </c>
-      <c r="H43" s="107"/>
-      <c r="K43" s="107">
+      <c r="H43" s="109"/>
+      <c r="K43" s="109">
         <f>ROUND(L39*1.3439+K39,0)</f>
         <v>2880266</v>
       </c>
-      <c r="L43" s="107"/>
+      <c r="L43" s="109"/>
       <c r="M43" s="42"/>
-      <c r="O43" s="107">
+      <c r="O43" s="109">
         <f>ROUND(P39*1.3465+O39,0)</f>
         <v>2580602</v>
       </c>
-      <c r="P43" s="107"/>
-      <c r="R43" s="107">
+      <c r="P43" s="109"/>
+      <c r="R43" s="109">
         <f>ROUND(S39*1.37+R39,0)</f>
         <v>1877698</v>
       </c>
-      <c r="S43" s="107"/>
-      <c r="U43" s="107">
+      <c r="S43" s="109"/>
+      <c r="U43" s="109">
         <f>V39*1.37+U39</f>
         <v>1789659</v>
       </c>
-      <c r="V43" s="107"/>
-      <c r="X43" s="107">
+      <c r="V43" s="109"/>
+      <c r="X43" s="109">
         <f>Y39*1.36+X39</f>
         <v>1320000.2</v>
       </c>
-      <c r="Y43" s="107"/>
-      <c r="AA43" s="107">
+      <c r="Y43" s="109"/>
+      <c r="AA43" s="109">
         <f>AB39*1.4+AA39</f>
         <v>1011128</v>
       </c>
-      <c r="AB43" s="107"/>
+      <c r="AB43" s="109"/>
     </row>
     <row r="44" spans="2:28">
       <c r="D44" s="35"/>
       <c r="E44" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="107">
+      <c r="G44" s="109">
         <v>3213745</v>
       </c>
-      <c r="H44" s="107"/>
-      <c r="K44" s="107">
+      <c r="H44" s="109"/>
+      <c r="K44" s="109">
         <v>2880266</v>
       </c>
-      <c r="L44" s="107"/>
+      <c r="L44" s="109"/>
       <c r="M44" s="42"/>
-      <c r="O44" s="107">
+      <c r="O44" s="109">
         <v>2580602</v>
       </c>
-      <c r="P44" s="107"/>
-      <c r="R44" s="107">
+      <c r="P44" s="109"/>
+      <c r="R44" s="109">
         <v>1877698</v>
       </c>
-      <c r="S44" s="107"/>
-      <c r="U44" s="107">
+      <c r="S44" s="109"/>
+      <c r="U44" s="109">
         <v>1789659</v>
       </c>
-      <c r="V44" s="107"/>
-      <c r="X44" s="107">
+      <c r="V44" s="109"/>
+      <c r="X44" s="109">
         <v>1320000</v>
       </c>
-      <c r="Y44" s="107"/>
-      <c r="AA44" s="107">
+      <c r="Y44" s="109"/>
+      <c r="AA44" s="109">
         <v>1011128</v>
       </c>
-      <c r="AB44" s="107"/>
+      <c r="AB44" s="109"/>
     </row>
     <row r="45" spans="2:28">
       <c r="D45" s="35"/>
@@ -3536,11 +3534,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D13:D25"/>
-    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="U2:V2"/>
     <mergeCell ref="AA43:AB43"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="K44:L44"/>
@@ -3554,17 +3558,11 @@
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="R43:S43"/>
     <mergeCell ref="U43:V43"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D13:D25"/>
+    <mergeCell ref="X43:Y43"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
